--- a/sota-coverage.xlsx
+++ b/sota-coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Dropbox\UNIPI\Research\paper\2019\microservices-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAF0F53-22EB-4DE4-97AD-3CED479B4019}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D37B3FF-18D1-4EC7-BC84-2A568B0C7772}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="3" activeTab="3" xr2:uid="{164FB32B-D507-4C64-AE57-F04EA40FC413}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{164FB32B-D507-4C64-AE57-F04EA40FC413}"/>
   </bookViews>
   <sheets>
     <sheet name="SOTA" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="161">
   <si>
     <t>Tot.</t>
   </si>
@@ -2212,7 +2212,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -5783,7 +5783,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E7ABCE92-A77A-4DA3-9456-0375219D3702}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
@@ -5795,7 +5795,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1C1FBEA0-A0FC-4F8B-87E3-5A0820C711A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5807,7 +5807,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6A2BE8D1-3507-4AE9-99F7-D0CB76C987FB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5843,7 +5843,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="7084017" cy="4849678"/>
+    <xdr:ext cx="4729480" cy="3241040"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6538,7 +6538,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10306050" cy="4552950"/>
+    <xdr:ext cx="6884737" cy="3050865"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6571,7 +6571,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10325100" cy="4559300"/>
+    <xdr:ext cx="10330206" cy="4575928"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6969,15 +6969,15 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.3671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.3125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="25.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>66</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>33</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>35</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>36</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>38</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>39</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>40</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>41</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>42</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>44</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
         <v>45</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
         <v>46</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>48</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>49</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
         <v>32</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
         <v>50</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>51</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>52</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
         <v>53</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
         <v>54</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>55</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
         <v>56</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>57</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>58</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>59</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>60</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>61</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
         <v>62</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
         <v>63</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
         <v>64</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
         <v>65</v>
       </c>
@@ -7371,22 +7371,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CF1B79-A567-474A-9625-3FD0B1AF0E0C}">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ30" sqref="AJ30"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="37" width="3.62890625" customWidth="1"/>
-    <col min="38" max="38" width="4.734375" customWidth="1"/>
-    <col min="40" max="40" width="3.89453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="37" width="3.5703125" customWidth="1"/>
+    <col min="38" max="38" width="4.7109375" customWidth="1"/>
+    <col min="40" max="40" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -7743,7 +7743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -7816,7 +7816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
@@ -7961,7 +7961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -8106,7 +8106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
@@ -8287,7 +8287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
@@ -8432,7 +8432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -8503,7 +8503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
@@ -8648,7 +8648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -8793,7 +8793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
@@ -8824,7 +8824,9 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -8849,10 +8851,10 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="27">
         <f>COUNTIF(D15:AK15,"x")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -8972,7 +8974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
@@ -9046,7 +9048,7 @@
       </c>
       <c r="U18" s="9">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" si="39"/>
@@ -9117,7 +9119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -9170,7 +9172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
@@ -9237,7 +9239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
@@ -9382,7 +9384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -9456,7 +9458,7 @@
       </c>
       <c r="U22" s="13">
         <f t="shared" si="45"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V22" s="13">
         <f t="shared" si="45"/>
@@ -9527,7 +9529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>23</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="11"/>
       <c r="C24" s="8"/>
@@ -9731,7 +9733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="10" t="s">
         <v>25</v>
@@ -9802,7 +9804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="7"/>
       <c r="C26" s="4" t="s">
@@ -9853,7 +9855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
@@ -9930,7 +9932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="7"/>
       <c r="C28" s="36"/>
@@ -10075,7 +10077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -10138,7 +10140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="11"/>
       <c r="C30" s="8"/>
@@ -10283,7 +10285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -10428,7 +10430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10443,16 +10445,16 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="49" t="s">
         <v>147</v>
       </c>
@@ -10469,7 +10471,7 @@
       </c>
       <c r="L1" s="49"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>134</v>
       </c>
@@ -10498,7 +10500,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
         <v>137</v>
       </c>
@@ -10530,7 +10532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="48" t="s">
         <v>137</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
         <v>138</v>
       </c>
@@ -10594,7 +10596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="48" t="s">
         <v>138</v>
       </c>
@@ -10612,7 +10614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
         <v>139</v>
       </c>
@@ -10630,7 +10632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="48" t="s">
         <v>139</v>
       </c>
@@ -10656,7 +10658,7 @@
       </c>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
         <v>140</v>
       </c>
@@ -10686,7 +10688,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="48" t="s">
         <v>140</v>
       </c>
@@ -10708,7 +10710,7 @@
       </c>
       <c r="I10" s="48">
         <f>Coverage!AL15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>153</v>
@@ -10718,7 +10720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>140</v>
       </c>
@@ -10750,7 +10752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H12" s="48" t="s">
         <v>157</v>
       </c>

--- a/sota-coverage.xlsx
+++ b/sota-coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Dropbox\UNIPI\Research\paper\2019\microservices-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D37B3FF-18D1-4EC7-BC84-2A568B0C7772}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03027BCA-647C-459B-ADD2-BE04C5E7DF32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{164FB32B-D507-4C64-AE57-F04EA40FC413}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{164FB32B-D507-4C64-AE57-F04EA40FC413}"/>
   </bookViews>
   <sheets>
     <sheet name="SOTA" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
   <si>
     <t>Tot.</t>
   </si>
@@ -521,6 +521,15 @@
   </si>
   <si>
     <t>split database</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>Release it! Design and deploy production-ready software</t>
+  </si>
+  <si>
+    <t>Nygard</t>
   </si>
 </sst>
 </file>
@@ -1252,19 +1261,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -1501,8 +1510,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3511055582996776E-2"/>
-                  <c:y val="2.3241506371592126E-3"/>
+                  <c:x val="-1.893136125343366E-2"/>
+                  <c:y val="-6.0003819269042521E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1556,8 +1565,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.35798132705736507"/>
-                      <c:h val="0.21064110718750684"/>
+                      <c:w val="0.33831756328743373"/>
+                      <c:h val="0.19399199264462968"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1778,7 +1787,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,13 +2221,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2631,10 +2640,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5783,7 +5792,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E7ABCE92-A77A-4DA3-9456-0375219D3702}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
@@ -5795,7 +5804,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1C1FBEA0-A0FC-4F8B-87E3-5A0820C711A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5807,7 +5816,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6A2BE8D1-3507-4AE9-99F7-D0CB76C987FB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5819,7 +5828,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6BF026BE-F6CC-4853-B579-196DFC75099B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5831,7 +5840,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DF903272-626F-41A4-8039-7140A50501B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5843,7 +5852,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="4729480" cy="3241040"/>
+    <xdr:ext cx="7080250" cy="4847167"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6538,7 +6547,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6884737" cy="3050865"/>
+    <xdr:ext cx="10333726" cy="4564811"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6571,7 +6580,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10330206" cy="4575928"/>
+    <xdr:ext cx="10333726" cy="4564811"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6604,7 +6613,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10325100" cy="4559300"/>
+    <xdr:ext cx="10328672" cy="4566047"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6637,7 +6646,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10325100" cy="4559300"/>
+    <xdr:ext cx="10333726" cy="4564811"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6963,21 +6972,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696768EC-52E1-41A6-AEFE-3F496309AA55}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="4.41796875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.83984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
         <v>66</v>
       </c>
@@ -6988,7 +6997,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="42" t="s">
         <v>33</v>
       </c>
@@ -6999,7 +7008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
@@ -7010,7 +7019,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="42" t="s">
         <v>35</v>
       </c>
@@ -7021,7 +7030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="42" t="s">
         <v>36</v>
       </c>
@@ -7032,7 +7041,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
@@ -7043,7 +7052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="42" t="s">
         <v>38</v>
       </c>
@@ -7054,7 +7063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>39</v>
       </c>
@@ -7065,7 +7074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="42" t="s">
         <v>40</v>
       </c>
@@ -7076,7 +7085,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="42" t="s">
         <v>41</v>
       </c>
@@ -7087,7 +7096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="42" t="s">
         <v>42</v>
       </c>
@@ -7098,7 +7107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
@@ -7109,7 +7118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="42" t="s">
         <v>44</v>
       </c>
@@ -7120,7 +7129,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="42" t="s">
         <v>45</v>
       </c>
@@ -7131,7 +7140,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="42" t="s">
         <v>46</v>
       </c>
@@ -7142,7 +7151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -7153,7 +7162,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="42" t="s">
         <v>48</v>
       </c>
@@ -7164,7 +7173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="42" t="s">
         <v>49</v>
       </c>
@@ -7175,7 +7184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="42" t="s">
         <v>32</v>
       </c>
@@ -7186,7 +7195,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="42" t="s">
         <v>50</v>
       </c>
@@ -7197,7 +7206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="42" t="s">
         <v>51</v>
       </c>
@@ -7208,7 +7217,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="42" t="s">
         <v>52</v>
       </c>
@@ -7219,7 +7228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="42" t="s">
         <v>53</v>
       </c>
@@ -7230,135 +7239,146 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B25" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C25" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B26" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C26" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B27" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C27" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A28" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B28" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C28" s="44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A29" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B29" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C29" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B30" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C30" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A31" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B31" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C31" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A32" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B32" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C32" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A33" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B33" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C33" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A34" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B34" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C34" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A35" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B35" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C35" s="44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A36" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B36" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C36" s="44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7369,24 +7389,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CF1B79-A567-474A-9625-3FD0B1AF0E0C}">
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AP32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="37" width="3.5703125" customWidth="1"/>
-    <col min="38" max="38" width="4.7109375" customWidth="1"/>
-    <col min="40" max="40" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="38" width="3.578125" customWidth="1"/>
+    <col min="39" max="39" width="4.68359375" customWidth="1"/>
+    <col min="41" max="41" width="3.83984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7457,46 +7477,49 @@
         <v>53</v>
       </c>
       <c r="Z1" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AB1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AC1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AD1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" s="32" t="s">
+      <c r="AM1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -7540,12 +7563,13 @@
       <c r="AI2" s="19"/>
       <c r="AJ2" s="19"/>
       <c r="AK2" s="19"/>
-      <c r="AL2" s="20">
-        <f>COUNTIF(D2:AK2,"x")</f>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="20">
+        <f>COUNTIF(D2:AL2,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7587,12 +7611,13 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
-      <c r="AL3" s="22">
-        <f>COUNTIF(D3:AK3,"x")</f>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="22">
+        <f>COUNTIF(D3:AL3,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="21"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -7665,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:AE4" si="1">COUNTIF(U2:U3,"x")</f>
+        <f t="shared" ref="U4:AF4" si="1">COUNTIF(U2:U3,"x")</f>
         <v>0</v>
       </c>
       <c r="V4" s="9">
@@ -7685,11 +7710,11 @@
         <v>0</v>
       </c>
       <c r="Z4" s="9">
+        <f t="shared" ref="Z4" si="2">COUNTIF(Z2:Z3,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="9">
-        <f t="shared" ref="AA4" si="2">COUNTIF(AA2:AA3,"x")</f>
         <v>0</v>
       </c>
       <c r="AB4" s="9">
@@ -7701,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AD4" si="5">COUNTIF(AD2:AD3,"x")</f>
         <v>0</v>
       </c>
       <c r="AE4" s="9">
@@ -7709,41 +7734,45 @@
         <v>0</v>
       </c>
       <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AK4" si="5">COUNTIF(AF2:AF3,"x")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG4" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AG4:AL4" si="6">COUNTIF(AG2:AG3,"x")</f>
         <v>0</v>
       </c>
       <c r="AH4" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI4" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK4" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="23">
-        <f>$AO$4-COUNTIF(D4:AK4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="33" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="23">
+        <f>$AP$4-COUNTIF(D4:AL4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AO4" s="33">
-        <v>34</v>
+      <c r="AP4" s="33">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -7795,154 +7824,157 @@
       <c r="Y5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="5"/>
+      <c r="Z5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="22">
-        <f>COUNTIF(D5:AK5,"x")</f>
-        <v>13</v>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="22">
+        <f>COUNTIF(D5:AL5,"x")</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="21"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:N6" si="6">COUNTIF(D5:D5,"x")</f>
+        <f t="shared" ref="D6:N6" si="7">COUNTIF(D5:D5,"x")</f>
         <v>1</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:AF6" si="7">COUNTIF(O5:O5,"x")</f>
+        <f t="shared" ref="O6:AG6" si="8">COUNTIF(O5:O5,"x")</f>
         <v>0</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z6" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="Z6" si="9">COUNTIF(Z5:Z5,"x")</f>
+        <v>1</v>
       </c>
       <c r="AA6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG6" s="9">
-        <f>COUNTIF(AG5:AG5,"x")</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AH6" s="9">
         <f>COUNTIF(AH5:AH5,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="9">
         <f>COUNTIF(AI5:AI5,"x")</f>
@@ -7954,159 +7986,167 @@
       </c>
       <c r="AK6" s="9">
         <f>COUNTIF(AK5:AK5,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AL6" s="23">
-        <f>$AO$4-COUNTIF(D6:AK6,0)</f>
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="9">
+        <f>COUNTIF(AL5:AL5,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AM6" s="23">
+        <f>$AP$4-COUNTIF(D6:AL6,0)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <f t="shared" ref="D7:AK7" si="8">D4+D6</f>
+        <f t="shared" ref="D7:AL7" si="10">D4+D6</f>
         <v>1</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U7" s="13">
-        <f t="shared" ref="U7" si="9">U4+U6</f>
+        <f t="shared" ref="U7" si="11">U4+U6</f>
         <v>1</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" ref="V7" si="10">V4+V6</f>
+        <f t="shared" ref="V7" si="12">V4+V6</f>
         <v>0</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" ref="W7" si="11">W4+W6</f>
+        <f t="shared" ref="W7" si="13">W4+W6</f>
         <v>0</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" ref="X7" si="12">X4+X6</f>
+        <f t="shared" ref="X7" si="14">X4+X6</f>
         <v>0</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" ref="Y7" si="13">Y4+Y6</f>
+        <f t="shared" ref="Y7:Z7" si="15">Y4+Y6</f>
         <v>1</v>
       </c>
       <c r="Z7" s="13">
-        <f t="shared" ref="Z7" si="14">Z4+Z6</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="AA7" s="13">
-        <f t="shared" ref="AA7" si="15">AA4+AA6</f>
+        <f t="shared" ref="AA7" si="16">AA4+AA6</f>
         <v>0</v>
       </c>
       <c r="AB7" s="13">
-        <f t="shared" ref="AB7" si="16">AB4+AB6</f>
+        <f t="shared" ref="AB7" si="17">AB4+AB6</f>
         <v>0</v>
       </c>
       <c r="AC7" s="13">
-        <f t="shared" ref="AC7" si="17">AC4+AC6</f>
+        <f t="shared" ref="AC7" si="18">AC4+AC6</f>
         <v>0</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" ref="AD7" si="18">AD4+AD6</f>
+        <f t="shared" ref="AD7" si="19">AD4+AD6</f>
         <v>0</v>
       </c>
       <c r="AE7" s="13">
-        <f t="shared" ref="AE7" si="19">AE4+AE6</f>
+        <f t="shared" ref="AE7" si="20">AE4+AE6</f>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" ref="AF7" si="20">AF4+AF6</f>
+        <f t="shared" ref="AF7" si="21">AF4+AF6</f>
         <v>0</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="AG7" si="22">AG4+AG6</f>
+        <v>0</v>
       </c>
       <c r="AH7" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="AI7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK7" s="13">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AL7" s="25">
-        <f>$AO$4-COUNTIF(D7:AK7,0)</f>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AM7" s="25">
+        <f>$AP$4-COUNTIF(D7:AL7,0)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -8140,10 +8180,10 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -8154,12 +8194,13 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="27">
-        <f>COUNTIF(D8:AK8,"x")</f>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="27">
+        <f>COUNTIF(D8:AL8,"x")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -8199,13 +8240,13 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AB9" s="5"/>
+      <c r="AB9" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -8215,12 +8256,13 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AL9" s="22">
-        <f>COUNTIF(D9:AK9,"x")</f>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="22">
+        <f>COUNTIF(D9:AL9,"x")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
@@ -8265,174 +8307,181 @@
       <c r="Z10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA10" s="5"/>
+      <c r="AA10" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AK10" s="5"/>
-      <c r="AL10" s="22">
-        <f>COUNTIF(D10:AK10,"x")</f>
-        <v>11</v>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="22">
+        <f>COUNTIF(D10:AL10,"x")</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21"/>
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9">
-        <f t="shared" ref="D11:AK11" si="21">COUNTIF(D8:D10,"x")</f>
+        <f t="shared" ref="D11:AL11" si="23">COUNTIF(D8:D10,"x")</f>
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="X11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="Z11" si="24">COUNTIF(Z8:Z10,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="AA11" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
       <c r="AB11" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="AC11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AG11" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AH11" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AJ11" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="AK11" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="23">
-        <f>$AO$4-COUNTIF(D11:AK11,0)</f>
-        <v>13</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="23">
+        <f>$AP$4-COUNTIF(D11:AL11,0)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -8479,321 +8528,332 @@
       <c r="Z12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="5"/>
       <c r="AC12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AD12" s="5"/>
+      <c r="AD12" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH12" s="5"/>
       <c r="AI12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AJ12" s="5"/>
+      <c r="AJ12" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AK12" s="5"/>
-      <c r="AL12" s="22">
-        <f>COUNTIF(D12:AK12,"x")</f>
-        <v>12</v>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="22">
+        <f>COUNTIF(D12:AL12,"x")</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="21"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9">
-        <f t="shared" ref="D13:S13" si="22">COUNTIF(D12:D12,"x")</f>
+        <f t="shared" ref="D13:S13" si="25">COUNTIF(D12:D12,"x")</f>
         <v>0</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" ref="T13:AE13" si="23">COUNTIF(T12:T12,"x")</f>
+        <f t="shared" ref="T13:AF13" si="26">COUNTIF(T12:T12,"x")</f>
         <v>0</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Z13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="Z13" si="27">COUNTIF(Z12:Z12,"x")</f>
         <v>1</v>
       </c>
       <c r="AA13" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="AB13" s="9">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AC13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AD13" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AF13" s="9">
-        <f t="shared" ref="AF13:AK13" si="24">COUNTIF(AF12:AF12,"x")</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG13" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AG13:AL13" si="28">COUNTIF(AG12:AG12,"x")</f>
         <v>0</v>
       </c>
       <c r="AH13" s="9">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AI13" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AJ13" s="9">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="AK13" s="9">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="23">
-        <f>$AO$4-COUNTIF(D13:AK13,0)</f>
-        <v>12</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="23">
+        <f>$AP$4-COUNTIF(D13:AL13,0)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="24"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="13">
-        <f t="shared" ref="D14:AK14" si="25">D11+D13</f>
+        <f t="shared" ref="D14:AL14" si="29">D11+D13</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="P14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="Q14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="S14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="T14" s="13">
-        <f t="shared" ref="T14" si="26">T11+T13</f>
+        <f t="shared" ref="T14" si="30">T11+T13</f>
         <v>0</v>
       </c>
       <c r="U14" s="13">
-        <f t="shared" ref="U14" si="27">U11+U13</f>
+        <f t="shared" ref="U14" si="31">U11+U13</f>
         <v>3</v>
       </c>
       <c r="V14" s="13">
-        <f t="shared" ref="V14" si="28">V11+V13</f>
+        <f t="shared" ref="V14" si="32">V11+V13</f>
         <v>0</v>
       </c>
       <c r="W14" s="13">
-        <f t="shared" ref="W14" si="29">W11+W13</f>
+        <f t="shared" ref="W14" si="33">W11+W13</f>
         <v>2</v>
       </c>
       <c r="X14" s="13">
-        <f t="shared" ref="X14" si="30">X11+X13</f>
+        <f t="shared" ref="X14" si="34">X11+X13</f>
         <v>0</v>
       </c>
       <c r="Y14" s="13">
-        <f t="shared" ref="Y14" si="31">Y11+Y13</f>
+        <f t="shared" ref="Y14:Z14" si="35">Y11+Y13</f>
         <v>1</v>
       </c>
       <c r="Z14" s="13">
-        <f t="shared" ref="Z14" si="32">Z11+Z13</f>
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="13">
+        <f t="shared" ref="AA14" si="36">AA11+AA13</f>
         <v>4</v>
       </c>
-      <c r="AA14" s="13">
-        <f t="shared" ref="AA14" si="33">AA11+AA13</f>
-        <v>1</v>
-      </c>
       <c r="AB14" s="13">
-        <f t="shared" ref="AB14" si="34">AB11+AB13</f>
+        <f t="shared" ref="AB14" si="37">AB11+AB13</f>
         <v>1</v>
       </c>
       <c r="AC14" s="13">
-        <f t="shared" ref="AC14" si="35">AC11+AC13</f>
+        <f t="shared" ref="AC14" si="38">AC11+AC13</f>
         <v>1</v>
       </c>
       <c r="AD14" s="13">
-        <f t="shared" ref="AD14" si="36">AD11+AD13</f>
+        <f t="shared" ref="AD14" si="39">AD11+AD13</f>
         <v>1</v>
       </c>
       <c r="AE14" s="13">
-        <f t="shared" ref="AE14" si="37">AE11+AE13</f>
-        <v>0</v>
+        <f t="shared" ref="AE14" si="40">AE11+AE13</f>
+        <v>1</v>
       </c>
       <c r="AF14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="AF14" si="41">AF11+AF13</f>
         <v>0</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AH14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AI14" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="13">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="AJ14" s="13">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
       <c r="AK14" s="13">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="25">
-        <f>$AO$4-COUNTIF(D14:AK14,0)</f>
-        <v>18</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="25">
+        <f>$AP$4-COUNTIF(D14:AL14,0)</f>
+        <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
@@ -8831,30 +8891,33 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="3"/>
+      <c r="Z15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="AF15" s="3"/>
       <c r="AG15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AH15" s="3"/>
+      <c r="AH15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
-      <c r="AL15" s="27">
-        <f>COUNTIF(D15:AK15,"x")</f>
-        <v>6</v>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="27">
+        <f>COUNTIF(D15:AL15,"x")</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
@@ -8886,7 +8949,9 @@
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
+      <c r="Z16" s="35" t="s">
+        <v>1</v>
+      </c>
       <c r="AA16" s="35"/>
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
@@ -8898,12 +8963,13 @@
       <c r="AI16" s="35"/>
       <c r="AJ16" s="35"/>
       <c r="AK16" s="35"/>
-      <c r="AL16" s="22">
-        <f>COUNTIF(D16:AK16,"x")</f>
-        <v>1</v>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="22">
+        <f>COUNTIF(D16:AL16,"x")</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="21"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -8949,177 +9015,184 @@
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="5"/>
       <c r="AB17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="5"/>
+      <c r="AC17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-      <c r="AL17" s="22">
-        <f>COUNTIF(D17:AK17,"x")</f>
-        <v>13</v>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="22">
+        <f>COUNTIF(D17:AL17,"x")</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="21"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
-        <f t="shared" ref="D18:S18" si="38">COUNTIF(D15:D17,"x")</f>
+        <f t="shared" ref="D18:S18" si="42">COUNTIF(D15:D17,"x")</f>
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" ref="T18:AE18" si="39">COUNTIF(T15:T17,"x")</f>
+        <f t="shared" ref="T18:AF18" si="43">COUNTIF(T15:T17,"x")</f>
         <v>0</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" ref="Z18" si="44">COUNTIF(Z15:Z17,"x")</f>
+        <v>3</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="AB18" s="9">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
       <c r="AC18" s="9">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="39"/>
-        <v>1</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AE18" s="9">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="AF18" s="9">
-        <f t="shared" ref="AF18:AK18" si="40">COUNTIF(AF15:AF17,"x")</f>
-        <v>1</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AG18" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AG18:AL18" si="45">COUNTIF(AG15:AG17,"x")</f>
         <v>1</v>
       </c>
       <c r="AH18" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AI18" s="9">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>1</v>
       </c>
       <c r="AJ18" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AK18" s="9">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="23">
-        <f>$AO$4-COUNTIF(D18:AK18,0)</f>
-        <v>15</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="9">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="23">
+        <f>$AP$4-COUNTIF(D18:AL18,0)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="21"/>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -9128,7 +9201,9 @@
         <v>13</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -9151,28 +9226,31 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="Z19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AF19" s="5"/>
       <c r="AG19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AH19" s="5"/>
+      <c r="AH19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
-      <c r="AL19" s="22">
-        <f>COUNTIF(D19:AK19,"x")</f>
-        <v>3</v>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="22">
+        <f>COUNTIF(D19:AL19,"x")</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
@@ -9212,324 +9290,335 @@
       <c r="Y20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="5"/>
+      <c r="Z20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="5"/>
       <c r="AG20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="5"/>
+      <c r="AH20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AK20" s="5"/>
-      <c r="AL20" s="22">
-        <f>COUNTIF(D20:AK20,"x")</f>
-        <v>11</v>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="22">
+        <f>COUNTIF(D20:AL20,"x")</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="21"/>
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9">
-        <f t="shared" ref="D21:S21" si="41">COUNTIF(D19:D20,"x")</f>
+        <f t="shared" ref="D21:S21" si="46">COUNTIF(D19:D20,"x")</f>
         <v>0</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <f t="shared" ref="T21:AE21" si="42">COUNTIF(T19:T20,"x")</f>
+        <f t="shared" ref="T21:AF21" si="47">COUNTIF(T19:T20,"x")</f>
         <v>2</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="V21" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="W21" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="X21" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y21" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="Z21" s="9">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" ref="Z21" si="48">COUNTIF(Z19:Z20,"x")</f>
+        <v>2</v>
       </c>
       <c r="AA21" s="9">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AB21" s="9">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="AC21" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AD21" s="9">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AE21" s="9">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="AF21" s="9">
-        <f t="shared" ref="AF21:AK21" si="43">COUNTIF(AF19:AF20,"x")</f>
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <f t="shared" ref="AG21:AL21" si="49">COUNTIF(AG19:AG20,"x")</f>
         <v>2</v>
       </c>
-      <c r="AG21" s="9">
-        <f t="shared" si="43"/>
+      <c r="AH21" s="9">
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
-      <c r="AH21" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
       <c r="AI21" s="9">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
       <c r="AJ21" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>1</v>
       </c>
       <c r="AK21" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="23">
-        <f>$AO$4-COUNTIF(D21:AK21,0)</f>
-        <v>11</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="9">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="23">
+        <f>$AP$4-COUNTIF(D21:AL21,0)</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="24"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="13">
-        <f t="shared" ref="D22:S22" si="44">D18+D21</f>
+        <f t="shared" ref="D22:S22" si="50">D18+D21</f>
         <v>0</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>1</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="Q22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="S22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="T22" s="13">
-        <f t="shared" ref="T22:AE22" si="45">T18+T21</f>
+        <f t="shared" ref="T22:AF22" si="51">T18+T21</f>
         <v>2</v>
       </c>
       <c r="U22" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="V22" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W22" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="X22" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y22" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Z22" s="13">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" ref="Z22" si="52">Z18+Z21</f>
+        <v>5</v>
       </c>
       <c r="AA22" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
-      <c r="AB22" s="13">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
       <c r="AC22" s="13">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="AD22" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13">
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
-      <c r="AE22" s="13">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
       <c r="AF22" s="13">
-        <f t="shared" ref="AF22:AK22" si="46">AF18+AF21</f>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13">
+        <f t="shared" ref="AG22:AL22" si="53">AG18+AG21</f>
         <v>3</v>
       </c>
-      <c r="AG22" s="13">
-        <f t="shared" si="46"/>
+      <c r="AH22" s="13">
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="AH22" s="13">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
       <c r="AI22" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="AJ22" s="13">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>1</v>
       </c>
       <c r="AK22" s="13">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="25">
-        <f>$AO$4-COUNTIF(D22:AK22,0)</f>
-        <v>20</v>
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="13">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="25">
+        <f>$AP$4-COUNTIF(D22:AL22,0)</f>
+        <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="26" t="s">
         <v>23</v>
       </c>
@@ -9568,172 +9657,177 @@
         <v>1</v>
       </c>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="27">
-        <f>COUNTIF(D23:AK23,"x")</f>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="27">
+        <f>COUNTIF(D23:AL23,"x")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="21"/>
       <c r="B24" s="11"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9">
-        <f t="shared" ref="D24:S24" si="47">COUNTIF(D23:D23,"x")</f>
+        <f t="shared" ref="D24:S24" si="54">COUNTIF(D23:D23,"x")</f>
         <v>0</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <f t="shared" ref="T24:AE24" si="48">COUNTIF(T23:T23,"x")</f>
+        <f t="shared" ref="T24:AF24" si="55">COUNTIF(T23:T23,"x")</f>
         <v>0</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="V24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="W24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="Z24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="Z24" si="56">COUNTIF(Z23:Z23,"x")</f>
         <v>0</v>
       </c>
       <c r="AA24" s="9">
-        <f t="shared" si="48"/>
-        <v>1</v>
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="AC24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AD24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE24" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AF24" s="9">
-        <f t="shared" ref="AF24:AK24" si="49">COUNTIF(AF23:AF23,"x")</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AG24" s="9">
-        <f t="shared" si="49"/>
-        <v>1</v>
+        <f t="shared" ref="AG24:AL24" si="57">COUNTIF(AG23:AG23,"x")</f>
+        <v>0</v>
       </c>
       <c r="AH24" s="9">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="57"/>
+        <v>1</v>
       </c>
       <c r="AI24" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AK24" s="9">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="23">
-        <f>$AO$4-COUNTIF(D24:AK24,0)</f>
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="9">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="23">
+        <f>$AP$4-COUNTIF(D24:AL24,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="21"/>
       <c r="B25" s="10" t="s">
         <v>25</v>
@@ -9777,34 +9871,35 @@
       <c r="Y25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AI25" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI25" s="5"/>
       <c r="AJ25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="22">
-        <f>COUNTIF(D25:AK25,"x")</f>
+      <c r="AK25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="22">
+        <f>COUNTIF(D25:AL25,"x")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="21"/>
       <c r="B26" s="7"/>
       <c r="C26" s="4" t="s">
@@ -9850,12 +9945,13 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
-      <c r="AL26" s="22">
-        <f>COUNTIF(D26:AK26,"x")</f>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="22">
+        <f>COUNTIF(D26:AL26,"x")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="21"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
@@ -9905,179 +10001,184 @@
       <c r="Y27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="5"/>
       <c r="AJ27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="22">
-        <f>COUNTIF(D27:AK27,"x")</f>
+      <c r="AK27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="22">
+        <f>COUNTIF(D27:AL27,"x")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="21"/>
       <c r="B28" s="7"/>
       <c r="C28" s="36"/>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:S28" si="50">COUNTIF(D25:D27,"x")</f>
+        <f t="shared" ref="D28:S28" si="58">COUNTIF(D25:D27,"x")</f>
         <v>1</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="T28" s="15">
-        <f t="shared" ref="T28:AE28" si="51">COUNTIF(T25:T27,"x")</f>
+        <f t="shared" ref="T28:AF28" si="59">COUNTIF(T25:T27,"x")</f>
         <v>3</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="V28" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="X28" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="Y28" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="Z28" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="Z28" si="60">COUNTIF(Z25:Z27,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15">
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AA28" s="15">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
       <c r="AB28" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="15">
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AC28" s="15">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
       <c r="AD28" s="15">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
       <c r="AE28" s="15">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>1</v>
       </c>
       <c r="AF28" s="15">
-        <f t="shared" ref="AF28:AK28" si="52">COUNTIF(AF25:AF27,"x")</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AG28" s="15">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" ref="AG28:AL28" si="61">COUNTIF(AG25:AG27,"x")</f>
+        <v>0</v>
       </c>
       <c r="AH28" s="15">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="61"/>
+        <v>1</v>
       </c>
       <c r="AI28" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="15">
+        <f t="shared" si="61"/>
         <v>2</v>
       </c>
-      <c r="AJ28" s="15">
-        <f t="shared" si="52"/>
+      <c r="AK28" s="15">
+        <f t="shared" si="61"/>
         <v>2</v>
       </c>
-      <c r="AK28" s="15">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="37">
-        <f>$AO$4-COUNTIF(D28:AK28,0)</f>
+      <c r="AL28" s="15">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="37">
+        <f>$AP$4-COUNTIF(D28:AL28,0)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="21"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -10118,319 +10219,328 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="22">
-        <f>COUNTIF(D29:AK29,"x")</f>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="22">
+        <f>COUNTIF(D29:AL29,"x")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="21"/>
       <c r="B30" s="11"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9">
-        <f t="shared" ref="D30:S30" si="53">COUNTIF(D29:D29,"x")</f>
+        <f t="shared" ref="D30:S30" si="62">COUNTIF(D29:D29,"x")</f>
         <v>0</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" ref="T30:AE30" si="54">COUNTIF(T29:T29,"x")</f>
+        <f t="shared" ref="T30:AF30" si="63">COUNTIF(T29:T29,"x")</f>
         <v>1</v>
       </c>
       <c r="U30" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V30" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W30" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="X30" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z30" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="Z30" si="64">COUNTIF(Z29:Z29,"x")</f>
         <v>0</v>
       </c>
       <c r="AA30" s="9">
-        <f t="shared" si="54"/>
-        <v>1</v>
+        <f t="shared" si="63"/>
+        <v>0</v>
       </c>
       <c r="AB30" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>1</v>
       </c>
       <c r="AC30" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AD30" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AE30" s="9">
-        <f t="shared" si="54"/>
-        <v>1</v>
+        <f t="shared" si="63"/>
+        <v>0</v>
       </c>
       <c r="AF30" s="9">
-        <f t="shared" ref="AF30:AK30" si="55">COUNTIF(AF29:AF29,"x")</f>
-        <v>0</v>
+        <f t="shared" si="63"/>
+        <v>1</v>
       </c>
       <c r="AG30" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AG30:AL30" si="65">COUNTIF(AG29:AG29,"x")</f>
         <v>0</v>
       </c>
       <c r="AH30" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AI30" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="9">
-        <f t="shared" si="55"/>
-        <v>1</v>
+        <f t="shared" si="65"/>
+        <v>0</v>
       </c>
       <c r="AK30" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="23">
-        <f>$AO$4-COUNTIF(D30:AK30,0)</f>
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AL30" s="9">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="23">
+        <f>$AP$4-COUNTIF(D30:AL30,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="28"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="30">
-        <f t="shared" ref="D31:AK31" si="56">D24+D28+D30</f>
+        <f t="shared" ref="D31:AL31" si="66">D24+D28+D30</f>
         <v>1</v>
       </c>
       <c r="E31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="F31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="G31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="I31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="K31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="L31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="N31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Q31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="R31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="S31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="T31" s="30">
-        <f t="shared" ref="T31" si="57">T24+T28+T30</f>
+        <f t="shared" ref="T31" si="67">T24+T28+T30</f>
         <v>4</v>
       </c>
       <c r="U31" s="30">
-        <f t="shared" ref="U31" si="58">U24+U28+U30</f>
+        <f t="shared" ref="U31" si="68">U24+U28+U30</f>
         <v>0</v>
       </c>
       <c r="V31" s="30">
-        <f t="shared" ref="V31" si="59">V24+V28+V30</f>
+        <f t="shared" ref="V31" si="69">V24+V28+V30</f>
         <v>2</v>
       </c>
       <c r="W31" s="30">
-        <f t="shared" ref="W31" si="60">W24+W28+W30</f>
+        <f t="shared" ref="W31" si="70">W24+W28+W30</f>
         <v>3</v>
       </c>
       <c r="X31" s="30">
-        <f t="shared" ref="X31" si="61">X24+X28+X30</f>
+        <f t="shared" ref="X31" si="71">X24+X28+X30</f>
         <v>2</v>
       </c>
       <c r="Y31" s="30">
-        <f t="shared" ref="Y31" si="62">Y24+Y28+Y30</f>
+        <f t="shared" ref="Y31:Z31" si="72">Y24+Y28+Y30</f>
         <v>3</v>
       </c>
       <c r="Z31" s="30">
-        <f t="shared" ref="Z31" si="63">Z24+Z28+Z30</f>
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="30">
+        <f t="shared" ref="AA31" si="73">AA24+AA28+AA30</f>
         <v>2</v>
       </c>
-      <c r="AA31" s="30">
-        <f t="shared" ref="AA31" si="64">AA24+AA28+AA30</f>
+      <c r="AB31" s="30">
+        <f t="shared" ref="AB31" si="74">AB24+AB28+AB30</f>
         <v>2</v>
       </c>
-      <c r="AB31" s="30">
-        <f t="shared" ref="AB31" si="65">AB24+AB28+AB30</f>
+      <c r="AC31" s="30">
+        <f t="shared" ref="AC31" si="75">AC24+AC28+AC30</f>
         <v>2</v>
       </c>
-      <c r="AC31" s="30">
-        <f t="shared" ref="AC31" si="66">AC24+AC28+AC30</f>
-        <v>0</v>
-      </c>
       <c r="AD31" s="30">
-        <f t="shared" ref="AD31" si="67">AD24+AD28+AD30</f>
-        <v>1</v>
+        <f t="shared" ref="AD31" si="76">AD24+AD28+AD30</f>
+        <v>0</v>
       </c>
       <c r="AE31" s="30">
-        <f t="shared" ref="AE31" si="68">AE24+AE28+AE30</f>
+        <f t="shared" ref="AE31" si="77">AE24+AE28+AE30</f>
         <v>1</v>
       </c>
       <c r="AF31" s="30">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" ref="AF31" si="78">AF24+AF28+AF30</f>
+        <v>1</v>
       </c>
       <c r="AG31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="30">
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="AH31" s="30">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
       <c r="AI31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="30">
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="AJ31" s="30">
-        <f t="shared" si="56"/>
+      <c r="AK31" s="30">
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AK31" s="30">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="31">
-        <f>$AO$4-COUNTIF(D31:AK31,0)</f>
+      <c r="AL31" s="30">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="31">
+        <f>$AP$4-COUNTIF(D31:AL31,0)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:39" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10445,16 +10555,16 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="49" t="s">
         <v>147</v>
       </c>
@@ -10471,7 +10581,7 @@
       </c>
       <c r="L1" s="49"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="47" t="s">
         <v>134</v>
       </c>
@@ -10500,7 +10610,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="48" t="s">
         <v>137</v>
       </c>
@@ -10514,25 +10624,25 @@
         <v>4</v>
       </c>
       <c r="F3" s="48">
-        <f>Coverage!AL4</f>
+        <f>Coverage!AM4</f>
         <v>0</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>153</v>
       </c>
       <c r="I3" s="48">
-        <f>Coverage!AL8</f>
+        <f>Coverage!AM8</f>
         <v>2</v>
       </c>
       <c r="K3" s="48" t="s">
         <v>158</v>
       </c>
       <c r="L3" s="48">
-        <f>Coverage!AL25</f>
+        <f>Coverage!AM25</f>
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="48" t="s">
         <v>137</v>
       </c>
@@ -10546,25 +10656,25 @@
         <v>2</v>
       </c>
       <c r="F4" s="48">
-        <f>Coverage!AL6</f>
-        <v>13</v>
+        <f>Coverage!AM6</f>
+        <v>14</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>154</v>
       </c>
       <c r="I4" s="48">
-        <f>Coverage!AL9</f>
+        <f>Coverage!AM9</f>
         <v>7</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>159</v>
       </c>
       <c r="L4" s="48">
-        <f>Coverage!AL26</f>
+        <f>Coverage!AM26</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="48" t="s">
         <v>138</v>
       </c>
@@ -10578,25 +10688,25 @@
         <v>2</v>
       </c>
       <c r="F5" s="48">
-        <f>Coverage!AL11</f>
-        <v>13</v>
+        <f>Coverage!AM11</f>
+        <v>14</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>155</v>
       </c>
       <c r="I5" s="48">
-        <f>Coverage!AL10</f>
-        <v>11</v>
+        <f>Coverage!AM10</f>
+        <v>12</v>
       </c>
       <c r="K5" s="48" t="s">
         <v>160</v>
       </c>
       <c r="L5" s="48">
-        <f>Coverage!AL27</f>
+        <f>Coverage!AM27</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="48" t="s">
         <v>138</v>
       </c>
@@ -10610,11 +10720,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="48">
-        <f>Coverage!AL13</f>
-        <v>12</v>
+        <f>Coverage!AM13</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="48" t="s">
         <v>139</v>
       </c>
@@ -10628,11 +10738,11 @@
         <v>2</v>
       </c>
       <c r="F7" s="48">
-        <f>Coverage!AL18</f>
-        <v>15</v>
+        <f>Coverage!AM18</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="48" t="s">
         <v>139</v>
       </c>
@@ -10646,8 +10756,8 @@
         <v>4</v>
       </c>
       <c r="F8" s="48">
-        <f>Coverage!AL21</f>
-        <v>11</v>
+        <f>Coverage!AM21</f>
+        <v>13</v>
       </c>
       <c r="H8" s="49" t="s">
         <v>150</v>
@@ -10658,7 +10768,7 @@
       </c>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="48" t="s">
         <v>140</v>
       </c>
@@ -10672,7 +10782,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="48">
-        <f>Coverage!AL24</f>
+        <f>Coverage!AM24</f>
         <v>5</v>
       </c>
       <c r="H9" s="47" t="s">
@@ -10688,7 +10798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="48" t="s">
         <v>140</v>
       </c>
@@ -10702,25 +10812,25 @@
         <v>4</v>
       </c>
       <c r="F10" s="48">
-        <f>Coverage!AL28</f>
+        <f>Coverage!AM28</f>
         <v>17</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>156</v>
       </c>
       <c r="I10" s="48">
-        <f>Coverage!AL15</f>
-        <v>6</v>
+        <f>Coverage!AM15</f>
+        <v>7</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>153</v>
       </c>
       <c r="L10" s="48">
-        <f>Coverage!$AL$19</f>
-        <v>3</v>
+        <f>Coverage!$AM$19</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="48" t="s">
         <v>140</v>
       </c>
@@ -10734,31 +10844,31 @@
         <v>6</v>
       </c>
       <c r="F11" s="48">
-        <f>Coverage!AL30</f>
+        <f>Coverage!AM30</f>
         <v>8</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>153</v>
       </c>
       <c r="I11" s="48">
-        <f>Coverage!AL16</f>
-        <v>1</v>
+        <f>Coverage!AM16</f>
+        <v>2</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>157</v>
       </c>
       <c r="L11" s="48">
-        <f>Coverage!$AL$20</f>
-        <v>11</v>
+        <f>Coverage!$AM$20</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" s="48" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="48">
-        <f>Coverage!AL17</f>
-        <v>13</v>
+        <f>Coverage!AM17</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sota-coverage.xlsx
+++ b/sota-coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Dropbox\UNIPI\Research\paper\2019\microservices-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03027BCA-647C-459B-ADD2-BE04C5E7DF32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78ED55A-A4B2-4AB6-BAB0-FA44E413CBA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{164FB32B-D507-4C64-AE57-F04EA40FC413}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="4" activeTab="6" xr2:uid="{164FB32B-D507-4C64-AE57-F04EA40FC413}"/>
   </bookViews>
   <sheets>
     <sheet name="SOTA" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="166">
   <si>
     <t>Tot.</t>
   </si>
@@ -530,6 +530,12 @@
   </si>
   <si>
     <t>Nygard</t>
+  </si>
+  <si>
+    <t>use timeouts</t>
+  </si>
+  <si>
+    <t>Use timeouts</t>
   </si>
 </sst>
 </file>
@@ -2365,13 +2371,35 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6EF9-434B-981F-01BB6129AF3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0446693466525981E-2"/>
-                  <c:y val="2.6161897236067658E-2"/>
+                  <c:x val="-5.3816912184869968E-2"/>
+                  <c:y val="1.7828521434820648E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2441,8 +2469,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1028852020803673E-2"/>
-                  <c:y val="-7.5501283091702773E-2"/>
+                  <c:x val="0.11135737184143495"/>
+                  <c:y val="-5.013263488304557E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2567,8 +2595,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.31462184385623382"/>
-                      <c:h val="0.21142741210273508"/>
+                      <c:w val="0.30601175775537282"/>
+                      <c:h val="0.21142738407699038"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -2576,6 +2604,63 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1E3-460C-B283-74FD14E8266D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AB79687A-77A0-4DBF-B7FD-7446D97BAB76}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[NOME CATEGORIA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+(w:</a:t>
+                    </a:r>
+                    <a:fld id="{3FA7980C-FA06-4422-80DD-67C1E58B9067}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTUALE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; o:</a:t>
+                    </a:r>
+                    <a:fld id="{82D5F598-11F8-45A7-B1FB-8E7746D7E354}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALORE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6EF9-434B-981F-01BB6129AF3A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2621,13 +2706,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Analysis!$K$10:$K$11</c:f>
+              <c:f>Analysis!$K$10:$K$12</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>use timeouts</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>add message broker</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>add circuit breaker</c:v>
                 </c:pt>
               </c:strCache>
@@ -2635,14 +2723,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$L$10:$L$11</c:f>
+              <c:f>Analysis!$L$10:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -5804,7 +5895,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1C1FBEA0-A0FC-4F8B-87E3-5A0820C711A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5816,7 +5907,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6A2BE8D1-3507-4AE9-99F7-D0CB76C987FB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5828,7 +5919,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6BF026BE-F6CC-4853-B579-196DFC75099B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5852,7 +5943,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="7080250" cy="4847167"/>
+    <xdr:ext cx="7086600" cy="4851400"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6276,12 +6367,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.55626</cdr:x>
-      <cdr:y>0.22068</cdr:y>
+      <cdr:x>0.55805</cdr:x>
+      <cdr:y>0.15698</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69027</cdr:x>
-      <cdr:y>0.40259</cdr:y>
+      <cdr:x>0.69206</cdr:x>
+      <cdr:y>0.33889</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6296,8 +6387,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3944472" y="1071282"/>
-          <a:ext cx="950290" cy="883046"/>
+          <a:off x="3954692" y="761573"/>
+          <a:ext cx="949675" cy="882518"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6307,11 +6398,23 @@
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="it-IT" sz="1800">
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>timeout</a:t>
+            <a:t>no </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="it-IT" sz="1800">
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1800">
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>timeouts</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -6547,7 +6650,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10333726" cy="4564811"/>
+    <xdr:ext cx="10325528" cy="4572000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6580,7 +6683,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10333726" cy="4564811"/>
+    <xdr:ext cx="10325100" cy="4572000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6613,7 +6716,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10328672" cy="4566047"/>
+    <xdr:ext cx="10325528" cy="4559157"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6974,8 +7077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696768EC-52E1-41A6-AEFE-3F496309AA55}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C26" activeCellId="1" sqref="B26 C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -7389,10 +7492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CF1B79-A567-474A-9625-3FD0B1AF0E0C}">
-  <dimension ref="A1:AP32"/>
+  <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9198,7 +9301,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
@@ -9213,16 +9316,20 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -9230,10 +9337,14 @@
         <v>1</v>
       </c>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="AB19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
+      <c r="AE19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5" t="s">
         <v>1</v>
@@ -9242,26 +9353,28 @@
         <v>1</v>
       </c>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
+      <c r="AJ19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="22">
         <f>COUNTIF(D19:AL19,"x")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -9269,9 +9382,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -9279,29 +9390,19 @@
       <c r="T20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="5"/>
       <c r="Z20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5" t="s">
         <v>1</v>
@@ -9310,613 +9411,615 @@
         <v>1</v>
       </c>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="22">
         <f>COUNTIF(D20:AL20,"x")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="21"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9">
-        <f t="shared" ref="D21:S21" si="46">COUNTIF(D19:D20,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="22">
+        <f>COUNTIF(D21:AL21,"x")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="21"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9">
+        <f t="shared" ref="D22:S22" si="46">COUNTIF(D19:D21,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
         <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O22" s="9">
         <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="9">
+        <v>2</v>
+      </c>
+      <c r="P22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S22" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="T21" s="9">
-        <f t="shared" ref="T21:AF21" si="47">COUNTIF(T19:T20,"x")</f>
+      <c r="T22" s="9">
+        <f t="shared" ref="T22:AF22" si="47">COUNTIF(T19:T21,"x")</f>
         <v>2</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U22" s="9">
         <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="V21" s="9">
+        <v>2</v>
+      </c>
+      <c r="V22" s="9">
         <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="W21" s="9">
+        <v>2</v>
+      </c>
+      <c r="W22" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X22" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y22" s="9">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Z21" s="9">
-        <f t="shared" ref="Z21" si="48">COUNTIF(Z19:Z20,"x")</f>
+      <c r="Z22" s="9">
+        <f t="shared" ref="Z22" si="48">COUNTIF(Z19:Z21,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AC22" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AD22" s="9">
         <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="9">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="AF21" s="9">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="9">
-        <f t="shared" ref="AG21:AL21" si="49">COUNTIF(AG19:AG20,"x")</f>
-        <v>2</v>
-      </c>
-      <c r="AH21" s="9">
+      <c r="AG22" s="9">
+        <f t="shared" ref="AG22:AL22" si="49">COUNTIF(AG19:AG21,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AH22" s="9">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="AI22" s="9">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="9">
         <f t="shared" si="49"/>
         <v>2</v>
       </c>
-      <c r="AI21" s="9">
+      <c r="AK22" s="9">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="9">
+      <c r="AL22" s="9">
         <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="AK21" s="9">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="9">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AM21" s="23">
-        <f>$AP$4-COUNTIF(D21:AL21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="23">
+        <f>$AP$4-COUNTIF(D22:AL22,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13">
-        <f t="shared" ref="D22:S22" si="50">D18+D21</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
+    <row r="23" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="24"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13">
+        <f t="shared" ref="D23:S23" si="50">D18+D22</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L23" s="13">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M23" s="13">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="13">
         <f t="shared" si="50"/>
         <v>2</v>
       </c>
-      <c r="O22" s="13">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="13">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="13">
+      <c r="O23" s="13">
         <f t="shared" si="50"/>
         <v>2</v>
       </c>
-      <c r="R22" s="13">
+      <c r="P23" s="13">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="S22" s="13">
+      <c r="Q23" s="13">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="13">
-        <f t="shared" ref="T22:AF22" si="51">T18+T21</f>
         <v>2</v>
       </c>
-      <c r="U22" s="13">
+      <c r="R23" s="13">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="13">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="T23" s="13">
+        <f t="shared" ref="T23:AF23" si="51">T18+T22</f>
+        <v>2</v>
+      </c>
+      <c r="U23" s="13">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="V23" s="13">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="W23" s="13">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="13">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="13">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="13">
+        <f t="shared" ref="Z23" si="52">Z18+Z22</f>
+        <v>6</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="AC23" s="13">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="AD23" s="13">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
         <f t="shared" si="51"/>
         <v>3</v>
       </c>
-      <c r="V22" s="13">
+      <c r="AF23" s="13">
         <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="13">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="X22" s="13">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="13">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="Z22" s="13">
-        <f t="shared" ref="Z22" si="52">Z18+Z21</f>
-        <v>5</v>
-      </c>
-      <c r="AA22" s="13">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="13">
-        <f t="shared" si="51"/>
-        <v>3</v>
-      </c>
-      <c r="AC22" s="13">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="AD22" s="13">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="13">
-        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="13">
+        <f t="shared" ref="AG23:AL23" si="53">AG18+AG22</f>
+        <v>4</v>
+      </c>
+      <c r="AH23" s="13">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AI23" s="13">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="13">
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
-      <c r="AF22" s="13">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <f t="shared" ref="AG22:AL22" si="53">AG18+AG21</f>
-        <v>3</v>
-      </c>
-      <c r="AH22" s="13">
+      <c r="AK23" s="13">
         <f t="shared" si="53"/>
-        <v>3</v>
-      </c>
-      <c r="AI22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="13">
         <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="13">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="AK22" s="13">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="13">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="25">
-        <f>$AP$4-COUNTIF(D22:AL22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="25">
+        <f>$AP$4-COUNTIF(D23:AL23,0)</f>
         <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="27">
-        <f>COUNTIF(D23:AL23,"x")</f>
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="21"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9">
-        <f t="shared" ref="D24:S24" si="54">COUNTIF(D23:D23,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <f t="shared" ref="T24:AF24" si="55">COUNTIF(T23:T23,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="9">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="Z24" s="9">
-        <f t="shared" ref="Z24" si="56">COUNTIF(Z23:Z23,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="9">
-        <f t="shared" ref="AG24:AL24" si="57">COUNTIF(AG23:AG23,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="9">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="AI24" s="9">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="9">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="9">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="9">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM24" s="23">
-        <f>$AP$4-COUNTIF(D24:AL24,0)</f>
+      <c r="A24" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="27">
+        <f>COUNTIF(D24:AL24,"x")</f>
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="21"/>
-      <c r="B25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="22">
-        <f>COUNTIF(D25:AL25,"x")</f>
-        <v>12</v>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:S25" si="54">COUNTIF(D24:D24,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" ref="T25:AF25" si="55">COUNTIF(T24:T24,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" ref="Z25" si="56">COUNTIF(Z24:Z24,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AC25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="9">
+        <f t="shared" ref="AG25:AL25" si="57">COUNTIF(AG24:AG24,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="AI25" s="9">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="9">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="9">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="9">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="23">
+        <f>$AP$4-COUNTIF(D25:AL25,0)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="21"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -9927,64 +10030,68 @@
         <v>1</v>
       </c>
       <c r="U26" s="5"/>
-      <c r="V26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
+      <c r="AA26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+      <c r="AC26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
+      <c r="AE26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
+      <c r="AJ26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AL26" s="5"/>
       <c r="AM26" s="22">
         <f>COUNTIF(D26:AL26,"x")</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="21"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="S27" s="5"/>
       <c r="T27" s="5" t="s">
         <v>1</v>
       </c>
@@ -9992,555 +10099,617 @@
       <c r="V27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="22">
         <f>COUNTIF(D27:AL27,"x")</f>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="21"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="15">
-        <f t="shared" ref="D28:S28" si="58">COUNTIF(D25:D27,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="F28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="15">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="I28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="K28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="N28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="15">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="15">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="T28" s="15">
-        <f t="shared" ref="T28:AF28" si="59">COUNTIF(T25:T27,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="U28" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="15">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="W28" s="15">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="X28" s="15">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="Y28" s="15">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="Z28" s="15">
-        <f t="shared" ref="Z28" si="60">COUNTIF(Z25:Z27,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="15">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AB28" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="15">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AD28" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="15">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AF28" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="15">
-        <f t="shared" ref="AG28:AL28" si="61">COUNTIF(AG25:AG27,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="15">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="AI28" s="15">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="15">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="AK28" s="15">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="AL28" s="15">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AM28" s="37">
-        <f>$AP$4-COUNTIF(D28:AL28,0)</f>
-        <v>17</v>
+      <c r="C28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="22">
+        <f>COUNTIF(D28:AL28,"x")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="21"/>
-      <c r="B29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="22">
-        <f>COUNTIF(D29:AL29,"x")</f>
-        <v>8</v>
+      <c r="B29" s="7"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:S29" si="58">COUNTIF(D26:D28,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" ref="T29:AF29" si="59">COUNTIF(T26:T28,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="W29" s="15">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="Y29" s="15">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="Z29" s="15">
+        <f t="shared" ref="Z29" si="60">COUNTIF(Z26:Z28,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AB29" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="15">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AD29" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AF29" s="15">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="15">
+        <f t="shared" ref="AG29:AL29" si="61">COUNTIF(AG26:AG28,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="15">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AI29" s="15">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="15">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AK29" s="15">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AL29" s="15">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="37">
+        <f>$AP$4-COUNTIF(D29:AL29,0)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="21"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9">
-        <f t="shared" ref="D30:S30" si="62">COUNTIF(D29:D29,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="B30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="22">
+        <f>COUNTIF(D30:AL30,"x")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="21"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9">
+        <f t="shared" ref="D31:S31" si="62">COUNTIF(D30:D30,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="9">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M31" s="9">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P31" s="9">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="R30" s="9">
+      <c r="R31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S31" s="9">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="T30" s="9">
-        <f t="shared" ref="T30:AF30" si="63">COUNTIF(T29:T29,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="U30" s="9">
+      <c r="T31" s="9">
+        <f t="shared" ref="T31:AF31" si="63">COUNTIF(T30:T30,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="U31" s="9">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="V30" s="9">
+      <c r="V31" s="9">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="W30" s="9">
+      <c r="W31" s="9">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="X30" s="9">
+      <c r="X31" s="9">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Y31" s="9">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="9">
-        <f t="shared" ref="Z30" si="64">COUNTIF(Z29:Z29,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="9">
+      <c r="Z31" s="9">
+        <f t="shared" ref="Z31" si="64">COUNTIF(Z30:Z30,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="9">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="9">
+      <c r="AB31" s="9">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="AC30" s="9">
+      <c r="AC31" s="9">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="9">
+      <c r="AD31" s="9">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="9">
+      <c r="AE31" s="9">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="9">
+      <c r="AF31" s="9">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="AG30" s="9">
-        <f t="shared" ref="AG30:AL30" si="65">COUNTIF(AG29:AG29,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="9">
+      <c r="AG31" s="9">
+        <f t="shared" ref="AG31:AL31" si="65">COUNTIF(AG30:AG30,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="9">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="9">
+      <c r="AI31" s="9">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="AJ30" s="9">
+      <c r="AJ31" s="9">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="9">
+      <c r="AK31" s="9">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AL30" s="9">
+      <c r="AL31" s="9">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="23">
-        <f>$AP$4-COUNTIF(D30:AL30,0)</f>
+      <c r="AM31" s="23">
+        <f>$AP$4-COUNTIF(D31:AL31,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30">
-        <f t="shared" ref="D31:AL31" si="66">D24+D28+D30</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="30">
+    <row r="32" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30">
+        <f t="shared" ref="D32:AL32" si="66">D25+D29+D31</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="30">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F32" s="30">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H32" s="30">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J32" s="30">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K32" s="30">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="M31" s="30">
+      <c r="M32" s="30">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P32" s="30">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S31" s="30">
+      <c r="S32" s="30">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="T31" s="30">
-        <f t="shared" ref="T31" si="67">T24+T28+T30</f>
+      <c r="T32" s="30">
+        <f t="shared" ref="T32" si="67">T25+T29+T31</f>
         <v>4</v>
       </c>
-      <c r="U31" s="30">
-        <f t="shared" ref="U31" si="68">U24+U28+U30</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="30">
-        <f t="shared" ref="V31" si="69">V24+V28+V30</f>
+      <c r="U32" s="30">
+        <f t="shared" ref="U32" si="68">U25+U29+U31</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="30">
+        <f t="shared" ref="V32" si="69">V25+V29+V31</f>
         <v>2</v>
       </c>
-      <c r="W31" s="30">
-        <f t="shared" ref="W31" si="70">W24+W28+W30</f>
+      <c r="W32" s="30">
+        <f t="shared" ref="W32" si="70">W25+W29+W31</f>
         <v>3</v>
       </c>
-      <c r="X31" s="30">
-        <f t="shared" ref="X31" si="71">X24+X28+X30</f>
+      <c r="X32" s="30">
+        <f t="shared" ref="X32" si="71">X25+X29+X31</f>
         <v>2</v>
       </c>
-      <c r="Y31" s="30">
-        <f t="shared" ref="Y31:Z31" si="72">Y24+Y28+Y30</f>
+      <c r="Y32" s="30">
+        <f t="shared" ref="Y32:Z32" si="72">Y25+Y29+Y31</f>
         <v>3</v>
       </c>
-      <c r="Z31" s="30">
+      <c r="Z32" s="30">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="30">
-        <f t="shared" ref="AA31" si="73">AA24+AA28+AA30</f>
+      <c r="AA32" s="30">
+        <f t="shared" ref="AA32" si="73">AA25+AA29+AA31</f>
         <v>2</v>
       </c>
-      <c r="AB31" s="30">
-        <f t="shared" ref="AB31" si="74">AB24+AB28+AB30</f>
+      <c r="AB32" s="30">
+        <f t="shared" ref="AB32" si="74">AB25+AB29+AB31</f>
         <v>2</v>
       </c>
-      <c r="AC31" s="30">
-        <f t="shared" ref="AC31" si="75">AC24+AC28+AC30</f>
+      <c r="AC32" s="30">
+        <f t="shared" ref="AC32" si="75">AC25+AC29+AC31</f>
         <v>2</v>
       </c>
-      <c r="AD31" s="30">
-        <f t="shared" ref="AD31" si="76">AD24+AD28+AD30</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="30">
-        <f t="shared" ref="AE31" si="77">AE24+AE28+AE30</f>
-        <v>1</v>
-      </c>
-      <c r="AF31" s="30">
-        <f t="shared" ref="AF31" si="78">AF24+AF28+AF30</f>
-        <v>1</v>
-      </c>
-      <c r="AG31" s="30">
+      <c r="AD32" s="30">
+        <f t="shared" ref="AD32" si="76">AD25+AD29+AD31</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="30">
+        <f t="shared" ref="AE32" si="77">AE25+AE29+AE31</f>
+        <v>1</v>
+      </c>
+      <c r="AF32" s="30">
+        <f t="shared" ref="AF32" si="78">AF25+AF29+AF31</f>
+        <v>1</v>
+      </c>
+      <c r="AG32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AH31" s="30">
+      <c r="AH32" s="30">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="AI31" s="30">
+      <c r="AI32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AJ31" s="30">
+      <c r="AJ32" s="30">
         <f t="shared" si="66"/>
         <v>2</v>
       </c>
-      <c r="AK31" s="30">
+      <c r="AK32" s="30">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AL31" s="30">
+      <c r="AL32" s="30">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AM31" s="31">
-        <f>$AP$4-COUNTIF(D31:AL31,0)</f>
+      <c r="AM32" s="31">
+        <f>$AP$4-COUNTIF(D32:AL32,0)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10552,7 +10721,7 @@
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10638,7 +10807,7 @@
         <v>158</v>
       </c>
       <c r="L3" s="48">
-        <f>Coverage!AM25</f>
+        <f>Coverage!AM26</f>
         <v>12</v>
       </c>
     </row>
@@ -10670,7 +10839,7 @@
         <v>159</v>
       </c>
       <c r="L4" s="48">
-        <f>Coverage!AM26</f>
+        <f>Coverage!AM27</f>
         <v>3</v>
       </c>
     </row>
@@ -10702,7 +10871,7 @@
         <v>160</v>
       </c>
       <c r="L5" s="48">
-        <f>Coverage!AM27</f>
+        <f>Coverage!AM28</f>
         <v>16</v>
       </c>
     </row>
@@ -10756,7 +10925,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="48">
-        <f>Coverage!AM21</f>
+        <f>Coverage!AM22</f>
         <v>13</v>
       </c>
       <c r="H8" s="49" t="s">
@@ -10782,7 +10951,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="48">
-        <f>Coverage!AM24</f>
+        <f>Coverage!AM25</f>
         <v>5</v>
       </c>
       <c r="H9" s="47" t="s">
@@ -10812,7 +10981,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="48">
-        <f>Coverage!AM28</f>
+        <f>Coverage!AM29</f>
         <v>17</v>
       </c>
       <c r="H10" s="48" t="s">
@@ -10823,11 +10992,11 @@
         <v>7</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="L10" s="48">
         <f>Coverage!$AM$19</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -10844,7 +11013,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="48">
-        <f>Coverage!AM30</f>
+        <f>Coverage!AM31</f>
         <v>8</v>
       </c>
       <c r="H11" s="48" t="s">
@@ -10855,11 +11024,11 @@
         <v>2</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L11" s="48">
         <f>Coverage!$AM$20</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -10869,6 +11038,13 @@
       <c r="I12" s="48">
         <f>Coverage!AM17</f>
         <v>14</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="48">
+        <f>Coverage!$AM$21</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sota-coverage.xlsx
+++ b/sota-coverage.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Dropbox\UNIPI\Research\paper\2019\microservices-survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davide\github\microservices-antipatterns-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78ED55A-A4B2-4AB6-BAB0-FA44E413CBA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="4" activeTab="6" xr2:uid="{164FB32B-D507-4C64-AE57-F04EA40FC413}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="19390" windowHeight="10390" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SOTA" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Timeout-Pie" sheetId="7" r:id="rId7"/>
     <sheet name="SharedPersistency-Pie" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="174">
   <si>
     <t>Tot.</t>
   </si>
@@ -370,9 +369,6 @@
     <t>Microservices for the enterprise: Designing, developing, deploying</t>
   </si>
   <si>
-    <t>Indrasiri et al</t>
-  </si>
-  <si>
     <t>Microservices: Decomposing Applications for Deployability and Scalability</t>
   </si>
   <si>
@@ -536,12 +532,39 @@
   </si>
   <si>
     <t>Use timeouts</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>Microservices. Flexible software architecture</t>
+  </si>
+  <si>
+    <t>Eberhard wolff</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>Reactive Microservices Architecture</t>
+  </si>
+  <si>
+    <t>Jonas Bonèr</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>Microservices: patterns and applications</t>
+  </si>
+  <si>
+    <t>Lucas Krause</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +643,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1119,9 +1148,37 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1144,7 +1201,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1264,31 +1321,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="327384872"/>
@@ -1389,6 +1446,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1396,7 +1454,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1415,7 +1472,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:userShapes r:id="rId3"/>
@@ -1425,7 +1482,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1528,7 +1585,7 @@
                     <a:fld id="{4E85BE33-967E-415A-BBD8-B10132976710}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -1540,7 +1597,7 @@
                     <a:fld id="{EA6D0699-9431-46C4-B130-C68142304BD0}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1549,7 +1606,7 @@
                     <a:fld id="{2F0F37F8-6691-41F0-AA7E-A213A4CB6976}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1599,7 +1656,7 @@
                     <a:fld id="{8E2C7A4C-2791-4CA3-ADA7-89EDA60654E8}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -1611,7 +1668,7 @@
                     <a:fld id="{C096403C-DF76-4582-A13B-DC26E61D985E}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1620,7 +1677,7 @@
                     <a:fld id="{66297E7F-9E1B-4690-B240-F9751F72D0DF}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1670,7 +1727,7 @@
                     <a:fld id="{B1999432-E532-498E-A500-BEB94D7D0190}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -1682,7 +1739,7 @@
                     <a:fld id="{4C1F9F19-7308-4CF7-A66E-00FEF6DAB11D}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1691,7 +1748,7 @@
                     <a:fld id="{042CB716-B86F-4412-904D-8C1FA0FEAD79}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1746,7 +1803,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1787,13 +1844,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,6 +1882,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1832,7 +1890,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1856,7 +1913,7 @@
           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1865,7 +1922,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1968,7 +2025,7 @@
                     <a:fld id="{26D15B74-D2C4-4239-A447-5FE509FA31F2}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -1980,7 +2037,7 @@
                     <a:fld id="{34D56C1B-27DE-442C-9573-4477C2FFC7D5}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1989,7 +2046,7 @@
                     <a:fld id="{036BC4D7-E05D-45D4-80FB-DA78C6529DE3}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2039,7 +2096,7 @@
                     <a:fld id="{19C05A70-CF00-4606-8E87-9EC4B1D27B9A}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2051,7 +2108,7 @@
                     <a:fld id="{10BAD3C7-40A3-47E4-AD13-B6C783AE8668}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2060,7 +2117,7 @@
                     <a:fld id="{706A5E66-26CD-4C5B-BA38-041E9189F35D}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2110,7 +2167,7 @@
                     <a:fld id="{FD04DE9F-72D2-4040-BE70-07AB7D625A82}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2122,7 +2179,7 @@
                     <a:fld id="{F7638E8B-8C85-4EEB-9275-FC52A1794716}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2131,7 +2188,7 @@
                     <a:fld id="{C62250A2-BD0B-49FB-96EB-9242111AC7F8}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2186,7 +2243,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2227,13 +2284,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,6 +2322,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2272,7 +2330,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2296,7 +2353,7 @@
           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2305,7 +2362,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2410,7 +2467,7 @@
                     <a:fld id="{AE18E2AB-80F0-4AA6-A5E2-C42DCDB1978A}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2422,7 +2479,7 @@
                     <a:fld id="{5FAC228E-4735-4BEE-903A-92379C608590}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2431,7 +2488,7 @@
                     <a:fld id="{616772ED-EC6D-4A8C-BA4F-F3283610E53F}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2500,7 +2557,7 @@
                           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2527,7 +2584,7 @@
                           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2547,7 +2604,7 @@
                           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2579,7 +2636,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -2609,6 +2666,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2617,7 +2675,7 @@
                     <a:fld id="{AB79687A-77A0-4DBF-B7FD-7446D97BAB76}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -2627,7 +2685,7 @@
                     <a:fld id="{3FA7980C-FA06-4422-80DD-67C1E58B9067}" type="PERCENTAGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -2636,7 +2694,7 @@
                     <a:fld id="{82D5F598-11F8-45A7-B1FB-8E7746D7E354}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -2656,6 +2714,7 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2687,7 +2746,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2728,7 +2787,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -2766,6 +2825,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2773,7 +2833,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2792,7 +2851,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2801,7 +2860,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2904,7 +2963,7 @@
                     <a:fld id="{C2DBB804-5972-4FEE-8741-7FBFECBFFA39}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2916,7 +2975,7 @@
                     <a:fld id="{F2913555-3B35-4896-8B5F-81F07C11C090}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2925,7 +2984,7 @@
                     <a:fld id="{CEB37A58-63AA-4AC3-BFDB-4E35616C17BD}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2975,7 +3034,7 @@
                     <a:fld id="{129062AC-3E6D-478F-AB78-482F4421F0BB}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2987,7 +3046,7 @@
                     <a:fld id="{5F2123F5-D45E-48F7-A03A-A4DF4BDF9F94}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2996,7 +3055,7 @@
                     <a:fld id="{8E43CEBE-0C99-4D2D-8C29-33C6ED4C6725}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -3046,7 +3105,7 @@
                     <a:fld id="{817962AD-E433-4D8A-BF59-CCC6E9708343}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3058,7 +3117,7 @@
                     <a:fld id="{1B4CD744-33DB-4F94-967A-0D859481F3AD}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -3067,7 +3126,7 @@
                     <a:fld id="{F8F88DF8-A3FF-4D25-ACA5-4A02FF425F3C}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALORE]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -3122,7 +3181,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3163,7 +3222,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -3201,6 +3260,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3208,7 +3268,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3232,7 +3291,7 @@
           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -5880,7 +5939,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E7ABCE92-A77A-4DA3-9456-0375219D3702}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0"/>
@@ -5892,10 +5951,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1C1FBEA0-A0FC-4F8B-87E3-5A0820C711A4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5904,10 +5963,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6A2BE8D1-3507-4AE9-99F7-D0CB76C987FB}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5916,10 +5975,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6BF026BE-F6CC-4853-B579-196DFC75099B}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="56" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5928,10 +5987,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DF903272-626F-41A4-8039-7140A50501B1}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5943,7 +6002,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="7086600" cy="4851400"/>
+    <xdr:ext cx="7090833" cy="4854222"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6650,7 +6709,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10325528" cy="4572000"/>
+    <xdr:ext cx="10219070" cy="7088372"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6683,7 +6742,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10325100" cy="4572000"/>
+    <xdr:ext cx="10239375" cy="7098393"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6716,7 +6775,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10325528" cy="4559157"/>
+    <xdr:ext cx="10224213" cy="7084888"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6749,7 +6808,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10333726" cy="4564811"/>
+    <xdr:ext cx="10219070" cy="7088372"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -7074,22 +7133,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696768EC-52E1-41A6-AEFE-3F496309AA55}">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C26" activeCellId="1" sqref="B26 C26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.41796875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.83984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="4.453125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>66</v>
       </c>
@@ -7100,7 +7159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>33</v>
       </c>
@@ -7111,7 +7170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
@@ -7122,7 +7181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>35</v>
       </c>
@@ -7133,7 +7192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>36</v>
       </c>
@@ -7144,7 +7203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
@@ -7155,7 +7214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>38</v>
       </c>
@@ -7166,7 +7225,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>39</v>
       </c>
@@ -7177,7 +7236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>40</v>
       </c>
@@ -7188,7 +7247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>41</v>
       </c>
@@ -7199,7 +7258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>42</v>
       </c>
@@ -7210,7 +7269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
@@ -7221,7 +7280,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>44</v>
       </c>
@@ -7232,7 +7291,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>45</v>
       </c>
@@ -7243,7 +7302,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>46</v>
       </c>
@@ -7254,7 +7313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -7265,7 +7324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>48</v>
       </c>
@@ -7276,7 +7335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>49</v>
       </c>
@@ -7287,7 +7346,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>32</v>
       </c>
@@ -7298,7 +7357,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>50</v>
       </c>
@@ -7309,7 +7368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>51</v>
       </c>
@@ -7320,7 +7379,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>52</v>
       </c>
@@ -7331,7 +7390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>53</v>
       </c>
@@ -7339,150 +7398,192 @@
         <v>109</v>
       </c>
       <c r="C23" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="45" t="s">
         <v>110</v>
       </c>
+      <c r="C28" s="44" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A24" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>163</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A25" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="45" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>112</v>
-      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A26" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>113</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A27" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>112</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A28" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>117</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A29" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>120</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A30" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>121</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A31" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>133</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A32" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>131</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A33" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>132</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A34" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="45" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A36" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="45" t="s">
+      <c r="C39" s="44" t="s">
         <v>127</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -7491,25 +7592,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CF1B79-A567-474A-9625-3FD0B1AF0E0C}">
-  <dimension ref="A1:AP33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS33"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="38" width="3.578125" customWidth="1"/>
-    <col min="39" max="39" width="4.68359375" customWidth="1"/>
-    <col min="41" max="41" width="3.83984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="3.54296875" customWidth="1"/>
+    <col min="26" max="28" width="3.54296875" style="59" customWidth="1"/>
+    <col min="29" max="41" width="3.54296875" customWidth="1"/>
+    <col min="42" max="42" width="4.6328125" customWidth="1"/>
+    <col min="44" max="44" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:45" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7579,50 +7682,59 @@
       <c r="Y1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA1" s="34" t="s">
+      <c r="Z1" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AM1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AN1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AO1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" s="32" t="s">
+      <c r="AP1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -7654,9 +7766,9 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
       <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
       <c r="AC2" s="19"/>
       <c r="AD2" s="19"/>
       <c r="AE2" s="19"/>
@@ -7667,12 +7779,15 @@
       <c r="AJ2" s="19"/>
       <c r="AK2" s="19"/>
       <c r="AL2" s="19"/>
-      <c r="AM2" s="20">
-        <f>COUNTIF(D2:AL2,"x")</f>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="20">
+        <f>COUNTIF(D2:AO2,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7702,9 +7817,9 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
@@ -7715,12 +7830,15 @@
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
-      <c r="AM3" s="22">
-        <f>COUNTIF(D3:AL3,"x")</f>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="22">
+        <f>COUNTIF(D3:AO3,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -7793,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:AF4" si="1">COUNTIF(U2:U3,"x")</f>
+        <f t="shared" ref="U4:AI4" si="1">COUNTIF(U2:U3,"x")</f>
         <v>0</v>
       </c>
       <c r="V4" s="9">
@@ -7812,48 +7930,48 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="9">
-        <f t="shared" ref="Z4" si="2">COUNTIF(Z2:Z3,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="9">
+      <c r="Z4" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="9">
-        <f t="shared" ref="AB4" si="3">COUNTIF(AB2:AB3,"x")</f>
+      <c r="AA4" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="53">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" ref="AC4" si="4">COUNTIF(AC2:AC3,"x")</f>
+        <f t="shared" ref="AC4" si="2">COUNTIF(AC2:AC3,"x")</f>
         <v>0</v>
       </c>
       <c r="AD4" s="9">
-        <f t="shared" ref="AD4" si="5">COUNTIF(AD2:AD3,"x")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE4" s="9">
+        <f t="shared" ref="AE4" si="3">COUNTIF(AE2:AE3,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="9">
+        <f t="shared" ref="AF4" si="4">COUNTIF(AF2:AF3,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="9">
+        <f t="shared" ref="AG4" si="5">COUNTIF(AG2:AG3,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AI4" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="9">
-        <f t="shared" ref="AG4:AL4" si="6">COUNTIF(AG2:AG3,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AJ4" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AJ4:AO4" si="6">COUNTIF(AJ2:AJ3,"x")</f>
         <v>0</v>
       </c>
       <c r="AK4" s="9">
@@ -7864,18 +7982,30 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM4" s="23">
-        <f>$AP$4-COUNTIF(D4:AL4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="33" t="s">
+      <c r="AM4" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="23">
+        <f>$AS$4-COUNTIF(D4:AO4,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AR4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AP4" s="33">
+      <c r="AS4" s="33">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -7927,31 +8057,36 @@
       <c r="Y5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="22">
-        <f>COUNTIF(D5:AL5,"x")</f>
-        <v>14</v>
+      <c r="AK5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="22">
+        <f>COUNTIF(D5:AO5,"x")</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
@@ -8000,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:AG6" si="8">COUNTIF(O5:O5,"x")</f>
+        <f t="shared" ref="O6:AJ6" si="8">COUNTIF(O5:O5,"x")</f>
         <v>0</v>
       </c>
       <c r="P6" s="9">
@@ -8043,21 +8178,21 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z6" s="9">
-        <f t="shared" ref="Z6" si="9">COUNTIF(Z5:Z5,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="Z6" s="53">
+        <f t="shared" ref="Z6:AA6" si="9">COUNTIF(Z5:Z5,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="53">
+        <f t="shared" ref="AB6" si="10">COUNTIF(AB5:AB5,"x")</f>
+        <v>1</v>
       </c>
       <c r="AC6" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="AC6" si="11">COUNTIF(AC5:AC5,"x")</f>
+        <v>1</v>
       </c>
       <c r="AD6" s="9">
         <f t="shared" si="8"/>
@@ -8076,180 +8211,204 @@
         <v>0</v>
       </c>
       <c r="AH6" s="9">
-        <f>COUNTIF(AH5:AH5,"x")</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI6" s="9">
-        <f>COUNTIF(AI5:AI5,"x")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="9">
-        <f>COUNTIF(AJ5:AJ5,"x")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK6" s="9">
         <f>COUNTIF(AK5:AK5,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="9">
         <f>COUNTIF(AL5:AL5,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AM6" s="23">
-        <f>$AP$4-COUNTIF(D6:AL6,0)</f>
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <f>COUNTIF(AM5:AM5,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="9">
+        <f>COUNTIF(AN5:AN5,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="9">
+        <f>COUNTIF(AO5:AO5,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AP6" s="23">
+        <f>$AS$4-COUNTIF(D6:AO6,0)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <f t="shared" ref="D7:AL7" si="10">D4+D6</f>
+        <f t="shared" ref="D7:AO7" si="12">D4+D6</f>
         <v>1</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U7" s="13">
-        <f t="shared" ref="U7" si="11">U4+U6</f>
+        <f t="shared" ref="U7" si="13">U4+U6</f>
         <v>1</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" ref="V7" si="12">V4+V6</f>
+        <f t="shared" ref="V7" si="14">V4+V6</f>
         <v>0</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" ref="W7" si="13">W4+W6</f>
+        <f t="shared" ref="W7" si="15">W4+W6</f>
         <v>0</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" ref="X7" si="14">X4+X6</f>
+        <f t="shared" ref="X7" si="16">X4+X6</f>
         <v>0</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" ref="Y7:Z7" si="15">Y4+Y6</f>
-        <v>1</v>
-      </c>
-      <c r="Z7" s="13">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AA7" s="13">
-        <f t="shared" ref="AA7" si="16">AA4+AA6</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="13">
-        <f t="shared" ref="AB7" si="17">AB4+AB6</f>
-        <v>0</v>
+        <f t="shared" ref="Y7:AC7" si="17">Y4+Y6</f>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="54">
+        <f t="shared" ref="Z7:AA7" si="18">Z4+Z6</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="54">
+        <f t="shared" ref="AB7" si="19">AB4+AB6</f>
+        <v>1</v>
       </c>
       <c r="AC7" s="13">
-        <f t="shared" ref="AC7" si="18">AC4+AC6</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" ref="AD7" si="19">AD4+AD6</f>
+        <f t="shared" ref="AD7" si="20">AD4+AD6</f>
         <v>0</v>
       </c>
       <c r="AE7" s="13">
-        <f t="shared" ref="AE7" si="20">AE4+AE6</f>
+        <f t="shared" ref="AE7" si="21">AE4+AE6</f>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" ref="AF7" si="21">AF4+AF6</f>
+        <f t="shared" ref="AF7" si="22">AF4+AF6</f>
         <v>0</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" ref="AG7" si="22">AG4+AG6</f>
+        <f t="shared" ref="AG7" si="23">AG4+AG6</f>
         <v>0</v>
       </c>
       <c r="AH7" s="13">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="AH7" si="24">AH4+AH6</f>
+        <v>0</v>
       </c>
       <c r="AI7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AI7" si="25">AI4+AI6</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AJ7" si="26">AJ4+AJ6</f>
         <v>0</v>
       </c>
       <c r="AK7" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="AL7" s="13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AM7" s="25">
-        <f>$AP$4-COUNTIF(D7:AL7,0)</f>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP7" s="25">
+        <f>$AS$4-COUNTIF(D7:AO7,0)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -8283,13 +8442,17 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="3"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="55" t="s">
+        <v>1</v>
+      </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="AD8" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
@@ -8298,12 +8461,15 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="27">
-        <f>COUNTIF(D8:AL8,"x")</f>
-        <v>2</v>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="27">
+        <f>COUNTIF(D8:AO8,"x")</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -8343,16 +8509,20 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z9" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="52"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
+      <c r="AD9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -8360,12 +8530,15 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
-      <c r="AM9" s="22">
-        <f>COUNTIF(D9:AL9,"x")</f>
-        <v>7</v>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="22">
+        <f>COUNTIF(D9:AO9,"x")</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
@@ -8406,185 +8579,205 @@
         <v>1</v>
       </c>
       <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AL10" s="5"/>
-      <c r="AM10" s="22">
-        <f>COUNTIF(D10:AL10,"x")</f>
-        <v>12</v>
+      <c r="AM10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="22">
+        <f>COUNTIF(D10:AO10,"x")</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9">
-        <f t="shared" ref="D11:AL11" si="23">COUNTIF(D8:D10,"x")</f>
+        <f t="shared" ref="D11:AO11" si="27">COUNTIF(D8:D10,"x")</f>
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="X11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y11" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="9">
-        <f t="shared" ref="Z11" si="24">COUNTIF(Z8:Z10,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AA11" s="9">
-        <f t="shared" si="23"/>
+        <f>COUNTIF(Y8:Y10,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="53">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="AA11" s="53">
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
-      <c r="AB11" s="9">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
+      <c r="AB11" s="53"/>
       <c r="AC11" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" ref="AC11" si="28">COUNTIF(AC8:AC10,"x")</f>
+        <v>1</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>3</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AH11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="9">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="AK11" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="23">
-        <f>$AP$4-COUNTIF(D11:AL11,0)</f>
-        <v>14</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="23">
+        <f>$AS$4-COUNTIF(D11:AO11,0)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -8628,13 +8821,13 @@
       <c r="Y12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="5"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="52" t="s">
+        <v>1</v>
+      </c>
       <c r="AC12" s="5" t="s">
         <v>1</v>
       </c>
@@ -8642,321 +8835,352 @@
         <v>1</v>
       </c>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
+      <c r="AF12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="22">
-        <f>COUNTIF(D12:AL12,"x")</f>
-        <v>13</v>
+      <c r="AL12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="22">
+        <f>COUNTIF(D12:AO12,"x")</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9">
-        <f t="shared" ref="D13:S13" si="25">COUNTIF(D12:D12,"x")</f>
+        <f t="shared" ref="D13:S13" si="29">COUNTIF(D12:D12,"x")</f>
         <v>0</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" ref="T13:AF13" si="26">COUNTIF(T12:T12,"x")</f>
+        <f t="shared" ref="T13:AI13" si="30">COUNTIF(T12:T12,"x")</f>
         <v>0</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="X13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="9">
-        <f t="shared" ref="Z13" si="27">COUNTIF(Z12:Z12,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="9">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="9">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="53">
+        <f t="shared" ref="Z13:AA13" si="31">COUNTIF(Z12:Z12,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="53">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="53">
+        <f t="shared" ref="AB13" si="32">COUNTIF(AB12:AB12,"x")</f>
+        <v>1</v>
       </c>
       <c r="AC13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AC13" si="33">COUNTIF(AC12:AC12,"x")</f>
         <v>1</v>
       </c>
       <c r="AD13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AF13" s="9">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="AG13" s="9">
-        <f t="shared" ref="AG13:AL13" si="28">COUNTIF(AG12:AG12,"x")</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="AH13" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AI13" s="9">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AJ13" s="9">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f t="shared" ref="AJ13:AO13" si="34">COUNTIF(AJ12:AJ12,"x")</f>
+        <v>0</v>
       </c>
       <c r="AK13" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AL13" s="9">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="23">
-        <f>$AP$4-COUNTIF(D13:AL13,0)</f>
-        <v>13</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AM13" s="9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="23">
+        <f>$AS$4-COUNTIF(D13:AO13,0)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="13">
-        <f t="shared" ref="D14:AL14" si="29">D11+D13</f>
+        <f t="shared" ref="D14:AO14" si="35">D11+D13</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="13">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="R14" s="13">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="S14" s="13">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="13">
-        <f t="shared" ref="T14" si="30">T11+T13</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <f t="shared" ref="U14" si="31">U11+U13</f>
-        <v>3</v>
-      </c>
-      <c r="V14" s="13">
-        <f t="shared" ref="V14" si="32">V11+V13</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="13">
-        <f t="shared" ref="W14" si="33">W11+W13</f>
-        <v>2</v>
-      </c>
-      <c r="X14" s="13">
-        <f t="shared" ref="X14" si="34">X11+X13</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="13">
-        <f t="shared" ref="Y14:Z14" si="35">Y11+Y13</f>
-        <v>1</v>
-      </c>
-      <c r="Z14" s="13">
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="AA14" s="13">
-        <f t="shared" ref="AA14" si="36">AA11+AA13</f>
+      <c r="F14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" ref="T14" si="36">T11+T13</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" ref="U14" si="37">U11+U13</f>
+        <v>3</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" ref="V14" si="38">V11+V13</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <f t="shared" ref="W14" si="39">W11+W13</f>
+        <v>2</v>
+      </c>
+      <c r="X14" s="13">
+        <f t="shared" ref="X14" si="40">X11+X13</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <f t="shared" ref="Y14:AC14" si="41">Y11+Y13</f>
+        <v>2</v>
+      </c>
+      <c r="Z14" s="54">
+        <f t="shared" ref="Z14:AA14" si="42">Z11+Z13</f>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="54">
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="AB14" s="13">
-        <f t="shared" ref="AB14" si="37">AB11+AB13</f>
+      <c r="AB14" s="54">
+        <f t="shared" ref="AB14" si="43">AB11+AB13</f>
         <v>1</v>
       </c>
       <c r="AC14" s="13">
-        <f t="shared" ref="AC14" si="38">AC11+AC13</f>
-        <v>1</v>
+        <f t="shared" si="41"/>
+        <v>2</v>
       </c>
       <c r="AD14" s="13">
-        <f t="shared" ref="AD14" si="39">AD11+AD13</f>
-        <v>1</v>
+        <f t="shared" ref="AD14" si="44">AD11+AD13</f>
+        <v>4</v>
       </c>
       <c r="AE14" s="13">
-        <f t="shared" ref="AE14" si="40">AE11+AE13</f>
+        <f t="shared" ref="AE14" si="45">AE11+AE13</f>
         <v>1</v>
       </c>
       <c r="AF14" s="13">
-        <f t="shared" ref="AF14" si="41">AF11+AF13</f>
-        <v>0</v>
+        <f t="shared" ref="AF14" si="46">AF11+AF13</f>
+        <v>1</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" ref="AG14" si="47">AG11+AG13</f>
+        <v>1</v>
       </c>
       <c r="AH14" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AH14" si="48">AH11+AH13</f>
         <v>1</v>
       </c>
       <c r="AI14" s="13">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" ref="AI14" si="49">AI11+AI13</f>
+        <v>0</v>
       </c>
       <c r="AJ14" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="13">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AM14" s="13">
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="AK14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="13">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="25">
-        <f>$AP$4-COUNTIF(D14:AL14,0)</f>
+      <c r="AN14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="25">
+        <f>$AS$4-COUNTIF(D14:AO14,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
@@ -8993,34 +9217,45 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="3"/>
+      <c r="Y15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
+      <c r="AE15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
+      <c r="AJ15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="27">
-        <f>COUNTIF(D15:AL15,"x")</f>
-        <v>7</v>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="27">
+        <f>COUNTIF(D15:AO15,"x")</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
@@ -9052,12 +9287,18 @@
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
-      <c r="Z16" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
+      <c r="Z16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="35" t="s">
+        <v>1</v>
+      </c>
       <c r="AD16" s="35"/>
       <c r="AE16" s="35"/>
       <c r="AF16" s="35"/>
@@ -9067,12 +9308,15 @@
       <c r="AJ16" s="35"/>
       <c r="AK16" s="35"/>
       <c r="AL16" s="35"/>
-      <c r="AM16" s="22">
-        <f>COUNTIF(D16:AL16,"x")</f>
-        <v>2</v>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="22">
+        <f>COUNTIF(D16:AO16,"x")</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -9117,12 +9361,16 @@
         <v>1</v>
       </c>
       <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5" t="s">
+      <c r="Y17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="52" t="s">
         <v>1</v>
       </c>
       <c r="AC17" s="5" t="s">
@@ -9132,176 +9380,195 @@
       <c r="AE17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF17" s="5"/>
+      <c r="AF17" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="22">
-        <f>COUNTIF(D17:AL17,"x")</f>
-        <v>14</v>
+      <c r="AL17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="22">
+        <f>COUNTIF(D17:AO17,"x")</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
-        <f t="shared" ref="D18:S18" si="42">COUNTIF(D15:D17,"x")</f>
+        <f t="shared" ref="D18:S18" si="50">COUNTIF(D15:D17,"x")</f>
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" ref="T18:AF18" si="43">COUNTIF(T15:T17,"x")</f>
+        <f t="shared" ref="T18:AI18" si="51">COUNTIF(T15:T17,"x")</f>
         <v>0</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9">
-        <f t="shared" ref="Z18" si="44">COUNTIF(Z15:Z17,"x")</f>
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="Z18" s="53">
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
-      <c r="AA18" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <f t="shared" si="43"/>
+      <c r="AA18" s="53">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="AB18" s="53">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" ref="AC18" si="52">COUNTIF(AC15:AC17,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AD18" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="9">
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
-      <c r="AC18" s="9">
-        <f t="shared" si="43"/>
-        <v>1</v>
-      </c>
-      <c r="AD18" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="9">
-        <f t="shared" si="43"/>
-        <v>1</v>
-      </c>
       <c r="AF18" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="AG18" s="9">
-        <f t="shared" ref="AG18:AL18" si="45">COUNTIF(AG15:AG17,"x")</f>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AH18" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AI18" s="9">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="AJ18" s="9">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" ref="AJ18:AO18" si="53">COUNTIF(AJ15:AJ17,"x")</f>
+        <v>1</v>
       </c>
       <c r="AK18" s="9">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="53"/>
+        <v>1</v>
       </c>
       <c r="AL18" s="9">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="23">
-        <f>$AP$4-COUNTIF(D18:AL18,0)</f>
-        <v>16</v>
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="AM18" s="9">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="9">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="9">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="23">
+        <f>$AS$4-COUNTIF(D18:AO18,0)</f>
+        <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
@@ -9333,22 +9600,22 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="5"/>
+      <c r="Z19" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG19" s="5"/>
       <c r="AH19" s="5" t="s">
         <v>1</v>
       </c>
@@ -9356,14 +9623,21 @@
       <c r="AJ19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK19" s="5"/>
+      <c r="AK19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="22">
-        <f>COUNTIF(D19:AL19,"x")</f>
-        <v>10</v>
+      <c r="AM19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="22">
+        <f>COUNTIF(D19:AO19,"x")</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
@@ -9395,31 +9669,34 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
+      <c r="AJ20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="22">
-        <f>COUNTIF(D20:AL20,"x")</f>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="22">
+        <f>COUNTIF(D20:AO20,"x")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
@@ -9459,22 +9736,18 @@
       <c r="Y21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="5"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG21" s="5"/>
       <c r="AH21" s="5" t="s">
         <v>1</v>
       </c>
@@ -9482,312 +9755,343 @@
       <c r="AJ21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK21" s="5"/>
+      <c r="AK21" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="22">
-        <f>COUNTIF(D21:AL21,"x")</f>
+      <c r="AM21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="22">
+        <f>COUNTIF(D21:AO21,"x")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9">
-        <f t="shared" ref="D22:S22" si="46">COUNTIF(D19:D21,"x")</f>
+        <f t="shared" ref="D22:S22" si="54">COUNTIF(D19:D21,"x")</f>
         <v>0</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" ref="T22:AF22" si="47">COUNTIF(T19:T21,"x")</f>
+        <f t="shared" ref="T22:AI22" si="55">COUNTIF(T19:T21,"x")</f>
         <v>2</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="Z22" s="9">
-        <f t="shared" ref="Z22" si="48">COUNTIF(Z19:Z21,"x")</f>
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="53">
+        <f t="shared" ref="Z22:AB22" si="56">COUNTIF(Z19:Z21,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="53">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="53">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" ref="AC22" si="57">COUNTIF(AC19:AC21,"x")</f>
         <v>3</v>
       </c>
-      <c r="AA22" s="9">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <f t="shared" si="47"/>
+      <c r="AD22" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
-      <c r="AC22" s="9">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="9">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="9">
-        <f t="shared" si="47"/>
+      <c r="AF22" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
-      <c r="AF22" s="9">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="9">
-        <f t="shared" ref="AG22:AL22" si="49">COUNTIF(AG19:AG21,"x")</f>
+      <c r="AI22" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="9">
+        <f t="shared" ref="AJ22:AO22" si="58">COUNTIF(AJ19:AJ21,"x")</f>
         <v>3</v>
       </c>
-      <c r="AH22" s="9">
-        <f t="shared" si="49"/>
+      <c r="AK22" s="9">
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
-      <c r="AI22" s="9">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="9">
-        <f t="shared" si="49"/>
+      <c r="AL22" s="9">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="9">
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
-      <c r="AK22" s="9">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="9">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="23">
-        <f>$AP$4-COUNTIF(D22:AL22,0)</f>
-        <v>13</v>
+      <c r="AN22" s="9">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="9">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="23">
+        <f>$AS$4-COUNTIF(D22:AO22,0)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13">
-        <f t="shared" ref="D23:S23" si="50">D18+D22</f>
+        <f t="shared" ref="D23:S23" si="59">D18+D22</f>
         <v>0</v>
       </c>
       <c r="E23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="S23" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="T23" s="13">
-        <f t="shared" ref="T23:AF23" si="51">T18+T22</f>
+        <f t="shared" ref="T23:AI23" si="60">T18+T22</f>
         <v>2</v>
       </c>
       <c r="U23" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="V23" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="W23" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="X23" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Y23" s="13">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="Z23" s="13">
-        <f t="shared" ref="Z23" si="52">Z18+Z22</f>
+        <f t="shared" si="60"/>
+        <v>3</v>
+      </c>
+      <c r="Z23" s="54">
+        <f t="shared" ref="Z23:AB23" si="61">Z18+Z22</f>
+        <v>4</v>
+      </c>
+      <c r="AA23" s="54">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="AB23" s="54">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="AC23" s="13">
+        <f t="shared" ref="AC23" si="62">AC18+AC22</f>
         <v>6</v>
       </c>
-      <c r="AA23" s="13">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="13">
-        <f t="shared" si="51"/>
+      <c r="AD23" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
-      <c r="AC23" s="13">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="AD23" s="13">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="13">
-        <f t="shared" si="51"/>
+      <c r="AF23" s="13">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="AG23" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="13">
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
-      <c r="AF23" s="13">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="13">
-        <f t="shared" ref="AG23:AL23" si="53">AG18+AG22</f>
+      <c r="AI23" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="13">
+        <f t="shared" ref="AJ23:AO23" si="63">AJ18+AJ22</f>
         <v>4</v>
       </c>
-      <c r="AH23" s="13">
-        <f t="shared" si="53"/>
+      <c r="AK23" s="13">
+        <f t="shared" si="63"/>
         <v>4</v>
       </c>
-      <c r="AI23" s="13">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="13">
-        <f t="shared" si="53"/>
+      <c r="AL23" s="13">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="AM23" s="13">
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AK23" s="13">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="13">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AM23" s="25">
-        <f>$AP$4-COUNTIF(D23:AL23,0)</f>
+      <c r="AN23" s="13">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="13">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="25">
+        <f>$AS$4-COUNTIF(D23:AO23,0)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>23</v>
       </c>
@@ -9825,178 +10129,186 @@
       <c r="Y24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="55"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
+      <c r="AE24" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-      <c r="AH24" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
+      <c r="AK24" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AL24" s="3"/>
-      <c r="AM24" s="27">
-        <f>COUNTIF(D24:AL24,"x")</f>
-        <v>5</v>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="27">
+        <f>COUNTIF(D24:AO24,"x")</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="21"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9">
-        <f t="shared" ref="D25:S25" si="54">COUNTIF(D24:D24,"x")</f>
+        <f t="shared" ref="D25:S25" si="64">COUNTIF(D24:D24,"x")</f>
         <v>0</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" ref="T25:AF25" si="55">COUNTIF(T24:T24,"x")</f>
+        <f t="shared" ref="T25:AI25" si="65">COUNTIF(T24:T24,"x")</f>
         <v>0</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="X25" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" ref="Z25" si="56">COUNTIF(Z24:Z24,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
       <c r="AC25" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AC25" si="66">COUNTIF(AC24:AC24,"x")</f>
         <v>0</v>
       </c>
       <c r="AD25" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AE25" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>1</v>
       </c>
       <c r="AF25" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AG25" s="9">
-        <f t="shared" ref="AG25:AL25" si="57">COUNTIF(AG24:AG24,"x")</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AH25" s="9">
-        <f t="shared" si="57"/>
-        <v>1</v>
+        <f t="shared" si="65"/>
+        <v>0</v>
       </c>
       <c r="AI25" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="AJ25:AO25" si="67">COUNTIF(AJ24:AJ24,"x")</f>
         <v>0</v>
       </c>
       <c r="AK25" s="9">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>1</v>
       </c>
       <c r="AL25" s="9">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="23">
-        <f>$AP$4-COUNTIF(D25:AL25,0)</f>
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="9">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="9">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="9">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="23">
+        <f>$AS$4-COUNTIF(D25:AO25,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="21"/>
       <c r="B26" s="10" t="s">
         <v>25</v>
@@ -10040,35 +10352,40 @@
       <c r="Y26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="5"/>
+      <c r="Z26" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
+      <c r="AH26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="22">
-        <f>COUNTIF(D26:AL26,"x")</f>
-        <v>12</v>
+      <c r="AM26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="22">
+        <f>COUNTIF(D26:AO26,"x")</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
@@ -10102,9 +10419,9 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
@@ -10115,12 +10432,15 @@
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="22">
-        <f>COUNTIF(D27:AL27,"x")</f>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="22">
+        <f>COUNTIF(D27:AO27,"x")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="21"/>
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
@@ -10170,184 +10490,196 @@
       <c r="Y28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="5"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
+      <c r="AF28" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AJ28" s="5"/>
       <c r="AK28" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="22">
-        <f>COUNTIF(D28:AL28,"x")</f>
+      <c r="AM28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="22">
+        <f>COUNTIF(D28:AO28,"x")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="21"/>
       <c r="B29" s="7"/>
       <c r="C29" s="36"/>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:S29" si="58">COUNTIF(D26:D28,"x")</f>
+        <f t="shared" ref="D29:S29" si="68">COUNTIF(D26:D28,"x")</f>
         <v>1</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29:AF29" si="59">COUNTIF(T26:T28,"x")</f>
+        <f t="shared" ref="T29:AI29" si="69">COUNTIF(T26:T28,"x")</f>
         <v>3</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="60">COUNTIF(Z26:Z28,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="15">
-        <f t="shared" si="59"/>
+      <c r="Z29" s="57">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="57">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="15">
+        <f t="shared" ref="AC29" si="70">COUNTIF(AC26:AC28,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="15">
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="AB29" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="15">
-        <f t="shared" si="59"/>
+      <c r="AE29" s="15">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="15">
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="AD29" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="15">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AF29" s="15">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
       <c r="AG29" s="15">
-        <f t="shared" ref="AG29:AL29" si="61">COUNTIF(AG26:AG28,"x")</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="AJ29:AO29" si="71">COUNTIF(AJ26:AJ28,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="15">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AL29" s="15">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="15">
+        <f t="shared" si="71"/>
         <v>2</v>
       </c>
-      <c r="AK29" s="15">
-        <f t="shared" si="61"/>
+      <c r="AN29" s="15">
+        <f t="shared" si="71"/>
         <v>2</v>
       </c>
-      <c r="AL29" s="15">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="37">
-        <f>$AP$4-COUNTIF(D29:AL29,0)</f>
-        <v>17</v>
+      <c r="AO29" s="15">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="37">
+        <f>$AS$4-COUNTIF(D29:AO29,0)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="21"/>
       <c r="B30" s="10" t="s">
         <v>29</v>
@@ -10387,329 +10719,358 @@
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z30" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ30" s="5"/>
-      <c r="AK30" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="22">
-        <f>COUNTIF(D30:AL30,"x")</f>
-        <v>8</v>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="22">
+        <f>COUNTIF(D30:AO30,"x")</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="11"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9">
-        <f t="shared" ref="D31:S31" si="62">COUNTIF(D30:D30,"x")</f>
+        <f t="shared" ref="D31:S31" si="72">COUNTIF(D30:D30,"x")</f>
         <v>0</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31:AF31" si="63">COUNTIF(T30:T30,"x")</f>
+        <f t="shared" ref="T31:AI31" si="73">COUNTIF(T30:T30,"x")</f>
         <v>1</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W31" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="X31" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="Y31" s="9">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="9">
-        <f t="shared" ref="Z31" si="64">COUNTIF(Z30:Z30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="9">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="9">
-        <f t="shared" si="63"/>
-        <v>1</v>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="53">
+        <f t="shared" ref="Z31:AA31" si="74">COUNTIF(Z30:Z30,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AA31" s="53">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="53">
+        <f t="shared" ref="AB31" si="75">COUNTIF(AB30:AB30,"x")</f>
+        <v>0</v>
       </c>
       <c r="AC31" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="AC31" si="76">COUNTIF(AC30:AC30,"x")</f>
         <v>0</v>
       </c>
       <c r="AD31" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AE31" s="9">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <f t="shared" si="73"/>
+        <v>1</v>
       </c>
       <c r="AF31" s="9">
-        <f t="shared" si="63"/>
-        <v>1</v>
+        <f t="shared" si="73"/>
+        <v>0</v>
       </c>
       <c r="AG31" s="9">
-        <f t="shared" ref="AG31:AL31" si="65">COUNTIF(AG30:AG30,"x")</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AH31" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AI31" s="9">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <f t="shared" si="73"/>
+        <v>1</v>
       </c>
       <c r="AJ31" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="AJ31:AO31" si="77">COUNTIF(AJ30:AJ30,"x")</f>
         <v>0</v>
       </c>
       <c r="AK31" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
+        <f t="shared" si="77"/>
+        <v>0</v>
       </c>
       <c r="AL31" s="9">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AM31" s="23">
-        <f>$AP$4-COUNTIF(D31:AL31,0)</f>
-        <v>8</v>
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="9">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="9">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="AO31" s="9">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="23">
+        <f>$AS$4-COUNTIF(D31:AO31,0)</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30">
-        <f t="shared" ref="D32:AL32" si="66">D25+D29+D31</f>
+        <f t="shared" ref="D32:AO32" si="78">D25+D29+D31</f>
         <v>1</v>
       </c>
       <c r="E32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>3</v>
       </c>
       <c r="F32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="G32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="J32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="L32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>3</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="Q32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="R32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="S32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="T32" s="30">
-        <f t="shared" ref="T32" si="67">T25+T29+T31</f>
+        <f t="shared" ref="T32" si="79">T25+T29+T31</f>
         <v>4</v>
       </c>
       <c r="U32" s="30">
-        <f t="shared" ref="U32" si="68">U25+U29+U31</f>
+        <f t="shared" ref="U32" si="80">U25+U29+U31</f>
         <v>0</v>
       </c>
       <c r="V32" s="30">
-        <f t="shared" ref="V32" si="69">V25+V29+V31</f>
+        <f t="shared" ref="V32" si="81">V25+V29+V31</f>
         <v>2</v>
       </c>
       <c r="W32" s="30">
-        <f t="shared" ref="W32" si="70">W25+W29+W31</f>
+        <f t="shared" ref="W32" si="82">W25+W29+W31</f>
         <v>3</v>
       </c>
       <c r="X32" s="30">
-        <f t="shared" ref="X32" si="71">X25+X29+X31</f>
+        <f t="shared" ref="X32" si="83">X25+X29+X31</f>
         <v>2</v>
       </c>
       <c r="Y32" s="30">
-        <f t="shared" ref="Y32:Z32" si="72">Y25+Y29+Y31</f>
+        <f t="shared" ref="Y32:AC32" si="84">Y25+Y29+Y31</f>
         <v>3</v>
       </c>
-      <c r="Z32" s="30">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="30">
-        <f t="shared" ref="AA32" si="73">AA25+AA29+AA31</f>
+      <c r="Z32" s="58">
+        <f t="shared" ref="Z32:AA32" si="85">Z25+Z29+Z31</f>
         <v>2</v>
       </c>
-      <c r="AB32" s="30">
-        <f t="shared" ref="AB32" si="74">AB25+AB29+AB31</f>
+      <c r="AA32" s="58">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="58">
+        <f t="shared" ref="AB32" si="86">AB25+AB29+AB31</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="30">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="30">
+        <f t="shared" ref="AD32" si="87">AD25+AD29+AD31</f>
         <v>2</v>
       </c>
-      <c r="AC32" s="30">
-        <f t="shared" ref="AC32" si="75">AC25+AC29+AC31</f>
+      <c r="AE32" s="30">
+        <f t="shared" ref="AE32" si="88">AE25+AE29+AE31</f>
         <v>2</v>
       </c>
-      <c r="AD32" s="30">
-        <f t="shared" ref="AD32" si="76">AD25+AD29+AD31</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="30">
-        <f t="shared" ref="AE32" si="77">AE25+AE29+AE31</f>
-        <v>1</v>
-      </c>
       <c r="AF32" s="30">
-        <f t="shared" ref="AF32" si="78">AF25+AF29+AF31</f>
-        <v>1</v>
+        <f t="shared" ref="AF32" si="89">AF25+AF29+AF31</f>
+        <v>2</v>
       </c>
       <c r="AG32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="AG32" si="90">AG25+AG29+AG31</f>
         <v>0</v>
       </c>
       <c r="AH32" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="AH32" si="91">AH25+AH29+AH31</f>
+        <v>1</v>
+      </c>
+      <c r="AI32" s="30">
+        <f t="shared" ref="AI32" si="92">AI25+AI29+AI31</f>
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="30">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="30">
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
-      <c r="AI32" s="30">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="30">
-        <f t="shared" si="66"/>
+      <c r="AL32" s="30">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM32" s="30">
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
-      <c r="AK32" s="30">
-        <f t="shared" si="66"/>
+      <c r="AN32" s="30">
+        <f t="shared" si="78"/>
         <v>3</v>
       </c>
-      <c r="AL32" s="30">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AM32" s="31">
-        <f>$AP$4-COUNTIF(D32:AL32,0)</f>
-        <v>22</v>
+      <c r="AO32" s="30">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="31">
+        <f>$AS$4-COUNTIF(D32:AO32,0)</f>
+        <v>20</v>
       </c>
     </row>
-    <row r="33" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10717,167 +11078,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E44519-C816-49AD-A3E6-E0C1CB5C4245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="101" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
       <c r="H1" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I1" s="49"/>
       <c r="K1" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L1" s="49"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="47" t="s">
+      <c r="H2" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="48" t="s">
-        <v>137</v>
-      </c>
       <c r="C3" s="48">
         <v>1</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="48">
         <v>4</v>
       </c>
       <c r="F3" s="48">
-        <f>Coverage!AM4</f>
-        <v>0</v>
+        <f>Coverage!AP4</f>
+        <v>-3</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="48">
-        <f>Coverage!AM8</f>
-        <v>2</v>
+        <f>Coverage!AP8</f>
+        <v>4</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L3" s="48">
-        <f>Coverage!AM26</f>
-        <v>12</v>
+        <f>Coverage!AP26</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="48">
         <v>1</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="48">
         <v>2</v>
       </c>
       <c r="F4" s="48">
-        <f>Coverage!AM6</f>
-        <v>14</v>
+        <f>Coverage!AP6</f>
+        <v>12</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" s="48">
-        <f>Coverage!AM9</f>
-        <v>7</v>
+        <f>Coverage!AP9</f>
+        <v>9</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L4" s="48">
-        <f>Coverage!AM27</f>
+        <f>Coverage!AP27</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="48">
         <v>2</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="48">
         <v>2</v>
       </c>
       <c r="F5" s="48">
-        <f>Coverage!AM11</f>
-        <v>14</v>
+        <f>Coverage!AP11</f>
+        <v>15</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" s="48">
-        <f>Coverage!AM10</f>
-        <v>12</v>
+        <f>Coverage!AP10</f>
+        <v>16</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L5" s="48">
-        <f>Coverage!AM28</f>
+        <f>Coverage!AP28</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="48">
         <v>2</v>
@@ -10889,13 +11250,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="48">
-        <f>Coverage!AM13</f>
-        <v>13</v>
+        <f>Coverage!AP13</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="48">
         <v>3</v>
@@ -10907,13 +11268,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="48">
-        <f>Coverage!AM18</f>
-        <v>16</v>
+        <f>Coverage!AP18</f>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="48">
         <v>3</v>
@@ -10925,51 +11286,51 @@
         <v>4</v>
       </c>
       <c r="F8" s="48">
-        <f>Coverage!AM22</f>
-        <v>13</v>
+        <f>Coverage!AP22</f>
+        <v>12</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="49"/>
       <c r="K8" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="48">
         <v>4</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="48">
         <v>2</v>
       </c>
       <c r="F9" s="48">
-        <f>Coverage!AM25</f>
+        <f>Coverage!AP25</f>
         <v>5</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="48">
         <v>4</v>
@@ -10981,27 +11342,27 @@
         <v>4</v>
       </c>
       <c r="F10" s="48">
-        <f>Coverage!AM29</f>
-        <v>17</v>
+        <f>Coverage!AP29</f>
+        <v>16</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I10" s="48">
-        <f>Coverage!AM15</f>
-        <v>7</v>
+        <f>Coverage!AP15</f>
+        <v>11</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L10" s="48">
-        <f>Coverage!$AM$19</f>
-        <v>10</v>
+        <f>Coverage!$AP$19</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="48">
         <v>4</v>
@@ -11013,37 +11374,37 @@
         <v>6</v>
       </c>
       <c r="F11" s="48">
-        <f>Coverage!AM31</f>
-        <v>8</v>
+        <f>Coverage!AP31</f>
+        <v>6</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" s="48">
-        <f>Coverage!AM16</f>
-        <v>2</v>
+        <f>Coverage!AP16</f>
+        <v>5</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L11" s="48">
-        <f>Coverage!$AM$20</f>
+        <f>Coverage!$AP$20</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H12" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I12" s="48">
-        <f>Coverage!AM17</f>
-        <v>14</v>
+        <f>Coverage!AP17</f>
+        <v>18</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L12" s="48">
-        <f>Coverage!$AM$21</f>
+        <f>Coverage!$AP$21</f>
         <v>12</v>
       </c>
     </row>

--- a/sota-coverage.xlsx
+++ b/sota-coverage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davide\github\microservices-antipatterns-survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Dropbox\UNIPI\Research\paper\2019\microservices-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C66AFA5-6D75-4B09-B000-5742EB42F38C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="19390" windowHeight="10390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOTA" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Timeout-Pie" sheetId="7" r:id="rId7"/>
     <sheet name="SharedPersistency-Pie" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="175">
   <si>
     <t>Tot.</t>
   </si>
@@ -540,31 +541,34 @@
     <t>Microservices. Flexible software architecture</t>
   </si>
   <si>
-    <t>Eberhard wolff</t>
-  </si>
-  <si>
     <t>B9</t>
   </si>
   <si>
     <t>Reactive Microservices Architecture</t>
   </si>
   <si>
-    <t>Jonas Bonèr</t>
-  </si>
-  <si>
     <t>B10</t>
   </si>
   <si>
     <t>Microservices: patterns and applications</t>
   </si>
   <si>
-    <t>Lucas Krause</t>
+    <t>Indrasiri et al</t>
+  </si>
+  <si>
+    <t>Wolff</t>
+  </si>
+  <si>
+    <t>Bonèr</t>
+  </si>
+  <si>
+    <t>Krause</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,12 +647,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1148,37 +1146,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1201,7 +1171,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1321,31 +1291,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,7 +1382,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="327384872"/>
@@ -1446,7 +1416,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1454,6 +1423,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1472,7 +1442,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:userShapes r:id="rId3"/>
@@ -1482,7 +1452,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1585,7 +1555,7 @@
                     <a:fld id="{4E85BE33-967E-415A-BBD8-B10132976710}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -1597,7 +1567,7 @@
                     <a:fld id="{EA6D0699-9431-46C4-B130-C68142304BD0}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1606,7 +1576,7 @@
                     <a:fld id="{2F0F37F8-6691-41F0-AA7E-A213A4CB6976}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1644,8 +1614,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2300123001230012E-2"/>
-                  <c:y val="1.9498716908297326E-2"/>
+                  <c:x val="-2.2048219084095714E-2"/>
+                  <c:y val="-5.3140204193284579E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1656,7 +1626,7 @@
                     <a:fld id="{8E2C7A4C-2791-4CA3-ADA7-89EDA60654E8}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -1668,7 +1638,7 @@
                     <a:fld id="{C096403C-DF76-4582-A13B-DC26E61D985E}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1677,7 +1647,7 @@
                     <a:fld id="{66297E7F-9E1B-4690-B240-F9751F72D0DF}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1699,8 +1669,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.31030750307503074"/>
-                      <c:h val="0.26912267234005216"/>
+                      <c:w val="0.1972297636962356"/>
+                      <c:h val="0.40216047725148135"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1715,8 +1685,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7404286641291617E-2"/>
-                  <c:y val="-7.373127453775799E-2"/>
+                  <c:x val="6.2225211520606782E-2"/>
+                  <c:y val="-8.8980566140137385E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1727,7 +1697,7 @@
                     <a:fld id="{B1999432-E532-498E-A500-BEB94D7D0190}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -1739,7 +1709,7 @@
                     <a:fld id="{4C1F9F19-7308-4CF7-A66E-00FEF6DAB11D}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1748,7 +1718,7 @@
                     <a:fld id="{042CB716-B86F-4412-904D-8C1FA0FEAD79}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -1770,8 +1740,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.33149441651896833"/>
-                      <c:h val="0.28583576426205776"/>
+                      <c:w val="0.29900077288737298"/>
+                      <c:h val="0.31633410922065897"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -1803,7 +1773,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1882,7 +1852,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1890,6 +1859,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1913,7 +1883,7 @@
           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1922,7 +1892,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2025,7 +1995,7 @@
                     <a:fld id="{26D15B74-D2C4-4239-A447-5FE509FA31F2}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2037,7 +2007,7 @@
                     <a:fld id="{34D56C1B-27DE-442C-9573-4477C2FFC7D5}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2046,7 +2016,7 @@
                     <a:fld id="{036BC4D7-E05D-45D4-80FB-DA78C6529DE3}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2084,8 +2054,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4760147601476105E-2"/>
-                  <c:y val="5.5711403066260176E-3"/>
+                  <c:x val="-1.1073159865086417E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2096,7 +2066,7 @@
                     <a:fld id="{19C05A70-CF00-4606-8E87-9EC4B1D27B9A}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2108,7 +2078,7 @@
                     <a:fld id="{10BAD3C7-40A3-47E4-AD13-B6C783AE8668}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2117,7 +2087,7 @@
                     <a:fld id="{706A5E66-26CD-4C5B-BA38-041E9189F35D}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2167,7 +2137,7 @@
                     <a:fld id="{FD04DE9F-72D2-4040-BE70-07AB7D625A82}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2179,7 +2149,7 @@
                     <a:fld id="{F7638E8B-8C85-4EEB-9275-FC52A1794716}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2188,7 +2158,7 @@
                     <a:fld id="{C62250A2-BD0B-49FB-96EB-9242111AC7F8}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2243,7 +2213,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2322,7 +2292,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2330,6 +2299,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2353,7 +2323,7 @@
           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2362,7 +2332,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2467,7 +2437,7 @@
                     <a:fld id="{AE18E2AB-80F0-4AA6-A5E2-C42DCDB1978A}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2479,7 +2449,7 @@
                     <a:fld id="{5FAC228E-4735-4BEE-903A-92379C608590}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2488,7 +2458,7 @@
                     <a:fld id="{616772ED-EC6D-4A8C-BA4F-F3283610E53F}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2526,8 +2496,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11135737184143495"/>
-                  <c:y val="-5.013263488304557E-4"/>
+                  <c:x val="7.4871348437147156E-4"/>
+                  <c:y val="-1.5127408018542246E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2557,22 +2527,11 @@
                           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="2600">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>(w:</a:t>
+                      <a:t> (w:</a:t>
                     </a:r>
                     <a:fld id="{7361BF86-583D-48D2-823C-1328DEA61FAD}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
@@ -2584,7 +2543,7 @@
                           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2604,7 +2563,7 @@
                           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2636,7 +2595,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -2652,8 +2611,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.30601175775537282"/>
-                      <c:h val="0.21142738407699038"/>
+                      <c:w val="0.54197701777655027"/>
+                      <c:h val="0.10395949826865629"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -2666,7 +2625,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3518889508005148E-2"/>
+                  <c:y val="-1.664910706014169E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2675,7 +2639,7 @@
                     <a:fld id="{AB79687A-77A0-4DBF-B7FD-7446D97BAB76}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -2685,7 +2649,7 @@
                     <a:fld id="{3FA7980C-FA06-4422-80DD-67C1E58B9067}" type="PERCENTAGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -2694,7 +2658,7 @@
                     <a:fld id="{82D5F598-11F8-45A7-B1FB-8E7746D7E354}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -2703,7 +2667,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -2714,7 +2678,12 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.29300863986523346"/>
+                      <c:h val="0.26809411482977591"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2746,7 +2715,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2825,7 +2794,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2833,6 +2801,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2851,7 +2820,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2860,7 +2829,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2963,7 +2932,7 @@
                     <a:fld id="{C2DBB804-5972-4FEE-8741-7FBFECBFFA39}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2975,7 +2944,7 @@
                     <a:fld id="{F2913555-3B35-4896-8B5F-81F07C11C090}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -2984,7 +2953,7 @@
                     <a:fld id="{CEB37A58-63AA-4AC3-BFDB-4E35616C17BD}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -3022,8 +2991,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4760099175794997E-2"/>
-                  <c:y val="-1.0966595759560926E-7"/>
+                  <c:x val="1.769920710413703E-2"/>
+                  <c:y val="-1.096248418661656E-7"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3034,7 +3003,7 @@
                     <a:fld id="{129062AC-3E6D-478F-AB78-482F4421F0BB}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3046,7 +3015,7 @@
                     <a:fld id="{5F2123F5-D45E-48F7-A03A-A4DF4BDF9F94}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -3055,7 +3024,7 @@
                     <a:fld id="{8E43CEBE-0C99-4D2D-8C29-33C6ED4C6725}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -3105,7 +3074,7 @@
                     <a:fld id="{817962AD-E433-4D8A-BF59-CCC6E9708343}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -3117,7 +3086,7 @@
                     <a:fld id="{1B4CD744-33DB-4F94-967A-0D859481F3AD}" type="PERCENTAGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[PERCENTAGE]</a:t>
+                      <a:t>[PERCENTUALE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -3126,7 +3095,7 @@
                     <a:fld id="{F8F88DF8-A3FF-4D25-ACA5-4A02FF425F3C}" type="VALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALORE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US"/>
@@ -3181,7 +3150,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3260,7 +3229,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3268,6 +3236,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3291,7 +3260,7 @@
           <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -5939,7 +5908,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0"/>
@@ -5951,10 +5920,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5963,10 +5932,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5975,10 +5944,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="156" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5987,10 +5956,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -6002,7 +5971,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="7090833" cy="4854222"/>
+    <xdr:ext cx="7080250" cy="4847167"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6709,7 +6678,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10219070" cy="7088372"/>
+    <xdr:ext cx="9763125" cy="4569732"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6742,7 +6711,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10239375" cy="7098393"/>
+    <xdr:ext cx="9758632" cy="4564811"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6775,7 +6744,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10224213" cy="7084888"/>
+    <xdr:ext cx="9757019" cy="4561010"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6808,7 +6777,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10219070" cy="7088372"/>
+    <xdr:ext cx="10338371" cy="4591264"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -7133,22 +7102,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>66</v>
       </c>
@@ -7159,7 +7128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>33</v>
       </c>
@@ -7170,7 +7139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
@@ -7181,7 +7150,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>35</v>
       </c>
@@ -7192,7 +7161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>36</v>
       </c>
@@ -7203,7 +7172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
@@ -7214,7 +7183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
         <v>38</v>
       </c>
@@ -7225,7 +7194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
         <v>39</v>
       </c>
@@ -7236,7 +7205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>40</v>
       </c>
@@ -7247,7 +7216,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>41</v>
       </c>
@@ -7258,7 +7227,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>42</v>
       </c>
@@ -7269,7 +7238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
@@ -7280,7 +7249,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>44</v>
       </c>
@@ -7291,7 +7260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
         <v>45</v>
       </c>
@@ -7302,7 +7271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
         <v>46</v>
       </c>
@@ -7313,7 +7282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -7324,7 +7293,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>48</v>
       </c>
@@ -7335,7 +7304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>49</v>
       </c>
@@ -7346,7 +7315,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
         <v>32</v>
       </c>
@@ -7357,7 +7326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
         <v>50</v>
       </c>
@@ -7368,7 +7337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>51</v>
       </c>
@@ -7379,7 +7348,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>52</v>
       </c>
@@ -7390,7 +7359,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
         <v>53</v>
       </c>
@@ -7398,10 +7367,10 @@
         <v>109</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
         <v>160</v>
       </c>
@@ -7412,7 +7381,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>165</v>
       </c>
@@ -7420,41 +7389,32 @@
         <v>166</v>
       </c>
       <c r="C25" s="44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="1">
-        <v>2015</v>
+      <c r="B26" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="45" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="B27" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="1">
-        <v>2016</v>
+      <c r="C27" s="44" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>54</v>
       </c>
@@ -7465,7 +7425,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>55</v>
       </c>
@@ -7476,7 +7436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>56</v>
       </c>
@@ -7487,7 +7447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>57</v>
       </c>
@@ -7498,7 +7458,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
         <v>58</v>
       </c>
@@ -7509,7 +7469,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
         <v>59</v>
       </c>
@@ -7520,7 +7480,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
         <v>60</v>
       </c>
@@ -7531,7 +7491,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
         <v>61</v>
       </c>
@@ -7542,7 +7502,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
         <v>62</v>
       </c>
@@ -7553,7 +7513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="42" t="s">
         <v>63</v>
       </c>
@@ -7564,7 +7524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="42" t="s">
         <v>64</v>
       </c>
@@ -7575,7 +7535,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
         <v>65</v>
       </c>
@@ -7592,27 +7552,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL38" sqref="AL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="3.54296875" customWidth="1"/>
-    <col min="26" max="28" width="3.54296875" style="59" customWidth="1"/>
-    <col min="29" max="41" width="3.54296875" customWidth="1"/>
-    <col min="42" max="42" width="4.6328125" customWidth="1"/>
-    <col min="44" max="44" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="41" width="3.5703125" customWidth="1"/>
+    <col min="42" max="42" width="4.5703125" customWidth="1"/>
+    <col min="44" max="44" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7682,17 +7640,17 @@
       <c r="Y1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="50" t="s">
+      <c r="Z1" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA1" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="AA1" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB1" s="50" t="s">
-        <v>171</v>
+      <c r="AB1" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AD1" s="34" t="s">
         <v>54</v>
@@ -7734,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -7766,10 +7724,10 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
       <c r="Y2" s="19"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="5"/>
       <c r="AD2" s="19"/>
       <c r="AE2" s="19"/>
       <c r="AF2" s="19"/>
@@ -7787,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7817,9 +7775,9 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
@@ -7838,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -7927,23 +7885,23 @@
         <v>0</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Y4:AC4" si="2">COUNTIF(Y2:Y3,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" ref="AC4" si="2">COUNTIF(AC2:AC3,"x")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD4" s="9">
@@ -7996,16 +7954,16 @@
       </c>
       <c r="AP4" s="23">
         <f>$AS$4-COUNTIF(D4:AO4,0)</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="33" t="s">
         <v>31</v>
       </c>
       <c r="AS4" s="33">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -8057,11 +8015,11 @@
       <c r="Y5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
       <c r="AC5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8086,7 +8044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
@@ -8175,23 +8133,23 @@
         <v>0</v>
       </c>
       <c r="Y6" s="9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="53">
-        <f t="shared" ref="Z6:AA6" si="9">COUNTIF(Z5:Z5,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="53">
+        <f t="shared" ref="Y6:AB6" si="9">COUNTIF(Y5:Y5,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="53">
-        <f t="shared" ref="AB6" si="10">COUNTIF(AB5:AB5,"x")</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AC6" s="9">
-        <f t="shared" ref="AC6" si="11">COUNTIF(AC5:AC5,"x")</f>
+        <f t="shared" ref="AC6" si="10">COUNTIF(AC5:AC5,"x")</f>
         <v>1</v>
       </c>
       <c r="AD6" s="9">
@@ -8244,171 +8202,171 @@
       </c>
       <c r="AP6" s="23">
         <f>$AS$4-COUNTIF(D6:AO6,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <f t="shared" ref="D7:AO7" si="12">D4+D6</f>
+        <f t="shared" ref="D7:AO7" si="11">D4+D6</f>
         <v>1</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U7" s="13">
-        <f t="shared" ref="U7" si="13">U4+U6</f>
+        <f t="shared" ref="U7" si="12">U4+U6</f>
         <v>1</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" ref="V7" si="14">V4+V6</f>
+        <f t="shared" ref="V7" si="13">V4+V6</f>
         <v>0</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" ref="W7" si="15">W4+W6</f>
+        <f t="shared" ref="W7" si="14">W4+W6</f>
         <v>0</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" ref="X7" si="16">X4+X6</f>
+        <f t="shared" ref="X7:AB7" si="15">X4+X6</f>
         <v>0</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" ref="Y7:AC7" si="17">Y4+Y6</f>
-        <v>1</v>
-      </c>
-      <c r="Z7" s="54">
-        <f t="shared" ref="Z7:AA7" si="18">Z4+Z6</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="54">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="54">
-        <f t="shared" ref="AB7" si="19">AB4+AB6</f>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AC7" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AC7" si="16">AC4+AC6</f>
         <v>1</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" ref="AD7" si="20">AD4+AD6</f>
+        <f t="shared" ref="AD7" si="17">AD4+AD6</f>
         <v>0</v>
       </c>
       <c r="AE7" s="13">
-        <f t="shared" ref="AE7" si="21">AE4+AE6</f>
+        <f t="shared" ref="AE7" si="18">AE4+AE6</f>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" ref="AF7" si="22">AF4+AF6</f>
+        <f t="shared" ref="AF7" si="19">AF4+AF6</f>
         <v>0</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" ref="AG7" si="23">AG4+AG6</f>
+        <f t="shared" ref="AG7" si="20">AG4+AG6</f>
         <v>0</v>
       </c>
       <c r="AH7" s="13">
-        <f t="shared" ref="AH7" si="24">AH4+AH6</f>
+        <f t="shared" ref="AH7" si="21">AH4+AH6</f>
         <v>0</v>
       </c>
       <c r="AI7" s="13">
-        <f t="shared" ref="AI7" si="25">AI4+AI6</f>
+        <f t="shared" ref="AI7" si="22">AI4+AI6</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="13">
-        <f t="shared" ref="AJ7" si="26">AJ4+AJ6</f>
+        <f t="shared" ref="AJ7" si="23">AJ4+AJ6</f>
         <v>0</v>
       </c>
       <c r="AK7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AL7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO7" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AP7" s="25">
         <f>$AS$4-COUNTIF(D7:AO7,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -8442,14 +8400,14 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AD8" s="3" t="s">
         <v>1</v>
       </c>
@@ -8469,7 +8427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -8509,13 +8467,13 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="52"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5" t="s">
         <v>1</v>
@@ -8538,7 +8496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
@@ -8582,13 +8540,13 @@
       <c r="Y10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z10" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="52" t="s">
+      <c r="Z10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AC10" s="5" t="s">
@@ -8619,165 +8577,168 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9">
-        <f t="shared" ref="D11:AO11" si="27">COUNTIF(D8:D10,"x")</f>
+        <f t="shared" ref="D11:AO11" si="24">COUNTIF(D8:D10,"x")</f>
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="X11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y11" s="9">
         <f>COUNTIF(Y8:Y10,"x")</f>
         <v>1</v>
       </c>
-      <c r="Z11" s="53">
-        <f t="shared" si="27"/>
+      <c r="Z11" s="9">
+        <f t="shared" ref="Z11:AC11" si="25">COUNTIF(Z8:Z10,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="AA11" s="53">
-        <f t="shared" si="27"/>
+      <c r="AB11" s="9">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="AB11" s="53"/>
       <c r="AC11" s="9">
-        <f t="shared" ref="AC11" si="28">COUNTIF(AC8:AC10,"x")</f>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>2</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AG11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AK11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AM11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AN11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AO11" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AP11" s="23">
         <f>$AS$4-COUNTIF(D11:AO11,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -8821,11 +8782,11 @@
       <c r="Y12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="52" t="s">
+      <c r="Z12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AC12" s="5" t="s">
@@ -8858,329 +8819,329 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9">
-        <f t="shared" ref="D13:S13" si="29">COUNTIF(D12:D12,"x")</f>
+        <f t="shared" ref="D13:S13" si="26">COUNTIF(D12:D12,"x")</f>
         <v>0</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" ref="T13:AI13" si="30">COUNTIF(T12:T12,"x")</f>
+        <f t="shared" ref="T13:AI13" si="27">COUNTIF(T12:T12,"x")</f>
         <v>0</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="X13" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="53">
-        <f t="shared" ref="Z13:AA13" si="31">COUNTIF(Z12:Z12,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="53">
+        <f t="shared" ref="Y13:AB13" si="28">COUNTIF(Y12:Y12,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" ref="AA13" si="29">COUNTIF(AA12:AA12,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" ref="AC13" si="30">COUNTIF(AC12:AC12,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AG13" s="9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="9">
+        <f t="shared" ref="AJ13:AO13" si="31">COUNTIF(AJ12:AJ12,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="9">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="53">
-        <f t="shared" ref="AB13" si="32">COUNTIF(AB12:AB12,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="9">
-        <f t="shared" ref="AC13" si="33">COUNTIF(AC12:AC12,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="9">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="9">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="9">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AG13" s="9">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AH13" s="9">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="9">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="9">
-        <f t="shared" ref="AJ13:AO13" si="34">COUNTIF(AJ12:AJ12,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="9">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AL13" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AM13" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AN13" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO13" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AP13" s="23">
         <f>$AS$4-COUNTIF(D13:AO13,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="13">
-        <f t="shared" ref="D14:AO14" si="35">D11+D13</f>
+        <f t="shared" ref="D14:AO14" si="32">D11+D13</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="Q14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T14" s="13">
-        <f t="shared" ref="T14" si="36">T11+T13</f>
+        <f t="shared" ref="T14" si="33">T11+T13</f>
         <v>0</v>
       </c>
       <c r="U14" s="13">
-        <f t="shared" ref="U14" si="37">U11+U13</f>
+        <f t="shared" ref="U14" si="34">U11+U13</f>
         <v>3</v>
       </c>
       <c r="V14" s="13">
-        <f t="shared" ref="V14" si="38">V11+V13</f>
+        <f t="shared" ref="V14" si="35">V11+V13</f>
         <v>0</v>
       </c>
       <c r="W14" s="13">
-        <f t="shared" ref="W14" si="39">W11+W13</f>
+        <f t="shared" ref="W14" si="36">W11+W13</f>
         <v>2</v>
       </c>
       <c r="X14" s="13">
-        <f t="shared" ref="X14" si="40">X11+X13</f>
+        <f t="shared" ref="X14:AB14" si="37">X11+X13</f>
         <v>0</v>
       </c>
       <c r="Y14" s="13">
-        <f t="shared" ref="Y14:AC14" si="41">Y11+Y13</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="Z14" s="54">
-        <f t="shared" ref="Z14:AA14" si="42">Z11+Z13</f>
+      <c r="Z14" s="13">
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="AA14" s="54">
-        <f t="shared" si="42"/>
+      <c r="AA14" s="13">
+        <f t="shared" ref="AA14" si="38">AA11+AA13</f>
+        <v>2</v>
+      </c>
+      <c r="AB14" s="13">
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="AB14" s="54">
-        <f t="shared" ref="AB14" si="43">AB11+AB13</f>
-        <v>1</v>
-      </c>
       <c r="AC14" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AC14" si="39">AC11+AC13</f>
+        <v>3</v>
+      </c>
+      <c r="AD14" s="13">
+        <f t="shared" ref="AD14" si="40">AD11+AD13</f>
+        <v>4</v>
+      </c>
+      <c r="AE14" s="13">
+        <f t="shared" ref="AE14" si="41">AE11+AE13</f>
+        <v>1</v>
+      </c>
+      <c r="AF14" s="13">
+        <f t="shared" ref="AF14" si="42">AF11+AF13</f>
+        <v>1</v>
+      </c>
+      <c r="AG14" s="13">
+        <f t="shared" ref="AG14" si="43">AG11+AG13</f>
+        <v>1</v>
+      </c>
+      <c r="AH14" s="13">
+        <f t="shared" ref="AH14" si="44">AH11+AH13</f>
+        <v>1</v>
+      </c>
+      <c r="AI14" s="13">
+        <f t="shared" ref="AI14" si="45">AI11+AI13</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="13">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AM14" s="13">
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="AD14" s="13">
-        <f t="shared" ref="AD14" si="44">AD11+AD13</f>
-        <v>4</v>
-      </c>
-      <c r="AE14" s="13">
-        <f t="shared" ref="AE14" si="45">AE11+AE13</f>
-        <v>1</v>
-      </c>
-      <c r="AF14" s="13">
-        <f t="shared" ref="AF14" si="46">AF11+AF13</f>
-        <v>1</v>
-      </c>
-      <c r="AG14" s="13">
-        <f t="shared" ref="AG14" si="47">AG11+AG13</f>
-        <v>1</v>
-      </c>
-      <c r="AH14" s="13">
-        <f t="shared" ref="AH14" si="48">AH11+AH13</f>
-        <v>1</v>
-      </c>
-      <c r="AI14" s="13">
-        <f t="shared" ref="AI14" si="49">AI11+AI13</f>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="13">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="13">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="AL14" s="13">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="AM14" s="13">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
       <c r="AN14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AO14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AP14" s="25">
         <f>$AS$4-COUNTIF(D14:AO14,0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
@@ -9220,16 +9181,16 @@
       <c r="Y15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z15" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AD15" s="3"/>
@@ -9255,7 +9216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
@@ -9287,16 +9248,16 @@
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
-      <c r="Z16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="35" t="s">
+      <c r="Z16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AD16" s="35"/>
@@ -9316,7 +9277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -9364,13 +9325,13 @@
       <c r="Y17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="52" t="s">
+      <c r="Z17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AC17" s="5" t="s">
@@ -9401,168 +9362,168 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
-        <f t="shared" ref="D18:S18" si="50">COUNTIF(D15:D17,"x")</f>
+        <f t="shared" ref="D18:S18" si="46">COUNTIF(D15:D17,"x")</f>
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" ref="T18:AI18" si="51">COUNTIF(T15:T17,"x")</f>
+        <f t="shared" ref="T18:AI18" si="47">COUNTIF(T15:T17,"x")</f>
         <v>0</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="Y18:AC18" si="48">COUNTIF(Y15:Y17,"x")</f>
         <v>2</v>
       </c>
-      <c r="Z18" s="53">
-        <f t="shared" si="51"/>
+      <c r="Z18" s="9">
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
-      <c r="AA18" s="53">
-        <f t="shared" si="51"/>
+      <c r="AA18" s="9">
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
-      <c r="AB18" s="53">
-        <f t="shared" si="51"/>
+      <c r="AB18" s="9">
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="AC18" s="9">
-        <f t="shared" ref="AC18" si="52">COUNTIF(AC15:AC17,"x")</f>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AE18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AF18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AG18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AH18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AI18" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="9">
-        <f t="shared" ref="AJ18:AO18" si="53">COUNTIF(AJ15:AJ17,"x")</f>
+        <f t="shared" ref="AJ18:AO18" si="49">COUNTIF(AJ15:AJ17,"x")</f>
         <v>1</v>
       </c>
       <c r="AK18" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AL18" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AM18" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AN18" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AO18" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AP18" s="23">
         <f>$AS$4-COUNTIF(D18:AO18,0)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -9600,13 +9561,13 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="5"/>
       <c r="AC19" s="5" t="s">
         <v>1</v>
       </c>
@@ -9637,7 +9598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
@@ -9669,12 +9630,12 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
@@ -9696,7 +9657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
@@ -9736,12 +9697,12 @@
       <c r="Y21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5" t="s">
         <v>1</v>
@@ -9769,329 +9730,329 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9">
-        <f t="shared" ref="D22:S22" si="54">COUNTIF(D19:D21,"x")</f>
+        <f t="shared" ref="D22:S22" si="50">COUNTIF(D19:D21,"x")</f>
         <v>0</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" ref="T22:AI22" si="55">COUNTIF(T19:T21,"x")</f>
+        <f t="shared" ref="T22:AI22" si="51">COUNTIF(T19:T21,"x")</f>
         <v>2</v>
       </c>
       <c r="U22" s="9">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" ref="Y22:AB22" si="52">COUNTIF(Y19:Y21,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" si="52"/>
+        <v>3</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" ref="AA22" si="53">COUNTIF(AA19:AA21,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" ref="AC22" si="54">COUNTIF(AC19:AC21,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="AF22" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="AI22" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="9">
+        <f t="shared" ref="AJ22:AO22" si="55">COUNTIF(AJ19:AJ21,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="AK22" s="9">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="AL22" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="9">
         <f t="shared" si="55"/>
         <v>2</v>
       </c>
-      <c r="V22" s="9">
+      <c r="AN22" s="9">
         <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="9">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="Z22" s="53">
-        <f t="shared" ref="Z22:AB22" si="56">COUNTIF(Z19:Z21,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AA22" s="53">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="53">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="AC22" s="9">
-        <f t="shared" ref="AC22" si="57">COUNTIF(AC19:AC21,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="AD22" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="9">
-        <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="AF22" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="9">
-        <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="AI22" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="9">
-        <f t="shared" ref="AJ22:AO22" si="58">COUNTIF(AJ19:AJ21,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="AK22" s="9">
-        <f t="shared" si="58"/>
-        <v>3</v>
-      </c>
-      <c r="AL22" s="9">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="9">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="AN22" s="9">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="9">
-        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AP22" s="23">
         <f>$AS$4-COUNTIF(D22:AO22,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13">
-        <f t="shared" ref="D23:S23" si="59">D18+D22</f>
+        <f t="shared" ref="D23:S23" si="56">D18+D22</f>
         <v>0</v>
       </c>
       <c r="E23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="S23" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="T23" s="13">
-        <f t="shared" ref="T23:AI23" si="60">T18+T22</f>
+        <f t="shared" ref="T23:AI23" si="57">T18+T22</f>
         <v>2</v>
       </c>
       <c r="U23" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>4</v>
       </c>
       <c r="V23" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="W23" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="X23" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Y23" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="Y23:AB23" si="58">Y18+Y22</f>
         <v>3</v>
       </c>
-      <c r="Z23" s="54">
-        <f t="shared" ref="Z23:AB23" si="61">Z18+Z22</f>
+      <c r="Z23" s="13">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" ref="AA23" si="59">AA18+AA22</f>
         <v>4</v>
       </c>
-      <c r="AA23" s="54">
-        <f t="shared" si="61"/>
+      <c r="AB23" s="13">
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
-      <c r="AB23" s="54">
+      <c r="AC23" s="13">
+        <f t="shared" ref="AC23" si="60">AC18+AC22</f>
+        <v>4</v>
+      </c>
+      <c r="AD23" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="AF23" s="13">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="AG23" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="13">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="AI23" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="13">
+        <f t="shared" ref="AJ23:AO23" si="61">AJ18+AJ22</f>
+        <v>4</v>
+      </c>
+      <c r="AK23" s="13">
         <f t="shared" si="61"/>
         <v>4</v>
       </c>
-      <c r="AC23" s="13">
-        <f t="shared" ref="AC23" si="62">AC18+AC22</f>
-        <v>6</v>
-      </c>
-      <c r="AD23" s="13">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="13">
-        <f t="shared" si="60"/>
-        <v>4</v>
-      </c>
-      <c r="AF23" s="13">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="AG23" s="13">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="13">
-        <f t="shared" si="60"/>
-        <v>3</v>
-      </c>
-      <c r="AI23" s="13">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="13">
-        <f t="shared" ref="AJ23:AO23" si="63">AJ18+AJ22</f>
-        <v>4</v>
-      </c>
-      <c r="AK23" s="13">
-        <f t="shared" si="63"/>
-        <v>4</v>
-      </c>
       <c r="AL23" s="13">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="AM23" s="13">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>2</v>
       </c>
       <c r="AN23" s="13">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AO23" s="13">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AP23" s="25">
         <f>$AS$4-COUNTIF(D23:AO23,0)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>23</v>
       </c>
@@ -10129,12 +10090,12 @@
       <c r="Y24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="5"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3" t="s">
         <v>1</v>
@@ -10156,159 +10117,168 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9">
-        <f t="shared" ref="D25:S25" si="64">COUNTIF(D24:D24,"x")</f>
+        <f t="shared" ref="D25:S25" si="62">COUNTIF(D24:D24,"x")</f>
         <v>0</v>
       </c>
       <c r="E25" s="9">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" ref="T25:AI25" si="63">COUNTIF(T24:T24,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" ref="Y25:AC25" si="64">COUNTIF(Y24:Y24,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="9">
         <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
         <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="9">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="I25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="9">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
-        <f t="shared" ref="T25:AI25" si="65">COUNTIF(T24:T24,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="9">
+      <c r="AD25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="9">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="AF25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="9">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="9">
+        <f t="shared" ref="AJ25:AO25" si="65">COUNTIF(AJ24:AJ24,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="9">
         <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="9">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="W25" s="9">
+      <c r="AM25" s="9">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="X25" s="9">
+      <c r="AN25" s="9">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="AO25" s="9">
         <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="9">
-        <f t="shared" ref="AC25" si="66">COUNTIF(AC24:AC24,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="9">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="AF25" s="9">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="9">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="9">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="9">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="9">
-        <f t="shared" ref="AJ25:AO25" si="67">COUNTIF(AJ24:AJ24,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="9">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="AL25" s="9">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="9">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="9">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="9">
-        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AP25" s="23">
         <f>$AS$4-COUNTIF(D25:AO25,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="10" t="s">
         <v>25</v>
@@ -10352,11 +10322,11 @@
       <c r="Y26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z26" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5" t="s">
         <v>1</v>
@@ -10385,7 +10355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
@@ -10419,9 +10389,9 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
@@ -10440,7 +10410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
@@ -10490,9 +10460,9 @@
       <c r="Y28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5" t="s">
         <v>1</v>
@@ -10521,165 +10491,168 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="7"/>
       <c r="C29" s="36"/>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:S29" si="68">COUNTIF(D26:D28,"x")</f>
+        <f t="shared" ref="D29:S29" si="66">COUNTIF(D26:D28,"x")</f>
         <v>1</v>
       </c>
       <c r="E29" s="15">
+        <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="15">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" ref="T29:AI29" si="67">COUNTIF(T26:T28,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="67"/>
+        <v>2</v>
+      </c>
+      <c r="W29" s="15">
+        <f t="shared" si="67"/>
+        <v>2</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="67"/>
+        <v>2</v>
+      </c>
+      <c r="Y29" s="15">
+        <f t="shared" ref="Y29:AC29" si="68">COUNTIF(Y26:Y28,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="Z29" s="15">
         <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="15">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="15">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="15">
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
-      <c r="F29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" si="68"/>
+      <c r="AE29" s="15">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="15">
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
-      <c r="I29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="K29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="15">
-        <f t="shared" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="N29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="15">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="15">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="15">
-        <f t="shared" ref="T29:AI29" si="69">COUNTIF(T26:T28,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="U29" s="15">
+      <c r="AG29" s="15">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="15">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="AI29" s="15">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="15">
+        <f t="shared" ref="AJ29:AO29" si="69">COUNTIF(AJ26:AJ28,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="15">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="15">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="15">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="W29" s="15">
+      <c r="AN29" s="15">
         <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="X29" s="15">
+      <c r="AO29" s="15">
         <f t="shared" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="Y29" s="15">
-        <f t="shared" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="Z29" s="57">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="57">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="15">
-        <f t="shared" ref="AC29" si="70">COUNTIF(AC26:AC28,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="15">
-        <f t="shared" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="AE29" s="15">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="15">
-        <f t="shared" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="AG29" s="15">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="15">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="AI29" s="15">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="15">
-        <f t="shared" ref="AJ29:AO29" si="71">COUNTIF(AJ26:AJ28,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="15">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AL29" s="15">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="15">
-        <f t="shared" si="71"/>
-        <v>2</v>
-      </c>
-      <c r="AN29" s="15">
-        <f t="shared" si="71"/>
-        <v>2</v>
-      </c>
-      <c r="AO29" s="15">
-        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AP29" s="37">
         <f>$AS$4-COUNTIF(D29:AO29,0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="10" t="s">
         <v>29</v>
@@ -10719,11 +10692,11 @@
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5" t="s">
@@ -10748,329 +10721,329 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="11"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9">
-        <f t="shared" ref="D31:S31" si="72">COUNTIF(D30:D30,"x")</f>
+        <f t="shared" ref="D31:S31" si="70">COUNTIF(D30:D30,"x")</f>
         <v>0</v>
       </c>
       <c r="E31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" ref="T31:AI31" si="71">COUNTIF(T30:T30,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="X31" s="9">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="9">
+        <f t="shared" ref="Y31:AB31" si="72">COUNTIF(Y30:Y30,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="F31" s="9">
+      <c r="AA31" s="9">
+        <f t="shared" ref="AA31" si="73">COUNTIF(AA30:AA30,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="9">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="G31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="9">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="9">
-        <f t="shared" ref="T31:AI31" si="73">COUNTIF(T30:T30,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="U31" s="9">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="9">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="9">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="X31" s="9">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="9">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="53">
-        <f t="shared" ref="Z31:AA31" si="74">COUNTIF(Z30:Z30,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AA31" s="53">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="53">
-        <f t="shared" ref="AB31" si="75">COUNTIF(AB30:AB30,"x")</f>
-        <v>0</v>
-      </c>
       <c r="AC31" s="9">
-        <f t="shared" ref="AC31" si="76">COUNTIF(AC30:AC30,"x")</f>
+        <f t="shared" ref="AC31" si="74">COUNTIF(AC30:AC30,"x")</f>
         <v>0</v>
       </c>
       <c r="AD31" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AE31" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AF31" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG31" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AH31" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AI31" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AJ31" s="9">
-        <f t="shared" ref="AJ31:AO31" si="77">COUNTIF(AJ30:AJ30,"x")</f>
+        <f t="shared" ref="AJ31:AO31" si="75">COUNTIF(AJ30:AJ30,"x")</f>
         <v>0</v>
       </c>
       <c r="AK31" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AL31" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AM31" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AN31" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="AO31" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AP31" s="23">
         <f>$AS$4-COUNTIF(D31:AO31,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30">
-        <f t="shared" ref="D32:AO32" si="78">D25+D29+D31</f>
+        <f t="shared" ref="D32:AO32" si="76">D25+D29+D31</f>
         <v>1</v>
       </c>
       <c r="E32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="F32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="G32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="L32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="M32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="P32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="Q32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="R32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="S32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="T32" s="30">
-        <f t="shared" ref="T32" si="79">T25+T29+T31</f>
+        <f t="shared" ref="T32" si="77">T25+T29+T31</f>
         <v>4</v>
       </c>
       <c r="U32" s="30">
-        <f t="shared" ref="U32" si="80">U25+U29+U31</f>
+        <f t="shared" ref="U32" si="78">U25+U29+U31</f>
         <v>0</v>
       </c>
       <c r="V32" s="30">
-        <f t="shared" ref="V32" si="81">V25+V29+V31</f>
+        <f t="shared" ref="V32" si="79">V25+V29+V31</f>
         <v>2</v>
       </c>
       <c r="W32" s="30">
-        <f t="shared" ref="W32" si="82">W25+W29+W31</f>
+        <f t="shared" ref="W32" si="80">W25+W29+W31</f>
         <v>3</v>
       </c>
       <c r="X32" s="30">
-        <f t="shared" ref="X32" si="83">X25+X29+X31</f>
+        <f t="shared" ref="X32:AB32" si="81">X25+X29+X31</f>
         <v>2</v>
       </c>
       <c r="Y32" s="30">
-        <f t="shared" ref="Y32:AC32" si="84">Y25+Y29+Y31</f>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
-      <c r="Z32" s="58">
-        <f t="shared" ref="Z32:AA32" si="85">Z25+Z29+Z31</f>
+      <c r="Z32" s="30">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="30">
+        <f t="shared" ref="AA32" si="82">AA25+AA29+AA31</f>
         <v>2</v>
       </c>
-      <c r="AA32" s="58">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="58">
-        <f t="shared" ref="AB32" si="86">AB25+AB29+AB31</f>
-        <v>0</v>
+      <c r="AB32" s="30">
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="AC32" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="AC32" si="83">AC25+AC29+AC31</f>
         <v>0</v>
       </c>
       <c r="AD32" s="30">
-        <f t="shared" ref="AD32" si="87">AD25+AD29+AD31</f>
+        <f t="shared" ref="AD32" si="84">AD25+AD29+AD31</f>
         <v>2</v>
       </c>
       <c r="AE32" s="30">
-        <f t="shared" ref="AE32" si="88">AE25+AE29+AE31</f>
+        <f t="shared" ref="AE32" si="85">AE25+AE29+AE31</f>
         <v>2</v>
       </c>
       <c r="AF32" s="30">
-        <f t="shared" ref="AF32" si="89">AF25+AF29+AF31</f>
+        <f t="shared" ref="AF32" si="86">AF25+AF29+AF31</f>
         <v>2</v>
       </c>
       <c r="AG32" s="30">
-        <f t="shared" ref="AG32" si="90">AG25+AG29+AG31</f>
+        <f t="shared" ref="AG32" si="87">AG25+AG29+AG31</f>
         <v>0</v>
       </c>
       <c r="AH32" s="30">
-        <f t="shared" ref="AH32" si="91">AH25+AH29+AH31</f>
+        <f t="shared" ref="AH32" si="88">AH25+AH29+AH31</f>
         <v>1</v>
       </c>
       <c r="AI32" s="30">
-        <f t="shared" ref="AI32" si="92">AI25+AI29+AI31</f>
+        <f t="shared" ref="AI32" si="89">AI25+AI29+AI31</f>
         <v>1</v>
       </c>
       <c r="AJ32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AK32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AL32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AM32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AN32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="AO32" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AP32" s="31">
         <f>$AS$4-COUNTIF(D32:AO32,0)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11078,23 +11051,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="101" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="49" t="s">
         <v>146</v>
       </c>
@@ -11111,7 +11084,7 @@
       </c>
       <c r="L1" s="49"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>133</v>
       </c>
@@ -11140,7 +11113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
         <v>136</v>
       </c>
@@ -11155,7 +11128,7 @@
       </c>
       <c r="F3" s="48">
         <f>Coverage!AP4</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>152</v>
@@ -11172,7 +11145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="48" t="s">
         <v>136</v>
       </c>
@@ -11187,7 +11160,7 @@
       </c>
       <c r="F4" s="48">
         <f>Coverage!AP6</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>153</v>
@@ -11204,7 +11177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
@@ -11219,7 +11192,7 @@
       </c>
       <c r="F5" s="48">
         <f>Coverage!AP11</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>154</v>
@@ -11236,7 +11209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="48" t="s">
         <v>137</v>
       </c>
@@ -11251,10 +11224,10 @@
       </c>
       <c r="F6" s="48">
         <f>Coverage!AP13</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
         <v>138</v>
       </c>
@@ -11269,10 +11242,10 @@
       </c>
       <c r="F7" s="48">
         <f>Coverage!AP18</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="48" t="s">
         <v>138</v>
       </c>
@@ -11287,7 +11260,7 @@
       </c>
       <c r="F8" s="48">
         <f>Coverage!AP22</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H8" s="49" t="s">
         <v>149</v>
@@ -11298,7 +11271,7 @@
       </c>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
         <v>139</v>
       </c>
@@ -11313,7 +11286,7 @@
       </c>
       <c r="F9" s="48">
         <f>Coverage!AP25</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="47" t="s">
         <v>147</v>
@@ -11328,7 +11301,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="48" t="s">
         <v>139</v>
       </c>
@@ -11343,7 +11316,7 @@
       </c>
       <c r="F10" s="48">
         <f>Coverage!AP29</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>155</v>
@@ -11360,7 +11333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>139</v>
       </c>
@@ -11375,7 +11348,7 @@
       </c>
       <c r="F11" s="48">
         <f>Coverage!AP31</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>152</v>
@@ -11392,7 +11365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H12" s="48" t="s">
         <v>156</v>
       </c>

--- a/sota-coverage.xlsx
+++ b/sota-coverage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Dropbox\UNIPI\Research\paper\2019\microservices-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C66AFA5-6D75-4B09-B000-5742EB42F38C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE18FBE-8DA2-4633-982B-FE700623F942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOTA" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="184">
   <si>
     <t>Tot.</t>
   </si>
@@ -563,6 +563,33 @@
   </si>
   <si>
     <t>Krause</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microservices Architecture: Case on the Migration of Reservation-based Parking System </t>
+  </si>
+  <si>
+    <t>Pujianto Yugopuspito, Panduwinata</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>Transform Monolith into Microservices using Docker</t>
+  </si>
+  <si>
+    <t>Sarita, Sunil</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>Spring microservices in action</t>
+  </si>
+  <si>
+    <t>Carnell</t>
   </si>
 </sst>
 </file>
@@ -1212,6 +1239,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Analysis!$C$3:$C$11</c:f>
@@ -1294,25 +1376,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
@@ -2054,7 +2136,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1073159865086417E-2"/>
+                  <c:x val="-1.2289855566133648E-5"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
@@ -2125,8 +2207,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6152676487394824E-3"/>
-                  <c:y val="-0.17607253306428619"/>
+                  <c:x val="9.8318844529069194E-3"/>
+                  <c:y val="-0.17607245424305934"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2254,13 +2336,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,13 +2838,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,8 +3073,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.769920710413703E-2"/>
-                  <c:y val="-1.096248418661656E-7"/>
+                  <c:x val="-5.8610030883342566E-3"/>
+                  <c:y val="-1.3875439390736855E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3005,9 +3087,10 @@
                       <a:pPr/>
                       <a:t>[NOME CATEGORIA]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
                     <a:r>
                       <a:rPr lang="en-US"/>
                       <a:t>(w:</a:t>
@@ -3046,8 +3129,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.29008610086100856"/>
-                      <c:h val="0.19335665562696025"/>
+                      <c:w val="0.41052665805151017"/>
+                      <c:h val="0.16283304987423503"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
@@ -3191,13 +3274,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5923,7 +6006,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5947,7 +6030,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -5959,7 +6042,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -6341,7 +6424,7 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.31353</cdr:x>
-      <cdr:y>0.6916</cdr:y>
+      <cdr:y>0.70961</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.44248</cdr:x>
@@ -6360,8 +6443,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2223247" y="3357282"/>
-          <a:ext cx="914400" cy="900954"/>
+          <a:off x="2219871" y="3439583"/>
+          <a:ext cx="912998" cy="812303"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6376,7 +6459,7 @@
             <a:rPr lang="it-IT" sz="1800">
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>direct service </a:t>
+            <a:t>service-to-service </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="it-IT" sz="1800">
@@ -6678,7 +6761,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9763125" cy="4569732"/>
+    <xdr:ext cx="10328672" cy="4566047"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6711,7 +6794,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9758632" cy="4564811"/>
+    <xdr:ext cx="10333726" cy="4564811"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6744,7 +6827,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9757019" cy="4561010"/>
+    <xdr:ext cx="10328672" cy="4566047"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6777,7 +6860,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10338371" cy="4591264"/>
+    <xdr:ext cx="10334949" cy="4568112"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -7103,10 +7186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7317,232 +7400,265 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B42" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C42" s="44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7553,10 +7669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AT33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL38" sqref="AL38"/>
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,13 +7680,12 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="41" width="3.5703125" customWidth="1"/>
-    <col min="42" max="42" width="4.5703125" customWidth="1"/>
-    <col min="44" max="44" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="42" width="3.5703125" customWidth="1"/>
+    <col min="43" max="43" width="4.5703125" customWidth="1"/>
+    <col min="45" max="46" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7653,46 +7768,49 @@
         <v>169</v>
       </c>
       <c r="AD1" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AM1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="34" t="s">
+      <c r="AN1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" s="34" t="s">
+      <c r="AO1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AP1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="32" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -7728,7 +7846,7 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="19"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="19"/>
+      <c r="AD2" s="35"/>
       <c r="AE2" s="19"/>
       <c r="AF2" s="19"/>
       <c r="AG2" s="19"/>
@@ -7740,12 +7858,13 @@
       <c r="AM2" s="19"/>
       <c r="AN2" s="19"/>
       <c r="AO2" s="19"/>
-      <c r="AP2" s="20">
-        <f>COUNTIF(D2:AO2,"x")</f>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="20">
+        <f>COUNTIF(D2:AP2,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7791,12 +7910,13 @@
       <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
-      <c r="AP3" s="22">
-        <f>COUNTIF(D3:AO3,"x")</f>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="22">
+        <f>COUNTIF(D3:AP3,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -7869,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:AI4" si="1">COUNTIF(U2:U3,"x")</f>
+        <f t="shared" ref="U4:AJ4" si="1">COUNTIF(U2:U3,"x")</f>
         <v>0</v>
       </c>
       <c r="V4" s="9">
@@ -7885,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4:AC4" si="2">COUNTIF(Y2:Y3,"x")</f>
+        <f t="shared" ref="Y4:AD4" si="2">COUNTIF(Y2:Y3,"x")</f>
         <v>0</v>
       </c>
       <c r="Z4" s="9">
@@ -7905,23 +8025,23 @@
         <v>0</v>
       </c>
       <c r="AD4" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="9">
-        <f t="shared" ref="AE4" si="3">COUNTIF(AE2:AE3,"x")</f>
-        <v>0</v>
-      </c>
       <c r="AF4" s="9">
-        <f t="shared" ref="AF4" si="4">COUNTIF(AF2:AF3,"x")</f>
+        <f t="shared" ref="AF4" si="3">COUNTIF(AF2:AF3,"x")</f>
         <v>0</v>
       </c>
       <c r="AG4" s="9">
-        <f t="shared" ref="AG4" si="5">COUNTIF(AG2:AG3,"x")</f>
+        <f t="shared" ref="AG4" si="4">COUNTIF(AG2:AG3,"x")</f>
         <v>0</v>
       </c>
       <c r="AH4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AH4" si="5">COUNTIF(AH2:AH3,"x")</f>
         <v>0</v>
       </c>
       <c r="AI4" s="9">
@@ -7929,11 +8049,11 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="9">
-        <f t="shared" ref="AJ4:AO4" si="6">COUNTIF(AJ2:AJ3,"x")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK4" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AK4:AP4" si="6">COUNTIF(AK2:AK3,"x")</f>
         <v>0</v>
       </c>
       <c r="AL4" s="9">
@@ -7952,18 +8072,22 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP4" s="23">
-        <f>$AS$4-COUNTIF(D4:AO4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="33" t="s">
+      <c r="AP4" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="23">
+        <f>$AT$4-COUNTIF(D4:AP4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AS4" s="33">
-        <v>38</v>
+      <c r="AT4" s="33">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -8023,28 +8147,31 @@
       <c r="AC5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AD5" s="5"/>
+      <c r="AD5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
-      <c r="AO5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="22">
-        <f>COUNTIF(D5:AO5,"x")</f>
-        <v>15</v>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="22">
+        <f>COUNTIF(D5:AP5,"x")</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
@@ -8093,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:AJ6" si="8">COUNTIF(O5:O5,"x")</f>
+        <f t="shared" ref="O6:AK6" si="8">COUNTIF(O5:O5,"x")</f>
         <v>0</v>
       </c>
       <c r="P6" s="9">
@@ -8149,12 +8276,12 @@
         <v>0</v>
       </c>
       <c r="AC6" s="9">
-        <f t="shared" ref="AC6" si="10">COUNTIF(AC5:AC5,"x")</f>
+        <f t="shared" ref="AC6:AD6" si="10">COUNTIF(AC5:AC5,"x")</f>
         <v>1</v>
       </c>
       <c r="AD6" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="8"/>
@@ -8181,12 +8308,12 @@
         <v>0</v>
       </c>
       <c r="AK6" s="9">
-        <f>COUNTIF(AK5:AK5,"x")</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AL6" s="9">
         <f>COUNTIF(AL5:AL5,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="9">
         <f>COUNTIF(AM5:AM5,"x")</f>
@@ -8198,19 +8325,23 @@
       </c>
       <c r="AO6" s="9">
         <f>COUNTIF(AO5:AO5,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AP6" s="23">
-        <f>$AS$4-COUNTIF(D6:AO6,0)</f>
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="9">
+        <f>COUNTIF(AP5:AP5,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="23">
+        <f>$AT$4-COUNTIF(D6:AP6,0)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <f t="shared" ref="D7:AO7" si="11">D4+D6</f>
+        <f t="shared" ref="D7:AP7" si="11">D4+D6</f>
         <v>1</v>
       </c>
       <c r="E7" s="13">
@@ -8310,44 +8441,44 @@
         <v>0</v>
       </c>
       <c r="AC7" s="13">
-        <f t="shared" ref="AC7" si="16">AC4+AC6</f>
+        <f t="shared" ref="AC7:AD7" si="16">AC4+AC6</f>
         <v>1</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" ref="AD7" si="17">AD4+AD6</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="AE7" s="13">
-        <f t="shared" ref="AE7" si="18">AE4+AE6</f>
+        <f t="shared" ref="AE7" si="17">AE4+AE6</f>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" ref="AF7" si="19">AF4+AF6</f>
+        <f t="shared" ref="AF7" si="18">AF4+AF6</f>
         <v>0</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" ref="AG7" si="20">AG4+AG6</f>
+        <f t="shared" ref="AG7" si="19">AG4+AG6</f>
         <v>0</v>
       </c>
       <c r="AH7" s="13">
-        <f t="shared" ref="AH7" si="21">AH4+AH6</f>
+        <f t="shared" ref="AH7" si="20">AH4+AH6</f>
         <v>0</v>
       </c>
       <c r="AI7" s="13">
-        <f t="shared" ref="AI7" si="22">AI4+AI6</f>
+        <f t="shared" ref="AI7" si="21">AI4+AI6</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="13">
-        <f t="shared" ref="AJ7" si="23">AJ4+AJ6</f>
+        <f t="shared" ref="AJ7" si="22">AJ4+AJ6</f>
         <v>0</v>
       </c>
       <c r="AK7" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" ref="AK7" si="23">AK4+AK6</f>
+        <v>0</v>
       </c>
       <c r="AL7" s="13">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="13">
         <f t="shared" si="11"/>
@@ -8359,14 +8490,18 @@
       </c>
       <c r="AO7" s="13">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AP7" s="25">
-        <f>$AS$4-COUNTIF(D7:AO7,0)</f>
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="25">
+        <f>$AT$4-COUNTIF(D7:AP7,0)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -8408,10 +8543,10 @@
       <c r="AC8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
@@ -8422,12 +8557,13 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="27">
-        <f>COUNTIF(D8:AO8,"x")</f>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="27">
+        <f>COUNTIF(D8:AP8,"x")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -8475,13 +8611,13 @@
         <v>1</v>
       </c>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD9" s="5"/>
       <c r="AE9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF9" s="5"/>
+      <c r="AF9" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
@@ -8491,12 +8627,13 @@
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
-      <c r="AP9" s="22">
-        <f>COUNTIF(D9:AO9,"x")</f>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="22">
+        <f>COUNTIF(D9:AP9,"x")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
@@ -8552,37 +8689,38 @@
       <c r="AC10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AD10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="5"/>
-      <c r="AK10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AO10" s="5"/>
-      <c r="AP10" s="22">
-        <f>COUNTIF(D10:AO10,"x")</f>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="22">
+        <f>COUNTIF(D10:AP10,"x")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9">
-        <f t="shared" ref="D11:AO11" si="24">COUNTIF(D8:D10,"x")</f>
+        <f t="shared" ref="D11:AP11" si="24">COUNTIF(D8:D10,"x")</f>
         <v>0</v>
       </c>
       <c r="E11" s="9">
@@ -8670,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" ref="Z11:AC11" si="25">COUNTIF(Z8:Z10,"x")</f>
+        <f t="shared" ref="Z11:AD11" si="25">COUNTIF(Z8:Z10,"x")</f>
         <v>1</v>
       </c>
       <c r="AA11" s="9">
@@ -8686,16 +8824,16 @@
         <v>2</v>
       </c>
       <c r="AD11" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="AE11" s="9">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
       <c r="AF11" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="9">
         <f t="shared" si="24"/>
@@ -8703,11 +8841,11 @@
       </c>
       <c r="AH11" s="9">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="9">
         <f t="shared" si="24"/>
@@ -8715,30 +8853,34 @@
       </c>
       <c r="AK11" s="9">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="9">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AP11" s="23">
-        <f>$AS$4-COUNTIF(D11:AO11,0)</f>
+      <c r="AP11" s="9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="23">
+        <f>$AT$4-COUNTIF(D11:AP11,0)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -8795,31 +8937,34 @@
       <c r="AD12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="5"/>
       <c r="AG12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AH12" s="5"/>
+      <c r="AH12" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-      <c r="AL12" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AL12" s="5"/>
       <c r="AM12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AN12" s="5"/>
+      <c r="AN12" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AO12" s="5"/>
-      <c r="AP12" s="22">
-        <f>COUNTIF(D12:AO12,"x")</f>
-        <v>15</v>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="22">
+        <f>COUNTIF(D12:AP12,"x")</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
@@ -8888,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" ref="T13:AI13" si="27">COUNTIF(T12:T12,"x")</f>
+        <f t="shared" ref="T13:AJ13" si="27">COUNTIF(T12:T12,"x")</f>
         <v>0</v>
       </c>
       <c r="U13" s="9">
@@ -8924,20 +9069,20 @@
         <v>1</v>
       </c>
       <c r="AC13" s="9">
-        <f t="shared" ref="AC13" si="30">COUNTIF(AC12:AC12,"x")</f>
+        <f t="shared" ref="AC13:AD13" si="30">COUNTIF(AC12:AC12,"x")</f>
         <v>1</v>
       </c>
       <c r="AD13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="9">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="9">
         <f t="shared" si="27"/>
@@ -8945,23 +9090,23 @@
       </c>
       <c r="AH13" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="9">
-        <f t="shared" ref="AJ13:AO13" si="31">COUNTIF(AJ12:AJ12,"x")</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AK13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AK13:AP13" si="31">COUNTIF(AK12:AK12,"x")</f>
         <v>0</v>
       </c>
       <c r="AL13" s="9">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="9">
         <f t="shared" si="31"/>
@@ -8969,23 +9114,27 @@
       </c>
       <c r="AN13" s="9">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="23">
-        <f>$AS$4-COUNTIF(D13:AO13,0)</f>
-        <v>15</v>
+      <c r="AP13" s="9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="23">
+        <f>$AT$4-COUNTIF(D13:AP13,0)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="13">
-        <f t="shared" ref="D14:AO14" si="32">D11+D13</f>
+        <f t="shared" ref="D14:AP14" si="32">D11+D13</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
@@ -9085,40 +9234,40 @@
         <v>4</v>
       </c>
       <c r="AC14" s="13">
-        <f t="shared" ref="AC14" si="39">AC11+AC13</f>
+        <f t="shared" ref="AC14:AD14" si="39">AC11+AC13</f>
         <v>3</v>
       </c>
       <c r="AD14" s="13">
-        <f t="shared" ref="AD14" si="40">AD11+AD13</f>
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="13">
+        <f t="shared" ref="AE14" si="40">AE11+AE13</f>
         <v>4</v>
       </c>
-      <c r="AE14" s="13">
-        <f t="shared" ref="AE14" si="41">AE11+AE13</f>
-        <v>1</v>
-      </c>
       <c r="AF14" s="13">
-        <f t="shared" ref="AF14" si="42">AF11+AF13</f>
+        <f t="shared" ref="AF14" si="41">AF11+AF13</f>
         <v>1</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" ref="AG14" si="43">AG11+AG13</f>
+        <f t="shared" ref="AG14" si="42">AG11+AG13</f>
         <v>1</v>
       </c>
       <c r="AH14" s="13">
-        <f t="shared" ref="AH14" si="44">AH11+AH13</f>
+        <f t="shared" ref="AH14" si="43">AH11+AH13</f>
         <v>1</v>
       </c>
       <c r="AI14" s="13">
-        <f t="shared" ref="AI14" si="45">AI11+AI13</f>
-        <v>0</v>
+        <f t="shared" ref="AI14" si="44">AI11+AI13</f>
+        <v>1</v>
       </c>
       <c r="AJ14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AJ14" si="45">AJ11+AJ13</f>
         <v>0</v>
       </c>
       <c r="AK14" s="13">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="13">
         <f t="shared" si="32"/>
@@ -9126,22 +9275,26 @@
       </c>
       <c r="AM14" s="13">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="13">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="13">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="25">
-        <f>$AS$4-COUNTIF(D14:AO14,0)</f>
-        <v>22</v>
+      <c r="AP14" s="13">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="25">
+        <f>$AT$4-COUNTIF(D14:AP14,0)</f>
+        <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
@@ -9193,30 +9346,33 @@
       <c r="AC15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="3"/>
+      <c r="AD15" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="AJ15" s="3"/>
       <c r="AK15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL15" s="3"/>
+      <c r="AL15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="27">
-        <f>COUNTIF(D15:AO15,"x")</f>
-        <v>11</v>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="27">
+        <f>COUNTIF(D15:AP15,"x")</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
@@ -9260,7 +9416,9 @@
       <c r="AC16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AD16" s="35"/>
+      <c r="AD16" s="35" t="s">
+        <v>1</v>
+      </c>
       <c r="AE16" s="35"/>
       <c r="AF16" s="35"/>
       <c r="AG16" s="35"/>
@@ -9272,12 +9430,13 @@
       <c r="AM16" s="35"/>
       <c r="AN16" s="35"/>
       <c r="AO16" s="35"/>
-      <c r="AP16" s="22">
-        <f>COUNTIF(D16:AO16,"x")</f>
-        <v>5</v>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="22">
+        <f>COUNTIF(D16:AP16,"x")</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -9337,32 +9496,35 @@
       <c r="AC17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="5"/>
       <c r="AF17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="5"/>
+      <c r="AG17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-      <c r="AL17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
-      <c r="AP17" s="22">
-        <f>COUNTIF(D17:AO17,"x")</f>
-        <v>18</v>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="22">
+        <f>COUNTIF(D17:AP17,"x")</f>
+        <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
@@ -9431,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" ref="T18:AI18" si="47">COUNTIF(T15:T17,"x")</f>
+        <f t="shared" ref="T18:AJ18" si="47">COUNTIF(T15:T17,"x")</f>
         <v>0</v>
       </c>
       <c r="U18" s="9">
@@ -9451,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" ref="Y18:AC18" si="48">COUNTIF(Y15:Y17,"x")</f>
+        <f t="shared" ref="Y18:AD18" si="48">COUNTIF(Y15:Y17,"x")</f>
         <v>2</v>
       </c>
       <c r="Z18" s="9">
@@ -9471,35 +9633,35 @@
         <v>3</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>3</v>
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="9">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG18" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="9">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="9">
-        <f t="shared" ref="AJ18:AO18" si="49">COUNTIF(AJ15:AJ17,"x")</f>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AK18" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="AK18:AP18" si="49">COUNTIF(AK15:AK17,"x")</f>
         <v>1</v>
       </c>
       <c r="AL18" s="9">
@@ -9508,7 +9670,7 @@
       </c>
       <c r="AM18" s="9">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="9">
         <f t="shared" si="49"/>
@@ -9518,12 +9680,16 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="23">
-        <f>$AS$4-COUNTIF(D18:AO18,0)</f>
-        <v>20</v>
+      <c r="AP18" s="9">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="23">
+        <f>$AT$4-COUNTIF(D18:AP18,0)</f>
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -9571,34 +9737,37 @@
       <c r="AC19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="5"/>
+      <c r="AD19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="5"/>
       <c r="AK19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="5"/>
+      <c r="AL19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AO19" s="5"/>
-      <c r="AP19" s="22">
-        <f>COUNTIF(D19:AO19,"x")</f>
-        <v>12</v>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="22">
+        <f>COUNTIF(D19:AP19,"x")</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
@@ -9642,22 +9811,23 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AJ20" s="5"/>
       <c r="AK20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AL20" s="5"/>
+      <c r="AL20" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
-      <c r="AP20" s="22">
-        <f>COUNTIF(D20:AO20,"x")</f>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="22">
+        <f>COUNTIF(D20:AP20,"x")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
@@ -9703,34 +9873,37 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="5"/>
+      <c r="AD21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="5"/>
       <c r="AK21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="5"/>
+      <c r="AL21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AO21" s="5"/>
-      <c r="AP21" s="22">
-        <f>COUNTIF(D21:AO21,"x")</f>
-        <v>12</v>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="22">
+        <f>COUNTIF(D21:AP21,"x")</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
@@ -9799,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" ref="T22:AI22" si="51">COUNTIF(T19:T21,"x")</f>
+        <f t="shared" ref="T22:AJ22" si="51">COUNTIF(T19:T21,"x")</f>
         <v>2</v>
       </c>
       <c r="U22" s="9">
@@ -9835,20 +10008,20 @@
         <v>0</v>
       </c>
       <c r="AC22" s="9">
-        <f t="shared" ref="AC22" si="54">COUNTIF(AC19:AC21,"x")</f>
+        <f t="shared" ref="AC22:AD22" si="54">COUNTIF(AC19:AC21,"x")</f>
         <v>1</v>
       </c>
       <c r="AD22" s="9">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>2</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="51"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="9">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22" s="9">
         <f t="shared" si="51"/>
@@ -9856,42 +10029,46 @@
       </c>
       <c r="AH22" s="9">
         <f t="shared" si="51"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="9">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ22" s="9">
-        <f t="shared" ref="AJ22:AO22" si="55">COUNTIF(AJ19:AJ21,"x")</f>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="9">
+        <f t="shared" ref="AK22:AP22" si="55">COUNTIF(AK19:AK21,"x")</f>
         <v>3</v>
       </c>
-      <c r="AK22" s="9">
+      <c r="AL22" s="9">
         <f t="shared" si="55"/>
         <v>3</v>
       </c>
-      <c r="AL22" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
       <c r="AM22" s="9">
         <f t="shared" si="55"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="9">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AP22" s="23">
-        <f>$AS$4-COUNTIF(D22:AO22,0)</f>
-        <v>15</v>
+      <c r="AP22" s="9">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="23">
+        <f>$AT$4-COUNTIF(D22:AP22,0)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -9960,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="13">
-        <f t="shared" ref="T23:AI23" si="57">T18+T22</f>
+        <f t="shared" ref="T23:AJ23" si="57">T18+T22</f>
         <v>2</v>
       </c>
       <c r="U23" s="13">
@@ -9996,63 +10173,67 @@
         <v>3</v>
       </c>
       <c r="AC23" s="13">
-        <f t="shared" ref="AC23" si="60">AC18+AC22</f>
+        <f t="shared" ref="AC23:AD23" si="60">AC18+AC22</f>
         <v>4</v>
       </c>
       <c r="AD23" s="13">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>5</v>
       </c>
       <c r="AE23" s="13">
         <f t="shared" si="57"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="13">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG23" s="13">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="13">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="13">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ23" s="13">
-        <f t="shared" ref="AJ23:AO23" si="61">AJ18+AJ22</f>
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="13">
+        <f t="shared" ref="AK23:AP23" si="61">AK18+AK22</f>
         <v>4</v>
       </c>
-      <c r="AK23" s="13">
+      <c r="AL23" s="13">
         <f t="shared" si="61"/>
         <v>4</v>
       </c>
-      <c r="AL23" s="13">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
       <c r="AM23" s="13">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="13">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO23" s="13">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="AP23" s="25">
-        <f>$AS$4-COUNTIF(D23:AO23,0)</f>
-        <v>25</v>
+      <c r="AP23" s="13">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="25">
+        <f>$AT$4-COUNTIF(D23:AP23,0)</f>
+        <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>23</v>
       </c>
@@ -10096,28 +10277,29 @@
         <v>1</v>
       </c>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="3"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
-      <c r="AK24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="27">
-        <f>COUNTIF(D24:AO24,"x")</f>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="27">
+        <f>COUNTIF(D24:AP24,"x")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
@@ -10186,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" ref="T25:AI25" si="63">COUNTIF(T24:T24,"x")</f>
+        <f t="shared" ref="T25:AJ25" si="63">COUNTIF(T24:T24,"x")</f>
         <v>0</v>
       </c>
       <c r="U25" s="9">
@@ -10206,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" ref="Y25:AC25" si="64">COUNTIF(Y24:Y24,"x")</f>
+        <f t="shared" ref="Y25:AD25" si="64">COUNTIF(Y24:Y24,"x")</f>
         <v>1</v>
       </c>
       <c r="Z25" s="9">
@@ -10226,16 +10408,16 @@
         <v>0</v>
       </c>
       <c r="AD25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="9">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="9">
         <f t="shared" si="63"/>
@@ -10250,16 +10432,16 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="9">
-        <f t="shared" ref="AJ25:AO25" si="65">COUNTIF(AJ24:AJ24,"x")</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AK25" s="9">
-        <f t="shared" si="65"/>
-        <v>1</v>
+        <f t="shared" ref="AK25:AP25" si="65">COUNTIF(AK24:AK24,"x")</f>
+        <v>0</v>
       </c>
       <c r="AL25" s="9">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="9">
         <f t="shared" si="65"/>
@@ -10273,12 +10455,16 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="AP25" s="23">
-        <f>$AS$4-COUNTIF(D25:AO25,0)</f>
+      <c r="AP25" s="9">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="23">
+        <f>$AT$4-COUNTIF(D25:AP25,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="10" t="s">
         <v>25</v>
@@ -10331,31 +10517,34 @@
       <c r="AD26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="5"/>
+      <c r="AE26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AM26" s="5"/>
       <c r="AN26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="22">
-        <f>COUNTIF(D26:AO26,"x")</f>
-        <v>13</v>
+      <c r="AO26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="22">
+        <f>COUNTIF(D26:AP26,"x")</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
@@ -10405,12 +10594,13 @@
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
-      <c r="AP27" s="22">
-        <f>COUNTIF(D27:AO27,"x")</f>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="22">
+        <f>COUNTIF(D27:AP27,"x")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
@@ -10467,31 +10657,34 @@
       <c r="AD28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="5"/>
+      <c r="AE28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
-      <c r="AK28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="5"/>
       <c r="AN28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="22">
-        <f>COUNTIF(D28:AO28,"x")</f>
-        <v>16</v>
+      <c r="AO28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="22">
+        <f>COUNTIF(D28:AP28,"x")</f>
+        <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="7"/>
       <c r="C29" s="36"/>
@@ -10560,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29:AI29" si="67">COUNTIF(T26:T28,"x")</f>
+        <f t="shared" ref="T29:AJ29" si="67">COUNTIF(T26:T28,"x")</f>
         <v>3</v>
       </c>
       <c r="U29" s="15">
@@ -10580,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29:AC29" si="68">COUNTIF(Y26:Y28,"x")</f>
+        <f t="shared" ref="Y29:AD29" si="68">COUNTIF(Y26:Y28,"x")</f>
         <v>2</v>
       </c>
       <c r="Z29" s="15">
@@ -10600,44 +10793,44 @@
         <v>0</v>
       </c>
       <c r="AD29" s="15">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="AE29" s="15">
         <f t="shared" si="67"/>
         <v>2</v>
       </c>
-      <c r="AE29" s="15">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
       <c r="AF29" s="15">
         <f t="shared" si="67"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="15">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29" s="15">
         <f t="shared" si="67"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="15">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" ref="AJ29:AO29" si="69">COUNTIF(AJ26:AJ28,"x")</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="69"/>
-        <v>1</v>
+        <f t="shared" ref="AK29:AP29" si="69">COUNTIF(AK26:AK28,"x")</f>
+        <v>0</v>
       </c>
       <c r="AL29" s="15">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="15">
         <f t="shared" si="69"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="15">
         <f t="shared" si="69"/>
@@ -10645,14 +10838,18 @@
       </c>
       <c r="AO29" s="15">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AP29" s="37">
-        <f>$AS$4-COUNTIF(D29:AO29,0)</f>
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="AP29" s="15">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="37">
+        <f>$AT$4-COUNTIF(D29:AP29,0)</f>
+        <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="10" t="s">
         <v>29</v>
@@ -10699,29 +10896,30 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
-      <c r="AI30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
-      <c r="AN30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="22">
-        <f>COUNTIF(D30:AO30,"x")</f>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="22">
+        <f>COUNTIF(D30:AP30,"x")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="11"/>
       <c r="C31" s="8"/>
@@ -10790,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31:AI31" si="71">COUNTIF(T30:T30,"x")</f>
+        <f t="shared" ref="T31:AJ31" si="71">COUNTIF(T30:T30,"x")</f>
         <v>1</v>
       </c>
       <c r="U31" s="9">
@@ -10826,20 +11024,20 @@
         <v>0</v>
       </c>
       <c r="AC31" s="9">
-        <f t="shared" ref="AC31" si="74">COUNTIF(AC30:AC30,"x")</f>
+        <f t="shared" ref="AC31:AD31" si="74">COUNTIF(AC30:AC30,"x")</f>
         <v>0</v>
       </c>
       <c r="AD31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="71"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="9">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="9">
         <f t="shared" si="71"/>
@@ -10851,14 +11049,14 @@
       </c>
       <c r="AI31" s="9">
         <f t="shared" si="71"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="9">
-        <f t="shared" ref="AJ31:AO31" si="75">COUNTIF(AJ30:AJ30,"x")</f>
-        <v>0</v>
+        <f t="shared" si="71"/>
+        <v>1</v>
       </c>
       <c r="AK31" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="AK31:AP31" si="75">COUNTIF(AK30:AK30,"x")</f>
         <v>0</v>
       </c>
       <c r="AL31" s="9">
@@ -10871,23 +11069,27 @@
       </c>
       <c r="AN31" s="9">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="9">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AP31" s="23">
-        <f>$AS$4-COUNTIF(D31:AO31,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP31" s="9">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="23">
+        <f>$AT$4-COUNTIF(D31:AP31,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30">
-        <f t="shared" ref="D32:AO32" si="76">D25+D29+D31</f>
+        <f t="shared" ref="D32:AP32" si="76">D25+D29+D31</f>
         <v>1</v>
       </c>
       <c r="E32" s="30">
@@ -10987,60 +11189,64 @@
         <v>1</v>
       </c>
       <c r="AC32" s="30">
-        <f t="shared" ref="AC32" si="83">AC25+AC29+AC31</f>
+        <f t="shared" ref="AC32:AD32" si="83">AC25+AC29+AC31</f>
         <v>0</v>
       </c>
       <c r="AD32" s="30">
-        <f t="shared" ref="AD32" si="84">AD25+AD29+AD31</f>
+        <f t="shared" si="83"/>
         <v>2</v>
       </c>
       <c r="AE32" s="30">
-        <f t="shared" ref="AE32" si="85">AE25+AE29+AE31</f>
+        <f t="shared" ref="AE32" si="84">AE25+AE29+AE31</f>
         <v>2</v>
       </c>
       <c r="AF32" s="30">
-        <f t="shared" ref="AF32" si="86">AF25+AF29+AF31</f>
+        <f t="shared" ref="AF32" si="85">AF25+AF29+AF31</f>
         <v>2</v>
       </c>
       <c r="AG32" s="30">
-        <f t="shared" ref="AG32" si="87">AG25+AG29+AG31</f>
-        <v>0</v>
+        <f t="shared" ref="AG32" si="86">AG25+AG29+AG31</f>
+        <v>2</v>
       </c>
       <c r="AH32" s="30">
-        <f t="shared" ref="AH32" si="88">AH25+AH29+AH31</f>
-        <v>1</v>
+        <f t="shared" ref="AH32" si="87">AH25+AH29+AH31</f>
+        <v>0</v>
       </c>
       <c r="AI32" s="30">
-        <f t="shared" ref="AI32" si="89">AI25+AI29+AI31</f>
+        <f t="shared" ref="AI32" si="88">AI25+AI29+AI31</f>
         <v>1</v>
       </c>
       <c r="AJ32" s="30">
-        <f t="shared" si="76"/>
-        <v>0</v>
+        <f t="shared" ref="AJ32" si="89">AJ25+AJ29+AJ31</f>
+        <v>1</v>
       </c>
       <c r="AK32" s="30">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="30">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM32" s="30">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="30">
         <f t="shared" si="76"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO32" s="30">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AP32" s="31">
-        <f>$AS$4-COUNTIF(D32:AO32,0)</f>
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="AP32" s="30">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="31">
+        <f>$AT$4-COUNTIF(D32:AP32,0)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11127,22 +11333,22 @@
         <v>4</v>
       </c>
       <c r="F3" s="48">
-        <f>Coverage!AP4</f>
+        <f>Coverage!AQ4</f>
         <v>0</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>152</v>
       </c>
       <c r="I3" s="48">
-        <f>Coverage!AP8</f>
+        <f>Coverage!AQ8</f>
         <v>4</v>
       </c>
       <c r="K3" s="48" t="s">
         <v>157</v>
       </c>
       <c r="L3" s="48">
-        <f>Coverage!AP26</f>
-        <v>13</v>
+        <f>Coverage!AQ26</f>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -11159,21 +11365,21 @@
         <v>2</v>
       </c>
       <c r="F4" s="48">
-        <f>Coverage!AP6</f>
-        <v>15</v>
+        <f>Coverage!AQ6</f>
+        <v>16</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>153</v>
       </c>
       <c r="I4" s="48">
-        <f>Coverage!AP9</f>
+        <f>Coverage!AQ9</f>
         <v>9</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>158</v>
       </c>
       <c r="L4" s="48">
-        <f>Coverage!AP27</f>
+        <f>Coverage!AQ27</f>
         <v>3</v>
       </c>
     </row>
@@ -11191,22 +11397,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="48">
-        <f>Coverage!AP11</f>
+        <f>Coverage!AQ11</f>
         <v>18</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>154</v>
       </c>
       <c r="I5" s="48">
-        <f>Coverage!AP10</f>
+        <f>Coverage!AQ10</f>
         <v>16</v>
       </c>
       <c r="K5" s="48" t="s">
         <v>159</v>
       </c>
       <c r="L5" s="48">
-        <f>Coverage!AP28</f>
-        <v>16</v>
+        <f>Coverage!AQ28</f>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -11223,8 +11429,8 @@
         <v>4</v>
       </c>
       <c r="F6" s="48">
-        <f>Coverage!AP13</f>
-        <v>15</v>
+        <f>Coverage!AQ13</f>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -11241,8 +11447,8 @@
         <v>2</v>
       </c>
       <c r="F7" s="48">
-        <f>Coverage!AP18</f>
-        <v>20</v>
+        <f>Coverage!AQ18</f>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -11259,8 +11465,8 @@
         <v>4</v>
       </c>
       <c r="F8" s="48">
-        <f>Coverage!AP22</f>
-        <v>15</v>
+        <f>Coverage!AQ22</f>
+        <v>16</v>
       </c>
       <c r="H8" s="49" t="s">
         <v>149</v>
@@ -11285,7 +11491,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="48">
-        <f>Coverage!AP25</f>
+        <f>Coverage!AQ25</f>
         <v>6</v>
       </c>
       <c r="H9" s="47" t="s">
@@ -11315,22 +11521,22 @@
         <v>4</v>
       </c>
       <c r="F10" s="48">
-        <f>Coverage!AP29</f>
-        <v>18</v>
+        <f>Coverage!AQ29</f>
+        <v>19</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>155</v>
       </c>
       <c r="I10" s="48">
-        <f>Coverage!AP15</f>
-        <v>11</v>
+        <f>Coverage!AQ15</f>
+        <v>12</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>163</v>
       </c>
       <c r="L10" s="48">
-        <f>Coverage!$AP$19</f>
-        <v>12</v>
+        <f>Coverage!$AQ$19</f>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -11347,21 +11553,21 @@
         <v>6</v>
       </c>
       <c r="F11" s="48">
-        <f>Coverage!AP31</f>
+        <f>Coverage!AQ31</f>
         <v>9</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>152</v>
       </c>
       <c r="I11" s="48">
-        <f>Coverage!AP16</f>
-        <v>5</v>
+        <f>Coverage!AQ16</f>
+        <v>6</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>152</v>
       </c>
       <c r="L11" s="48">
-        <f>Coverage!$AP$20</f>
+        <f>Coverage!$AQ$20</f>
         <v>5</v>
       </c>
     </row>
@@ -11370,15 +11576,15 @@
         <v>156</v>
       </c>
       <c r="I12" s="48">
-        <f>Coverage!AP17</f>
-        <v>18</v>
+        <f>Coverage!AQ17</f>
+        <v>19</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>156</v>
       </c>
       <c r="L12" s="48">
-        <f>Coverage!$AP$21</f>
-        <v>12</v>
+        <f>Coverage!$AQ$21</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sota-coverage.xlsx
+++ b/sota-coverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\Dropbox\UNIPI\Research\paper\2019\microservices-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE18FBE-8DA2-4633-982B-FE700623F942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88344506-FBC2-4DF8-8B88-CB901F96C93A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOTA" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="189">
   <si>
     <t>Tot.</t>
   </si>
@@ -590,6 +590,21 @@
   </si>
   <si>
     <t>Carnell</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>3 common pitfalls of microservices integration—and how to avoid them</t>
+  </si>
+  <si>
+    <t>5 fundamentals to a successful microservice design</t>
+  </si>
+  <si>
+    <t>Ruecker</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1400,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
@@ -1696,8 +1711,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2048219084095714E-2"/>
-                  <c:y val="-5.3140204193284579E-2"/>
+                  <c:x val="8.4376771766890134E-5"/>
+                  <c:y val="-4.7591904067167137E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2336,13 +2351,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2838,13 +2853,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6006,7 +6021,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -6018,7 +6033,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -6030,7 +6045,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="133" orientation="landscape" r:id="rId1"/>
@@ -6054,7 +6069,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="7080250" cy="4847167"/>
+    <xdr:ext cx="7086600" cy="4851400"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6761,7 +6776,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10328672" cy="4566047"/>
+    <xdr:ext cx="10325100" cy="4572000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6794,7 +6809,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10333726" cy="4564811"/>
+    <xdr:ext cx="10325100" cy="4559300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -6827,7 +6842,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10328672" cy="4566047"/>
+    <xdr:ext cx="10325100" cy="4559300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -7186,21 +7201,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="4.41796875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.83984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
         <v>66</v>
       </c>
@@ -7211,7 +7226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="42" t="s">
         <v>33</v>
       </c>
@@ -7222,7 +7237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
@@ -7233,7 +7248,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="42" t="s">
         <v>35</v>
       </c>
@@ -7244,7 +7259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="42" t="s">
         <v>36</v>
       </c>
@@ -7255,7 +7270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
@@ -7266,7 +7281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="42" t="s">
         <v>38</v>
       </c>
@@ -7277,7 +7292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="42" t="s">
         <v>39</v>
       </c>
@@ -7288,7 +7303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="42" t="s">
         <v>40</v>
       </c>
@@ -7299,7 +7314,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="42" t="s">
         <v>41</v>
       </c>
@@ -7310,7 +7325,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="42" t="s">
         <v>42</v>
       </c>
@@ -7321,7 +7336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="42" t="s">
         <v>43</v>
       </c>
@@ -7332,7 +7347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="42" t="s">
         <v>44</v>
       </c>
@@ -7343,7 +7358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="42" t="s">
         <v>45</v>
       </c>
@@ -7354,7 +7369,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="42" t="s">
         <v>46</v>
       </c>
@@ -7365,7 +7380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -7376,7 +7391,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="42" t="s">
         <v>48</v>
       </c>
@@ -7387,7 +7402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="42" t="s">
         <v>49</v>
       </c>
@@ -7398,7 +7413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="42" t="s">
         <v>175</v>
       </c>
@@ -7409,7 +7424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="42" t="s">
         <v>178</v>
       </c>
@@ -7420,7 +7435,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="42" t="s">
         <v>32</v>
       </c>
@@ -7431,7 +7446,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="42" t="s">
         <v>50</v>
       </c>
@@ -7442,7 +7457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="42" t="s">
         <v>51</v>
       </c>
@@ -7453,7 +7468,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="42" t="s">
         <v>52</v>
       </c>
@@ -7464,7 +7479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
@@ -7475,7 +7490,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="42" t="s">
         <v>160</v>
       </c>
@@ -7486,7 +7501,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="42" t="s">
         <v>165</v>
       </c>
@@ -7497,7 +7512,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="42" t="s">
         <v>167</v>
       </c>
@@ -7508,7 +7523,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="42" t="s">
         <v>169</v>
       </c>
@@ -7519,7 +7534,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="42" t="s">
         <v>181</v>
       </c>
@@ -7530,7 +7545,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="42" t="s">
         <v>54</v>
       </c>
@@ -7541,7 +7556,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="42" t="s">
         <v>55</v>
       </c>
@@ -7552,7 +7567,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="42" t="s">
         <v>56</v>
       </c>
@@ -7563,7 +7578,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="42" t="s">
         <v>57</v>
       </c>
@@ -7574,7 +7589,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="42" t="s">
         <v>58</v>
       </c>
@@ -7585,7 +7600,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="42" t="s">
         <v>59</v>
       </c>
@@ -7596,7 +7611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="42" t="s">
         <v>60</v>
       </c>
@@ -7607,7 +7622,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="42" t="s">
         <v>61</v>
       </c>
@@ -7618,7 +7633,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="42" t="s">
         <v>62</v>
       </c>
@@ -7629,7 +7644,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="42" t="s">
         <v>63</v>
       </c>
@@ -7640,7 +7655,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="42" t="s">
         <v>64</v>
       </c>
@@ -7651,7 +7666,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="42" t="s">
         <v>65</v>
       </c>
@@ -7660,6 +7675,28 @@
       </c>
       <c r="C42" s="44" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A43" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A44" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7669,23 +7706,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AT33"/>
+  <dimension ref="A1:AV33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="42" width="3.5703125" customWidth="1"/>
-    <col min="43" max="43" width="4.5703125" customWidth="1"/>
-    <col min="45" max="46" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26171875" customWidth="1"/>
+    <col min="4" max="44" width="3.578125" customWidth="1"/>
+    <col min="45" max="45" width="4.578125" customWidth="1"/>
+    <col min="47" max="48" width="3.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7806,11 +7843,17 @@
       <c r="AP1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" s="32" t="s">
+      <c r="AQ1" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR1" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -7859,12 +7902,14 @@
       <c r="AN2" s="19"/>
       <c r="AO2" s="19"/>
       <c r="AP2" s="19"/>
-      <c r="AQ2" s="20">
-        <f>COUNTIF(D2:AP2,"x")</f>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="20">
+        <f>COUNTIF(D2:AR2,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -7911,12 +7956,14 @@
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
-      <c r="AQ3" s="22">
-        <f>COUNTIF(D3:AP3,"x")</f>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="22">
+        <f>COUNTIF(D3:AR3,"x")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="21"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -8053,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="9">
-        <f t="shared" ref="AK4:AP4" si="6">COUNTIF(AK2:AK3,"x")</f>
+        <f t="shared" ref="AK4:AR4" si="6">COUNTIF(AK2:AK3,"x")</f>
         <v>0</v>
       </c>
       <c r="AL4" s="9">
@@ -8073,21 +8120,29 @@
         <v>0</v>
       </c>
       <c r="AP4" s="9">
+        <f t="shared" ref="AP4:AQ4" si="7">COUNTIF(AP2:AP3,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="23">
-        <f>$AT$4-COUNTIF(D4:AP4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AS4" s="33" t="s">
+      <c r="AS4" s="23">
+        <f>$AV$4-COUNTIF(D4:AR4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AT4" s="33">
-        <v>39</v>
+      <c r="AV4" s="33">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -8166,149 +8221,151 @@
       <c r="AP5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AQ5" s="22">
-        <f>COUNTIF(D5:AP5,"x")</f>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="22">
+        <f>COUNTIF(D5:AR5,"x")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="21"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:N6" si="7">COUNTIF(D5:D5,"x")</f>
+        <f t="shared" ref="D6:N6" si="8">COUNTIF(D5:D5,"x")</f>
         <v>1</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:AK6" si="8">COUNTIF(O5:O5,"x")</f>
+        <f t="shared" ref="O6:AK6" si="9">COUNTIF(O5:O5,"x")</f>
         <v>0</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y6" s="9">
-        <f t="shared" ref="Y6:AB6" si="9">COUNTIF(Y5:Y5,"x")</f>
+        <f t="shared" ref="Y6:AB6" si="10">COUNTIF(Y5:Y5,"x")</f>
         <v>1</v>
       </c>
       <c r="Z6" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" ref="AC6:AD6" si="11">COUNTIF(AC5:AC5,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AG6" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="9">
-        <f t="shared" ref="AC6:AD6" si="10">COUNTIF(AC5:AC5,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="9">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AH6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL6" s="9">
@@ -8331,177 +8388,193 @@
         <f>COUNTIF(AP5:AP5,"x")</f>
         <v>1</v>
       </c>
-      <c r="AQ6" s="23">
-        <f>$AT$4-COUNTIF(D6:AP6,0)</f>
+      <c r="AQ6" s="9">
+        <f>COUNTIF(AQ5:AQ5,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <f>COUNTIF(AR5:AR5,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="23">
+        <f>$AV$4-COUNTIF(D6:AR6,0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <f t="shared" ref="D7:AP7" si="11">D4+D6</f>
+        <f t="shared" ref="D7:AR7" si="12">D4+D6</f>
         <v>1</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U7" s="13">
-        <f t="shared" ref="U7" si="12">U4+U6</f>
+        <f t="shared" ref="U7" si="13">U4+U6</f>
         <v>1</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" ref="V7" si="13">V4+V6</f>
+        <f t="shared" ref="V7" si="14">V4+V6</f>
         <v>0</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" ref="W7" si="14">W4+W6</f>
+        <f t="shared" ref="W7" si="15">W4+W6</f>
         <v>0</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" ref="X7:AB7" si="15">X4+X6</f>
+        <f t="shared" ref="X7:AB7" si="16">X4+X6</f>
         <v>0</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Z7" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AA7" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB7" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC7" s="13">
-        <f t="shared" ref="AC7:AD7" si="16">AC4+AC6</f>
+        <f t="shared" ref="AC7:AD7" si="17">AC4+AC6</f>
         <v>1</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AE7" s="13">
-        <f t="shared" ref="AE7" si="17">AE4+AE6</f>
+        <f t="shared" ref="AE7" si="18">AE4+AE6</f>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" ref="AF7" si="18">AF4+AF6</f>
+        <f t="shared" ref="AF7" si="19">AF4+AF6</f>
         <v>0</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" ref="AG7" si="19">AG4+AG6</f>
+        <f t="shared" ref="AG7" si="20">AG4+AG6</f>
         <v>0</v>
       </c>
       <c r="AH7" s="13">
-        <f t="shared" ref="AH7" si="20">AH4+AH6</f>
+        <f t="shared" ref="AH7" si="21">AH4+AH6</f>
         <v>0</v>
       </c>
       <c r="AI7" s="13">
-        <f t="shared" ref="AI7" si="21">AI4+AI6</f>
+        <f t="shared" ref="AI7" si="22">AI4+AI6</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="13">
-        <f t="shared" ref="AJ7" si="22">AJ4+AJ6</f>
+        <f t="shared" ref="AJ7" si="23">AJ4+AJ6</f>
         <v>0</v>
       </c>
       <c r="AK7" s="13">
-        <f t="shared" ref="AK7" si="23">AK4+AK6</f>
+        <f t="shared" ref="AK7" si="24">AK4+AK6</f>
         <v>0</v>
       </c>
       <c r="AL7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AM7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP7" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="25">
-        <f>$AT$4-COUNTIF(D7:AP7,0)</f>
+        <f t="shared" ref="AP7:AQ7" si="25">AP4+AP6</f>
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="13">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="25">
+        <f>$AV$4-COUNTIF(D7:AR7,0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -8558,12 +8631,14 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
-      <c r="AQ8" s="27">
-        <f>COUNTIF(D8:AP8,"x")</f>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="27">
+        <f>COUNTIF(D8:AR8,"x")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -8628,12 +8703,14 @@
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
-      <c r="AQ9" s="22">
-        <f>COUNTIF(D9:AP9,"x")</f>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="22">
+        <f>COUNTIF(D9:AR9,"x")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="21"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
@@ -8710,97 +8787,99 @@
       </c>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
-      <c r="AQ10" s="22">
-        <f>COUNTIF(D10:AP10,"x")</f>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="22">
+        <f>COUNTIF(D10:AR10,"x")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21"/>
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9">
-        <f t="shared" ref="D11:AP11" si="24">COUNTIF(D8:D10,"x")</f>
+        <f t="shared" ref="D11:AR11" si="26">COUNTIF(D8:D10,"x")</f>
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y11" s="9">
@@ -8808,79 +8887,87 @@
         <v>1</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" ref="Z11:AD11" si="25">COUNTIF(Z8:Z10,"x")</f>
+        <f t="shared" ref="Z11:AD11" si="27">COUNTIF(Z8:Z10,"x")</f>
         <v>1</v>
       </c>
       <c r="AA11" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AB11" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AC11" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AF11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AG11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AJ11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AK11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AM11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AN11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AO11" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AP11" s="9">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="23">
-        <f>$AT$4-COUNTIF(D11:AP11,0)</f>
+        <f t="shared" ref="AP11:AQ11" si="28">COUNTIF(AP8:AP10,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="23">
+        <f>$AV$4-COUNTIF(D11:AR11,0)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -8959,342 +9046,360 @@
       </c>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="22">
-        <f>COUNTIF(D12:AP12,"x")</f>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="22">
+        <f>COUNTIF(D12:AR12,"x")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="21"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9">
-        <f t="shared" ref="D13:S13" si="26">COUNTIF(D12:D12,"x")</f>
+        <f t="shared" ref="D13:S13" si="29">COUNTIF(D12:D12,"x")</f>
         <v>0</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" ref="T13:AJ13" si="27">COUNTIF(T12:T12,"x")</f>
+        <f t="shared" ref="T13:AJ13" si="30">COUNTIF(T12:T12,"x")</f>
         <v>0</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="X13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" ref="Y13:AB13" si="28">COUNTIF(Y12:Y12,"x")</f>
+        <f t="shared" ref="Y13:AB13" si="31">COUNTIF(Y12:Y12,"x")</f>
         <v>1</v>
       </c>
       <c r="Z13" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA13" s="9">
-        <f t="shared" ref="AA13" si="29">COUNTIF(AA12:AA12,"x")</f>
+        <f t="shared" ref="AA13" si="32">COUNTIF(AA12:AA12,"x")</f>
         <v>0</v>
       </c>
       <c r="AB13" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AC13" s="9">
-        <f t="shared" ref="AC13:AD13" si="30">COUNTIF(AC12:AC12,"x")</f>
+        <f t="shared" ref="AC13:AD13" si="33">COUNTIF(AC12:AC12,"x")</f>
         <v>1</v>
       </c>
       <c r="AD13" s="9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="9">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="AE13" s="9">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
       <c r="AF13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AG13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AH13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AI13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK13" s="9">
-        <f t="shared" ref="AK13:AP13" si="31">COUNTIF(AK12:AK12,"x")</f>
+        <f t="shared" ref="AK13:AR13" si="34">COUNTIF(AK12:AK12,"x")</f>
         <v>0</v>
       </c>
       <c r="AL13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AM13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AN13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AO13" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AP13" s="9">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="23">
-        <f>$AT$4-COUNTIF(D13:AP13,0)</f>
+        <f t="shared" ref="AP13:AQ13" si="35">COUNTIF(AP12:AP12,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="9">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="23">
+        <f>$AV$4-COUNTIF(D13:AR13,0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="24"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="13">
-        <f t="shared" ref="D14:AP14" si="32">D11+D13</f>
+        <f t="shared" ref="D14:AR14" si="36">D11+D13</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="P14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="Q14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="S14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T14" s="13">
-        <f t="shared" ref="T14" si="33">T11+T13</f>
+        <f t="shared" ref="T14" si="37">T11+T13</f>
         <v>0</v>
       </c>
       <c r="U14" s="13">
-        <f t="shared" ref="U14" si="34">U11+U13</f>
+        <f t="shared" ref="U14" si="38">U11+U13</f>
         <v>3</v>
       </c>
       <c r="V14" s="13">
-        <f t="shared" ref="V14" si="35">V11+V13</f>
+        <f t="shared" ref="V14" si="39">V11+V13</f>
         <v>0</v>
       </c>
       <c r="W14" s="13">
-        <f t="shared" ref="W14" si="36">W11+W13</f>
+        <f t="shared" ref="W14" si="40">W11+W13</f>
         <v>2</v>
       </c>
       <c r="X14" s="13">
-        <f t="shared" ref="X14:AB14" si="37">X11+X13</f>
+        <f t="shared" ref="X14:AB14" si="41">X11+X13</f>
         <v>0</v>
       </c>
       <c r="Y14" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="Z14" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="AA14" s="13">
-        <f t="shared" ref="AA14" si="38">AA11+AA13</f>
+        <f t="shared" ref="AA14" si="42">AA11+AA13</f>
         <v>2</v>
       </c>
       <c r="AB14" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="AC14" s="13">
-        <f t="shared" ref="AC14:AD14" si="39">AC11+AC13</f>
+        <f t="shared" ref="AC14:AD14" si="43">AC11+AC13</f>
         <v>3</v>
       </c>
       <c r="AD14" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AE14" s="13">
-        <f t="shared" ref="AE14" si="40">AE11+AE13</f>
+        <f t="shared" ref="AE14" si="44">AE11+AE13</f>
         <v>4</v>
       </c>
       <c r="AF14" s="13">
-        <f t="shared" ref="AF14" si="41">AF11+AF13</f>
+        <f t="shared" ref="AF14" si="45">AF11+AF13</f>
         <v>1</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" ref="AG14" si="42">AG11+AG13</f>
+        <f t="shared" ref="AG14" si="46">AG11+AG13</f>
         <v>1</v>
       </c>
       <c r="AH14" s="13">
-        <f t="shared" ref="AH14" si="43">AH11+AH13</f>
+        <f t="shared" ref="AH14" si="47">AH11+AH13</f>
         <v>1</v>
       </c>
       <c r="AI14" s="13">
-        <f t="shared" ref="AI14" si="44">AI11+AI13</f>
+        <f t="shared" ref="AI14" si="48">AI11+AI13</f>
         <v>1</v>
       </c>
       <c r="AJ14" s="13">
-        <f t="shared" ref="AJ14" si="45">AJ11+AJ13</f>
+        <f t="shared" ref="AJ14" si="49">AJ11+AJ13</f>
         <v>0</v>
       </c>
       <c r="AK14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="AM14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AO14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AP14" s="13">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="25">
-        <f>$AT$4-COUNTIF(D14:AP14,0)</f>
+        <f t="shared" ref="AP14:AQ14" si="50">AP11+AP13</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="13">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="13">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="25">
+        <f>$AV$4-COUNTIF(D14:AR14,0)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26" t="s">
         <v>2</v>
       </c>
@@ -9367,12 +9472,16 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
-      <c r="AQ15" s="27">
-        <f>COUNTIF(D15:AP15,"x")</f>
-        <v>12</v>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="27">
+        <f>COUNTIF(D15:AR15,"x")</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
@@ -9431,12 +9540,14 @@
       <c r="AN16" s="35"/>
       <c r="AO16" s="35"/>
       <c r="AP16" s="35"/>
-      <c r="AQ16" s="22">
-        <f>COUNTIF(D16:AP16,"x")</f>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="22">
+        <f>COUNTIF(D16:AR16,"x")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="21"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -9519,177 +9630,191 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
-      <c r="AQ17" s="22">
-        <f>COUNTIF(D17:AP17,"x")</f>
-        <v>19</v>
+      <c r="AQ17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="22">
+        <f>COUNTIF(D17:AR17,"x")</f>
+        <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="21"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
-        <f t="shared" ref="D18:S18" si="46">COUNTIF(D15:D17,"x")</f>
+        <f t="shared" ref="D18:S18" si="51">COUNTIF(D15:D17,"x")</f>
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" ref="T18:AJ18" si="47">COUNTIF(T15:T17,"x")</f>
+        <f t="shared" ref="T18:AJ18" si="52">COUNTIF(T15:T17,"x")</f>
         <v>0</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" ref="Y18:AD18" si="48">COUNTIF(Y15:Y17,"x")</f>
+        <f t="shared" ref="Y18:AD18" si="53">COUNTIF(Y15:Y17,"x")</f>
         <v>2</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AB18" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AC18" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AE18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AF18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="AG18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="AH18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AI18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="AJ18" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AK18" s="9">
-        <f t="shared" ref="AK18:AP18" si="49">COUNTIF(AK15:AK17,"x")</f>
+        <f t="shared" ref="AK18:AR18" si="54">COUNTIF(AK15:AK17,"x")</f>
         <v>1</v>
       </c>
       <c r="AL18" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AM18" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AN18" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AO18" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AP18" s="9">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="23">
-        <f>$AT$4-COUNTIF(D18:AP18,0)</f>
-        <v>21</v>
+        <f t="shared" ref="AP18:AQ18" si="55">COUNTIF(AP15:AP17,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="9">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AR18" s="9">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AS18" s="23">
+        <f>$AV$4-COUNTIF(D18:AR18,0)</f>
+        <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="21"/>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -9762,12 +9887,16 @@
       </c>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
-      <c r="AQ19" s="22">
-        <f>COUNTIF(D19:AP19,"x")</f>
-        <v>13</v>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="22">
+        <f>COUNTIF(D19:AR19,"x")</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="21"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
@@ -9822,12 +9951,14 @@
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="22">
-        <f>COUNTIF(D20:AP20,"x")</f>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="22">
+        <f>COUNTIF(D20:AR20,"x")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="21"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
@@ -9898,342 +10029,364 @@
       </c>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
-      <c r="AQ21" s="22">
-        <f>COUNTIF(D21:AP21,"x")</f>
-        <v>13</v>
+      <c r="AQ21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="22">
+        <f>COUNTIF(D21:AR21,"x")</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="21"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9">
-        <f t="shared" ref="D22:S22" si="50">COUNTIF(D19:D21,"x")</f>
+        <f t="shared" ref="D22:S22" si="56">COUNTIF(D19:D21,"x")</f>
         <v>0</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" ref="T22:AJ22" si="51">COUNTIF(T19:T21,"x")</f>
+        <f t="shared" ref="T22:AJ22" si="57">COUNTIF(T19:T21,"x")</f>
         <v>2</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" ref="Y22:AB22" si="52">COUNTIF(Y19:Y21,"x")</f>
+        <f t="shared" ref="Y22:AB22" si="58">COUNTIF(Y19:Y21,"x")</f>
         <v>1</v>
       </c>
       <c r="Z22" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="AA22" s="9">
-        <f t="shared" ref="AA22" si="53">COUNTIF(AA19:AA21,"x")</f>
+        <f t="shared" ref="AA22" si="59">COUNTIF(AA19:AA21,"x")</f>
         <v>1</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AC22" s="9">
-        <f t="shared" ref="AC22:AD22" si="54">COUNTIF(AC19:AC21,"x")</f>
+        <f t="shared" ref="AC22:AD22" si="60">COUNTIF(AC19:AC21,"x")</f>
         <v>1</v>
       </c>
       <c r="AD22" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="AE22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="AG22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AH22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AI22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="AJ22" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AK22" s="9">
-        <f t="shared" ref="AK22:AP22" si="55">COUNTIF(AK19:AK21,"x")</f>
+        <f t="shared" ref="AK22:AR22" si="61">COUNTIF(AK19:AK21,"x")</f>
         <v>3</v>
       </c>
       <c r="AL22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3</v>
       </c>
       <c r="AM22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AN22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>2</v>
       </c>
       <c r="AO22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AP22" s="9">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="23">
-        <f>$AT$4-COUNTIF(D22:AP22,0)</f>
-        <v>16</v>
+        <f t="shared" ref="AP22:AQ22" si="62">COUNTIF(AP19:AP21,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="9">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="AR22" s="9">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AS22" s="23">
+        <f>$AV$4-COUNTIF(D22:AR22,0)</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="24"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13">
-        <f t="shared" ref="D23:S23" si="56">D18+D22</f>
+        <f t="shared" ref="D23:S23" si="63">D18+D22</f>
         <v>0</v>
       </c>
       <c r="E23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="S23" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="T23" s="13">
-        <f t="shared" ref="T23:AJ23" si="57">T18+T22</f>
+        <f t="shared" ref="T23:AJ23" si="64">T18+T22</f>
         <v>2</v>
       </c>
       <c r="U23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>4</v>
       </c>
       <c r="V23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="W23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="X23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Y23" s="13">
-        <f t="shared" ref="Y23:AB23" si="58">Y18+Y22</f>
+        <f t="shared" ref="Y23:AB23" si="65">Y18+Y22</f>
         <v>3</v>
       </c>
       <c r="Z23" s="13">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>6</v>
       </c>
       <c r="AA23" s="13">
-        <f t="shared" ref="AA23" si="59">AA18+AA22</f>
+        <f t="shared" ref="AA23" si="66">AA18+AA22</f>
         <v>4</v>
       </c>
       <c r="AB23" s="13">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="AC23" s="13">
-        <f t="shared" ref="AC23:AD23" si="60">AC18+AC22</f>
+        <f t="shared" ref="AC23:AD23" si="67">AC18+AC22</f>
         <v>4</v>
       </c>
       <c r="AD23" s="13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="AE23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AF23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>4</v>
       </c>
       <c r="AG23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="AH23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AI23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="AJ23" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AK23" s="13">
-        <f t="shared" ref="AK23:AP23" si="61">AK18+AK22</f>
+        <f t="shared" ref="AK23:AR23" si="68">AK18+AK22</f>
         <v>4</v>
       </c>
       <c r="AL23" s="13">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>4</v>
       </c>
       <c r="AM23" s="13">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="AN23" s="13">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="AO23" s="13">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AP23" s="13">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="25">
-        <f>$AT$4-COUNTIF(D23:AP23,0)</f>
-        <v>26</v>
+        <f t="shared" ref="AP23:AQ23" si="69">AP18+AP22</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="13">
+        <f t="shared" si="69"/>
+        <v>2</v>
+      </c>
+      <c r="AR23" s="13">
+        <f t="shared" si="68"/>
+        <v>4</v>
+      </c>
+      <c r="AS23" s="25">
+        <f>$AV$4-COUNTIF(D23:AR23,0)</f>
+        <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="26" t="s">
         <v>23</v>
       </c>
@@ -10294,177 +10447,187 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="27">
-        <f>COUNTIF(D24:AP24,"x")</f>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="27">
+        <f>COUNTIF(D24:AR24,"x")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="21"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9">
-        <f t="shared" ref="D25:S25" si="62">COUNTIF(D24:D24,"x")</f>
+        <f t="shared" ref="D25:S25" si="70">COUNTIF(D24:D24,"x")</f>
         <v>0</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" ref="T25:AJ25" si="63">COUNTIF(T24:T24,"x")</f>
+        <f t="shared" ref="T25:AJ25" si="71">COUNTIF(T24:T24,"x")</f>
         <v>0</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="X25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" ref="Y25:AD25" si="64">COUNTIF(Y24:Y24,"x")</f>
+        <f t="shared" ref="Y25:AD25" si="72">COUNTIF(Y24:Y24,"x")</f>
         <v>1</v>
       </c>
       <c r="Z25" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AA25" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB25" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AC25" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AD25" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AE25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AF25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AG25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AH25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AI25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AK25" s="9">
-        <f t="shared" ref="AK25:AP25" si="65">COUNTIF(AK24:AK24,"x")</f>
+        <f t="shared" ref="AK25:AR25" si="73">COUNTIF(AK24:AK24,"x")</f>
         <v>0</v>
       </c>
       <c r="AL25" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="AM25" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AN25" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AO25" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AP25" s="9">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="23">
-        <f>$AT$4-COUNTIF(D25:AP25,0)</f>
+        <f t="shared" ref="AP25:AQ25" si="74">COUNTIF(AP24:AP24,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="9">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="9">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AS25" s="23">
+        <f>$AV$4-COUNTIF(D25:AR25,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="21"/>
       <c r="B26" s="10" t="s">
         <v>25</v>
@@ -10539,12 +10702,14 @@
         <v>1</v>
       </c>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="22">
-        <f>COUNTIF(D26:AP26,"x")</f>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="22">
+        <f>COUNTIF(D26:AR26,"x")</f>
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="21"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
@@ -10595,12 +10760,14 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="22">
-        <f>COUNTIF(D27:AP27,"x")</f>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="22">
+        <f>COUNTIF(D27:AR27,"x")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="21"/>
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
@@ -10679,177 +10846,187 @@
         <v>1</v>
       </c>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="22">
-        <f>COUNTIF(D28:AP28,"x")</f>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="22">
+        <f>COUNTIF(D28:AR28,"x")</f>
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="21"/>
       <c r="B29" s="7"/>
       <c r="C29" s="36"/>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:S29" si="66">COUNTIF(D26:D28,"x")</f>
+        <f t="shared" ref="D29:S29" si="75">COUNTIF(D26:D28,"x")</f>
         <v>1</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29:AJ29" si="67">COUNTIF(T26:T28,"x")</f>
+        <f t="shared" ref="T29:AJ29" si="76">COUNTIF(T26:T28,"x")</f>
         <v>3</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29:AD29" si="68">COUNTIF(Y26:Y28,"x")</f>
+        <f t="shared" ref="Y29:AD29" si="77">COUNTIF(Y26:Y28,"x")</f>
         <v>2</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" ref="AK29:AP29" si="69">COUNTIF(AK26:AK28,"x")</f>
+        <f t="shared" ref="AK29:AR29" si="78">COUNTIF(AK26:AK28,"x")</f>
         <v>0</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AN29" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
       <c r="AO29" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
       <c r="AP29" s="15">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="37">
-        <f>$AT$4-COUNTIF(D29:AP29,0)</f>
+        <f t="shared" ref="AP29:AQ29" si="79">COUNTIF(AP26:AP28,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="15">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AR29" s="15">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AS29" s="37">
+        <f>$AV$4-COUNTIF(D29:AR29,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="21"/>
       <c r="B30" s="10" t="s">
         <v>29</v>
@@ -10914,342 +11091,360 @@
         <v>1</v>
       </c>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="22">
-        <f>COUNTIF(D30:AP30,"x")</f>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="22">
+        <f>COUNTIF(D30:AR30,"x")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="21"/>
       <c r="B31" s="11"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9">
-        <f t="shared" ref="D31:S31" si="70">COUNTIF(D30:D30,"x")</f>
+        <f t="shared" ref="D31:S31" si="80">COUNTIF(D30:D30,"x")</f>
         <v>0</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31:AJ31" si="71">COUNTIF(T30:T30,"x")</f>
+        <f t="shared" ref="T31:AJ31" si="81">COUNTIF(T30:T30,"x")</f>
         <v>1</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="W31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="X31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="Y31" s="9">
-        <f t="shared" ref="Y31:AB31" si="72">COUNTIF(Y30:Y30,"x")</f>
+        <f t="shared" ref="Y31:AB31" si="82">COUNTIF(Y30:Y30,"x")</f>
         <v>0</v>
       </c>
       <c r="Z31" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AA31" s="9">
-        <f t="shared" ref="AA31" si="73">COUNTIF(AA30:AA30,"x")</f>
+        <f t="shared" ref="AA31" si="83">COUNTIF(AA30:AA30,"x")</f>
         <v>1</v>
       </c>
       <c r="AB31" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AC31" s="9">
-        <f t="shared" ref="AC31:AD31" si="74">COUNTIF(AC30:AC30,"x")</f>
+        <f t="shared" ref="AC31:AD31" si="84">COUNTIF(AC30:AC30,"x")</f>
         <v>0</v>
       </c>
       <c r="AD31" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="AE31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AF31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="AG31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AH31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AI31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="AK31" s="9">
-        <f t="shared" ref="AK31:AP31" si="75">COUNTIF(AK30:AK30,"x")</f>
+        <f t="shared" ref="AK31:AR31" si="85">COUNTIF(AK30:AK30,"x")</f>
         <v>0</v>
       </c>
       <c r="AL31" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AM31" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AN31" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AO31" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="AP31" s="9">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="23">
-        <f>$AT$4-COUNTIF(D31:AP31,0)</f>
+        <f t="shared" ref="AP31:AQ31" si="86">COUNTIF(AP30:AP30,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="9">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="AR31" s="9">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="AS31" s="23">
+        <f>$AV$4-COUNTIF(D31:AR31,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30">
-        <f t="shared" ref="D32:AP32" si="76">D25+D29+D31</f>
+        <f t="shared" ref="D32:AR32" si="87">D25+D29+D31</f>
         <v>1</v>
       </c>
       <c r="E32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>3</v>
       </c>
       <c r="F32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="G32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="J32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="L32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="M32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>3</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="P32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="Q32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="R32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="T32" s="30">
-        <f t="shared" ref="T32" si="77">T25+T29+T31</f>
+        <f t="shared" ref="T32" si="88">T25+T29+T31</f>
         <v>4</v>
       </c>
       <c r="U32" s="30">
-        <f t="shared" ref="U32" si="78">U25+U29+U31</f>
+        <f t="shared" ref="U32" si="89">U25+U29+U31</f>
         <v>0</v>
       </c>
       <c r="V32" s="30">
-        <f t="shared" ref="V32" si="79">V25+V29+V31</f>
+        <f t="shared" ref="V32" si="90">V25+V29+V31</f>
         <v>2</v>
       </c>
       <c r="W32" s="30">
-        <f t="shared" ref="W32" si="80">W25+W29+W31</f>
+        <f t="shared" ref="W32" si="91">W25+W29+W31</f>
         <v>3</v>
       </c>
       <c r="X32" s="30">
-        <f t="shared" ref="X32:AB32" si="81">X25+X29+X31</f>
+        <f t="shared" ref="X32:AB32" si="92">X25+X29+X31</f>
         <v>2</v>
       </c>
       <c r="Y32" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>3</v>
       </c>
       <c r="Z32" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AA32" s="30">
-        <f t="shared" ref="AA32" si="82">AA25+AA29+AA31</f>
+        <f t="shared" ref="AA32" si="93">AA25+AA29+AA31</f>
         <v>2</v>
       </c>
       <c r="AB32" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="AC32" s="30">
-        <f t="shared" ref="AC32:AD32" si="83">AC25+AC29+AC31</f>
+        <f t="shared" ref="AC32:AD32" si="94">AC25+AC29+AC31</f>
         <v>0</v>
       </c>
       <c r="AD32" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>2</v>
       </c>
       <c r="AE32" s="30">
-        <f t="shared" ref="AE32" si="84">AE25+AE29+AE31</f>
+        <f t="shared" ref="AE32" si="95">AE25+AE29+AE31</f>
         <v>2</v>
       </c>
       <c r="AF32" s="30">
-        <f t="shared" ref="AF32" si="85">AF25+AF29+AF31</f>
+        <f t="shared" ref="AF32" si="96">AF25+AF29+AF31</f>
         <v>2</v>
       </c>
       <c r="AG32" s="30">
-        <f t="shared" ref="AG32" si="86">AG25+AG29+AG31</f>
+        <f t="shared" ref="AG32" si="97">AG25+AG29+AG31</f>
         <v>2</v>
       </c>
       <c r="AH32" s="30">
-        <f t="shared" ref="AH32" si="87">AH25+AH29+AH31</f>
+        <f t="shared" ref="AH32" si="98">AH25+AH29+AH31</f>
         <v>0</v>
       </c>
       <c r="AI32" s="30">
-        <f t="shared" ref="AI32" si="88">AI25+AI29+AI31</f>
+        <f t="shared" ref="AI32" si="99">AI25+AI29+AI31</f>
         <v>1</v>
       </c>
       <c r="AJ32" s="30">
-        <f t="shared" ref="AJ32" si="89">AJ25+AJ29+AJ31</f>
+        <f t="shared" ref="AJ32" si="100">AJ25+AJ29+AJ31</f>
         <v>1</v>
       </c>
       <c r="AK32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AL32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="AM32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AN32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="AO32" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>3</v>
       </c>
       <c r="AP32" s="30">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="31">
-        <f>$AT$4-COUNTIF(D32:AP32,0)</f>
+        <f t="shared" ref="AP32:AQ32" si="101">AP25+AP29+AP31</f>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="30">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="AR32" s="30">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="AS32" s="31">
+        <f>$AV$4-COUNTIF(D32:AR32,0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11264,16 +11459,16 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="49" t="s">
         <v>146</v>
       </c>
@@ -11290,7 +11485,7 @@
       </c>
       <c r="L1" s="49"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="47" t="s">
         <v>133</v>
       </c>
@@ -11319,7 +11514,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="48" t="s">
         <v>136</v>
       </c>
@@ -11333,25 +11528,25 @@
         <v>4</v>
       </c>
       <c r="F3" s="48">
-        <f>Coverage!AQ4</f>
+        <f>Coverage!AS4</f>
         <v>0</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>152</v>
       </c>
       <c r="I3" s="48">
-        <f>Coverage!AQ8</f>
+        <f>Coverage!AS8</f>
         <v>4</v>
       </c>
       <c r="K3" s="48" t="s">
         <v>157</v>
       </c>
       <c r="L3" s="48">
-        <f>Coverage!AQ26</f>
+        <f>Coverage!AS26</f>
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="48" t="s">
         <v>136</v>
       </c>
@@ -11365,25 +11560,25 @@
         <v>2</v>
       </c>
       <c r="F4" s="48">
-        <f>Coverage!AQ6</f>
+        <f>Coverage!AS6</f>
         <v>16</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>153</v>
       </c>
       <c r="I4" s="48">
-        <f>Coverage!AQ9</f>
+        <f>Coverage!AS9</f>
         <v>9</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>158</v>
       </c>
       <c r="L4" s="48">
-        <f>Coverage!AQ27</f>
+        <f>Coverage!AS27</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="48" t="s">
         <v>137</v>
       </c>
@@ -11397,25 +11592,25 @@
         <v>2</v>
       </c>
       <c r="F5" s="48">
-        <f>Coverage!AQ11</f>
+        <f>Coverage!AS11</f>
         <v>18</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>154</v>
       </c>
       <c r="I5" s="48">
-        <f>Coverage!AQ10</f>
+        <f>Coverage!AS10</f>
         <v>16</v>
       </c>
       <c r="K5" s="48" t="s">
         <v>159</v>
       </c>
       <c r="L5" s="48">
-        <f>Coverage!AQ28</f>
+        <f>Coverage!AS28</f>
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="48" t="s">
         <v>137</v>
       </c>
@@ -11429,11 +11624,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="48">
-        <f>Coverage!AQ13</f>
+        <f>Coverage!AS13</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="48" t="s">
         <v>138</v>
       </c>
@@ -11447,11 +11642,11 @@
         <v>2</v>
       </c>
       <c r="F7" s="48">
-        <f>Coverage!AQ18</f>
-        <v>21</v>
+        <f>Coverage!AS18</f>
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="48" t="s">
         <v>138</v>
       </c>
@@ -11465,8 +11660,8 @@
         <v>4</v>
       </c>
       <c r="F8" s="48">
-        <f>Coverage!AQ22</f>
-        <v>16</v>
+        <f>Coverage!AS22</f>
+        <v>18</v>
       </c>
       <c r="H8" s="49" t="s">
         <v>149</v>
@@ -11477,7 +11672,7 @@
       </c>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="48" t="s">
         <v>139</v>
       </c>
@@ -11491,7 +11686,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="48">
-        <f>Coverage!AQ25</f>
+        <f>Coverage!AS25</f>
         <v>6</v>
       </c>
       <c r="H9" s="47" t="s">
@@ -11507,7 +11702,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="48" t="s">
         <v>139</v>
       </c>
@@ -11521,25 +11716,25 @@
         <v>4</v>
       </c>
       <c r="F10" s="48">
-        <f>Coverage!AQ29</f>
+        <f>Coverage!AS29</f>
         <v>19</v>
       </c>
       <c r="H10" s="48" t="s">
         <v>155</v>
       </c>
       <c r="I10" s="48">
-        <f>Coverage!AQ15</f>
-        <v>12</v>
+        <f>Coverage!AS15</f>
+        <v>13</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>163</v>
       </c>
       <c r="L10" s="48">
-        <f>Coverage!$AQ$19</f>
-        <v>13</v>
+        <f>Coverage!$AS$19</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="48" t="s">
         <v>139</v>
       </c>
@@ -11553,38 +11748,38 @@
         <v>6</v>
       </c>
       <c r="F11" s="48">
-        <f>Coverage!AQ31</f>
+        <f>Coverage!AS31</f>
         <v>9</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>152</v>
       </c>
       <c r="I11" s="48">
-        <f>Coverage!AQ16</f>
+        <f>Coverage!AS16</f>
         <v>6</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>152</v>
       </c>
       <c r="L11" s="48">
-        <f>Coverage!$AQ$20</f>
+        <f>Coverage!$AS$20</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" s="48" t="s">
         <v>156</v>
       </c>
       <c r="I12" s="48">
-        <f>Coverage!AQ17</f>
-        <v>19</v>
+        <f>Coverage!AS17</f>
+        <v>21</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>156</v>
       </c>
       <c r="L12" s="48">
-        <f>Coverage!$AQ$21</f>
-        <v>13</v>
+        <f>Coverage!$AS$21</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
